--- a/test/test_data/test_file_main_subject_country.xlsx
+++ b/test/test_data/test_file_main_subject_country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandeep/Github/t2wml-annotation/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandeep/Github/datamart-api/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD753A-CBC0-2647-A244-766DB1D05C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD9CA0-5525-7C47-BD46-44B4737A022C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33140" yWindow="7000" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2020" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - aid worker security_i" sheetId="1" r:id="rId1"/>
@@ -182,14 +182,14 @@
     <t>around the corner</t>
   </si>
   <si>
-    <t>TESTAID</t>
+    <t>TESEthMarket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -199,12 +199,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -415,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -553,6 +561,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +812,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="46" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="3"/>

--- a/test/test_data/test_file_main_subject_country.xlsx
+++ b/test/test_data/test_file_main_subject_country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandeep/Github/datamart-api/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD9CA0-5525-7C47-BD46-44B4737A022C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE048D0-760F-8144-B216-597977BF7D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2020" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17900" yWindow="9680" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - aid worker security_i" sheetId="1" r:id="rId1"/>
@@ -182,14 +182,14 @@
     <t>around the corner</t>
   </si>
   <si>
-    <t>TESEthMarket</t>
+    <t>unittestuploaddataset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -209,10 +209,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFE6DB74"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -792,7 +792,7 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -808,7 +808,7 @@
     <col min="12" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>36</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>44.795000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="34">
         <v>1998</v>
@@ -1082,7 +1082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34">
         <v>1999</v>
@@ -1119,7 +1119,7 @@
         <v>40.489673000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
@@ -1134,7 +1134,7 @@
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
@@ -1149,7 +1149,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
       <c r="C13" s="35"/>
@@ -1164,7 +1164,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
@@ -1179,7 +1179,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
@@ -1194,7 +1194,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -1209,7 +1209,7 @@
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
@@ -1224,7 +1224,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
@@ -1239,7 +1239,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
@@ -1254,7 +1254,7 @@
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
@@ -1269,7 +1269,7 @@
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
@@ -1284,7 +1284,7 @@
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
@@ -1299,7 +1299,7 @@
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
@@ -1314,7 +1314,7 @@
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
@@ -1329,7 +1329,7 @@
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1">
       <c r="A25" s="33"/>
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
@@ -1344,7 +1344,7 @@
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="35"/>
@@ -1359,7 +1359,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1">
       <c r="A27" s="33"/>
       <c r="B27" s="34"/>
       <c r="C27" s="35"/>
@@ -1374,7 +1374,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
@@ -1389,7 +1389,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1">
       <c r="A29" s="33"/>
       <c r="B29" s="34"/>
       <c r="C29" s="35"/>
@@ -1404,7 +1404,7 @@
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="35"/>
@@ -1419,7 +1419,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1">
       <c r="A31" s="33"/>
       <c r="B31" s="34"/>
       <c r="C31" s="35"/>
@@ -1434,7 +1434,7 @@
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="35"/>
@@ -1449,7 +1449,7 @@
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35"/>
@@ -1464,7 +1464,7 @@
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="35"/>
@@ -1479,7 +1479,7 @@
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35"/>
@@ -1494,7 +1494,7 @@
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="35"/>
@@ -1509,7 +1509,7 @@
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="C37" s="35"/>
@@ -1524,7 +1524,7 @@
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="35"/>
@@ -1539,7 +1539,7 @@
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
       <c r="C39" s="35"/>
@@ -1554,7 +1554,7 @@
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="35"/>
@@ -1569,7 +1569,7 @@
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1">
       <c r="A41" s="40"/>
       <c r="B41" s="34"/>
       <c r="C41" s="35"/>
@@ -1584,7 +1584,7 @@
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1">
       <c r="A42" s="41"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -1599,7 +1599,7 @@
       <c r="L42" s="43"/>
       <c r="M42" s="43"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1">
       <c r="A43" s="41"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -1614,7 +1614,7 @@
       <c r="L43" s="43"/>
       <c r="M43" s="43"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1">
       <c r="A44" s="41"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -1629,7 +1629,7 @@
       <c r="L44" s="43"/>
       <c r="M44" s="43"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -1644,7 +1644,7 @@
       <c r="L45" s="43"/>
       <c r="M45" s="43"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1">
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -1659,7 +1659,7 @@
       <c r="L46" s="43"/>
       <c r="M46" s="43"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -1674,7 +1674,7 @@
       <c r="L47" s="43"/>
       <c r="M47" s="43"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1">
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -1689,7 +1689,7 @@
       <c r="L48" s="43"/>
       <c r="M48" s="43"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -1704,7 +1704,7 @@
       <c r="L49" s="43"/>
       <c r="M49" s="43"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -1719,7 +1719,7 @@
       <c r="L50" s="43"/>
       <c r="M50" s="43"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -1734,7 +1734,7 @@
       <c r="L51" s="43"/>
       <c r="M51" s="43"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -1749,7 +1749,7 @@
       <c r="L52" s="43"/>
       <c r="M52" s="43"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -1764,7 +1764,7 @@
       <c r="L53" s="43"/>
       <c r="M53" s="43"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1">
       <c r="A54" s="41"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -1779,7 +1779,7 @@
       <c r="L54" s="43"/>
       <c r="M54" s="43"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1">
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -1794,7 +1794,7 @@
       <c r="L55" s="43"/>
       <c r="M55" s="43"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1">
       <c r="A56" s="41"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -1809,7 +1809,7 @@
       <c r="L56" s="43"/>
       <c r="M56" s="43"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1">
       <c r="A57" s="41"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -1824,7 +1824,7 @@
       <c r="L57" s="43"/>
       <c r="M57" s="43"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -1839,7 +1839,7 @@
       <c r="L58" s="43"/>
       <c r="M58" s="43"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1">
       <c r="A59" s="41"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -1854,7 +1854,7 @@
       <c r="L59" s="43"/>
       <c r="M59" s="43"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1">
       <c r="A60" s="41"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -1869,7 +1869,7 @@
       <c r="L60" s="43"/>
       <c r="M60" s="43"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1">
       <c r="A61" s="41"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -1884,7 +1884,7 @@
       <c r="L61" s="43"/>
       <c r="M61" s="43"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1">
       <c r="A62" s="41"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -1899,7 +1899,7 @@
       <c r="L62" s="43"/>
       <c r="M62" s="43"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1">
       <c r="A63" s="41"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -1914,7 +1914,7 @@
       <c r="L63" s="43"/>
       <c r="M63" s="43"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1">
       <c r="A64" s="41"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -1929,7 +1929,7 @@
       <c r="L64" s="43"/>
       <c r="M64" s="43"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1">
       <c r="A65" s="41"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -1944,7 +1944,7 @@
       <c r="L65" s="43"/>
       <c r="M65" s="43"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1">
       <c r="A66" s="41"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -1959,7 +1959,7 @@
       <c r="L66" s="43"/>
       <c r="M66" s="43"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1">
       <c r="A67" s="41"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -1974,7 +1974,7 @@
       <c r="L67" s="43"/>
       <c r="M67" s="43"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1">
       <c r="A68" s="41"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -1989,7 +1989,7 @@
       <c r="L68" s="43"/>
       <c r="M68" s="43"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1">
       <c r="A69" s="41"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -2004,7 +2004,7 @@
       <c r="L69" s="43"/>
       <c r="M69" s="43"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1">
       <c r="A70" s="41"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -2019,7 +2019,7 @@
       <c r="L70" s="43"/>
       <c r="M70" s="43"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1">
       <c r="A71" s="41"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -2034,7 +2034,7 @@
       <c r="L71" s="43"/>
       <c r="M71" s="43"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1">
       <c r="A72" s="41"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -2049,7 +2049,7 @@
       <c r="L72" s="43"/>
       <c r="M72" s="43"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1">
       <c r="A73" s="41"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -2064,7 +2064,7 @@
       <c r="L73" s="43"/>
       <c r="M73" s="43"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1">
       <c r="A74" s="41"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -2079,7 +2079,7 @@
       <c r="L74" s="43"/>
       <c r="M74" s="43"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1">
       <c r="A75" s="41"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -2094,7 +2094,7 @@
       <c r="L75" s="43"/>
       <c r="M75" s="43"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1">
       <c r="A76" s="41"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -2109,7 +2109,7 @@
       <c r="L76" s="43"/>
       <c r="M76" s="43"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1">
       <c r="A77" s="41"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -2124,7 +2124,7 @@
       <c r="L77" s="43"/>
       <c r="M77" s="43"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1">
       <c r="A78" s="41"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -2139,7 +2139,7 @@
       <c r="L78" s="43"/>
       <c r="M78" s="43"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1">
       <c r="A79" s="41"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -2154,7 +2154,7 @@
       <c r="L79" s="43"/>
       <c r="M79" s="43"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1">
       <c r="A80" s="41"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -2169,7 +2169,7 @@
       <c r="L80" s="43"/>
       <c r="M80" s="43"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1">
       <c r="A81" s="41"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -2184,7 +2184,7 @@
       <c r="L81" s="43"/>
       <c r="M81" s="43"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1">
       <c r="A82" s="41"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -2199,7 +2199,7 @@
       <c r="L82" s="43"/>
       <c r="M82" s="43"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1">
       <c r="A83" s="41"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -2214,7 +2214,7 @@
       <c r="L83" s="43"/>
       <c r="M83" s="43"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1">
       <c r="A84" s="41"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -2229,7 +2229,7 @@
       <c r="L84" s="43"/>
       <c r="M84" s="43"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1">
       <c r="A85" s="41"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -2244,7 +2244,7 @@
       <c r="L85" s="43"/>
       <c r="M85" s="43"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1">
       <c r="A86" s="41"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -2259,7 +2259,7 @@
       <c r="L86" s="43"/>
       <c r="M86" s="43"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1">
       <c r="A87" s="41"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -2274,7 +2274,7 @@
       <c r="L87" s="43"/>
       <c r="M87" s="43"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1">
       <c r="A88" s="41"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -2289,7 +2289,7 @@
       <c r="L88" s="43"/>
       <c r="M88" s="43"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1">
       <c r="A89" s="41"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -2304,7 +2304,7 @@
       <c r="L89" s="43"/>
       <c r="M89" s="43"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1">
       <c r="A90" s="41"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -2319,7 +2319,7 @@
       <c r="L90" s="43"/>
       <c r="M90" s="43"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1">
       <c r="A91" s="41"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -2334,7 +2334,7 @@
       <c r="L91" s="43"/>
       <c r="M91" s="43"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1">
       <c r="A92" s="41"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -2349,7 +2349,7 @@
       <c r="L92" s="43"/>
       <c r="M92" s="43"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1">
       <c r="A93" s="41"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -2364,7 +2364,7 @@
       <c r="L93" s="43"/>
       <c r="M93" s="43"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1">
       <c r="A94" s="41"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -2379,7 +2379,7 @@
       <c r="L94" s="43"/>
       <c r="M94" s="43"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1">
       <c r="A95" s="41"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -2394,7 +2394,7 @@
       <c r="L95" s="43"/>
       <c r="M95" s="43"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1">
       <c r="A96" s="41"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -2409,7 +2409,7 @@
       <c r="L96" s="43"/>
       <c r="M96" s="43"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1">
       <c r="A97" s="41"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -2424,7 +2424,7 @@
       <c r="L97" s="43"/>
       <c r="M97" s="43"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1">
       <c r="A98" s="41"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -2439,7 +2439,7 @@
       <c r="L98" s="43"/>
       <c r="M98" s="43"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1">
       <c r="A99" s="41"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -2454,7 +2454,7 @@
       <c r="L99" s="43"/>
       <c r="M99" s="43"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42"/>
@@ -2469,7 +2469,7 @@
       <c r="L100" s="43"/>
       <c r="M100" s="43"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1">
       <c r="A101" s="41"/>
       <c r="B101" s="42"/>
       <c r="C101" s="42"/>
@@ -2484,7 +2484,7 @@
       <c r="L101" s="43"/>
       <c r="M101" s="43"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1">
       <c r="A102" s="41"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
@@ -2499,7 +2499,7 @@
       <c r="L102" s="43"/>
       <c r="M102" s="43"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1">
       <c r="A103" s="41"/>
       <c r="B103" s="42"/>
       <c r="C103" s="42"/>
@@ -2514,7 +2514,7 @@
       <c r="L103" s="43"/>
       <c r="M103" s="43"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1">
       <c r="A104" s="41"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -2529,7 +2529,7 @@
       <c r="L104" s="43"/>
       <c r="M104" s="43"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1">
       <c r="A105" s="41"/>
       <c r="B105" s="42"/>
       <c r="C105" s="42"/>
@@ -2544,7 +2544,7 @@
       <c r="L105" s="43"/>
       <c r="M105" s="43"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1">
       <c r="A106" s="41"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42"/>
@@ -2559,7 +2559,7 @@
       <c r="L106" s="43"/>
       <c r="M106" s="43"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1">
       <c r="A107" s="41"/>
       <c r="B107" s="42"/>
       <c r="C107" s="42"/>
@@ -2574,7 +2574,7 @@
       <c r="L107" s="43"/>
       <c r="M107" s="43"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1">
       <c r="A108" s="41"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42"/>
@@ -2589,7 +2589,7 @@
       <c r="L108" s="43"/>
       <c r="M108" s="43"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1">
       <c r="A109" s="41"/>
       <c r="B109" s="42"/>
       <c r="C109" s="42"/>
@@ -2604,7 +2604,7 @@
       <c r="L109" s="43"/>
       <c r="M109" s="43"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1">
       <c r="A110" s="41"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
@@ -2619,7 +2619,7 @@
       <c r="L110" s="43"/>
       <c r="M110" s="43"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1">
       <c r="A111" s="41"/>
       <c r="B111" s="42"/>
       <c r="C111" s="42"/>
@@ -2634,7 +2634,7 @@
       <c r="L111" s="43"/>
       <c r="M111" s="43"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1">
       <c r="A112" s="41"/>
       <c r="B112" s="42"/>
       <c r="C112" s="42"/>
@@ -2649,7 +2649,7 @@
       <c r="L112" s="43"/>
       <c r="M112" s="43"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1">
       <c r="A113" s="41"/>
       <c r="B113" s="42"/>
       <c r="C113" s="42"/>
@@ -2664,7 +2664,7 @@
       <c r="L113" s="43"/>
       <c r="M113" s="43"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1">
       <c r="A114" s="41"/>
       <c r="B114" s="42"/>
       <c r="C114" s="42"/>
@@ -2679,7 +2679,7 @@
       <c r="L114" s="43"/>
       <c r="M114" s="43"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1">
       <c r="A115" s="41"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42"/>
@@ -2694,7 +2694,7 @@
       <c r="L115" s="43"/>
       <c r="M115" s="43"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1">
       <c r="A116" s="41"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42"/>
@@ -2709,7 +2709,7 @@
       <c r="L116" s="43"/>
       <c r="M116" s="43"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1">
       <c r="A117" s="41"/>
       <c r="B117" s="42"/>
       <c r="C117" s="42"/>
@@ -2724,7 +2724,7 @@
       <c r="L117" s="43"/>
       <c r="M117" s="43"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1">
       <c r="A118" s="41"/>
       <c r="B118" s="42"/>
       <c r="C118" s="42"/>
@@ -2739,7 +2739,7 @@
       <c r="L118" s="43"/>
       <c r="M118" s="43"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1">
       <c r="A119" s="41"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
@@ -2754,7 +2754,7 @@
       <c r="L119" s="43"/>
       <c r="M119" s="43"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1">
       <c r="A120" s="41"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
@@ -2769,7 +2769,7 @@
       <c r="L120" s="43"/>
       <c r="M120" s="43"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1">
       <c r="A121" s="41"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42"/>
@@ -2784,7 +2784,7 @@
       <c r="L121" s="43"/>
       <c r="M121" s="43"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1">
       <c r="A122" s="41"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42"/>
@@ -2799,7 +2799,7 @@
       <c r="L122" s="43"/>
       <c r="M122" s="43"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1">
       <c r="A123" s="41"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42"/>
@@ -2814,7 +2814,7 @@
       <c r="L123" s="43"/>
       <c r="M123" s="43"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1">
       <c r="A124" s="41"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42"/>
@@ -2829,7 +2829,7 @@
       <c r="L124" s="43"/>
       <c r="M124" s="43"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1">
       <c r="A125" s="41"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42"/>
@@ -2844,7 +2844,7 @@
       <c r="L125" s="43"/>
       <c r="M125" s="43"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1">
       <c r="A126" s="41"/>
       <c r="B126" s="42"/>
       <c r="C126" s="42"/>
@@ -2859,7 +2859,7 @@
       <c r="L126" s="43"/>
       <c r="M126" s="43"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1">
       <c r="A127" s="41"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42"/>
@@ -2874,7 +2874,7 @@
       <c r="L127" s="43"/>
       <c r="M127" s="43"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1">
       <c r="A128" s="41"/>
       <c r="B128" s="42"/>
       <c r="C128" s="42"/>
@@ -2889,7 +2889,7 @@
       <c r="L128" s="43"/>
       <c r="M128" s="43"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1">
       <c r="A129" s="41"/>
       <c r="B129" s="42"/>
       <c r="C129" s="42"/>
@@ -2904,7 +2904,7 @@
       <c r="L129" s="43"/>
       <c r="M129" s="43"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1">
       <c r="A130" s="41"/>
       <c r="B130" s="42"/>
       <c r="C130" s="42"/>
@@ -2919,7 +2919,7 @@
       <c r="L130" s="43"/>
       <c r="M130" s="43"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1">
       <c r="A131" s="41"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42"/>
@@ -2934,7 +2934,7 @@
       <c r="L131" s="43"/>
       <c r="M131" s="43"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1">
       <c r="A132" s="41"/>
       <c r="B132" s="42"/>
       <c r="C132" s="42"/>
@@ -2949,7 +2949,7 @@
       <c r="L132" s="43"/>
       <c r="M132" s="43"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1">
       <c r="A133" s="41"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42"/>
@@ -2964,7 +2964,7 @@
       <c r="L133" s="43"/>
       <c r="M133" s="43"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1">
       <c r="A134" s="41"/>
       <c r="B134" s="42"/>
       <c r="C134" s="42"/>
@@ -2979,7 +2979,7 @@
       <c r="L134" s="43"/>
       <c r="M134" s="43"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1">
       <c r="A135" s="41"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42"/>
@@ -2994,7 +2994,7 @@
       <c r="L135" s="43"/>
       <c r="M135" s="43"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1">
       <c r="A136" s="41"/>
       <c r="B136" s="42"/>
       <c r="C136" s="42"/>
@@ -3009,7 +3009,7 @@
       <c r="L136" s="43"/>
       <c r="M136" s="43"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1">
       <c r="A137" s="41"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42"/>
@@ -3024,7 +3024,7 @@
       <c r="L137" s="43"/>
       <c r="M137" s="43"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1">
       <c r="A138" s="41"/>
       <c r="B138" s="42"/>
       <c r="C138" s="42"/>
@@ -3039,7 +3039,7 @@
       <c r="L138" s="43"/>
       <c r="M138" s="43"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1">
       <c r="A139" s="41"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42"/>
@@ -3054,7 +3054,7 @@
       <c r="L139" s="43"/>
       <c r="M139" s="43"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1">
       <c r="A140" s="41"/>
       <c r="B140" s="42"/>
       <c r="C140" s="42"/>
@@ -3069,7 +3069,7 @@
       <c r="L140" s="43"/>
       <c r="M140" s="43"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1">
       <c r="A141" s="41"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42"/>
@@ -3084,7 +3084,7 @@
       <c r="L141" s="43"/>
       <c r="M141" s="43"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1">
       <c r="A142" s="41"/>
       <c r="B142" s="42"/>
       <c r="C142" s="42"/>
@@ -3099,7 +3099,7 @@
       <c r="L142" s="43"/>
       <c r="M142" s="43"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1">
       <c r="A143" s="41"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42"/>
@@ -3114,7 +3114,7 @@
       <c r="L143" s="43"/>
       <c r="M143" s="43"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1">
       <c r="A144" s="41"/>
       <c r="B144" s="42"/>
       <c r="C144" s="42"/>
@@ -3129,7 +3129,7 @@
       <c r="L144" s="43"/>
       <c r="M144" s="43"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1">
       <c r="A145" s="41"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42"/>
@@ -3144,7 +3144,7 @@
       <c r="L145" s="43"/>
       <c r="M145" s="43"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1">
       <c r="A146" s="41"/>
       <c r="B146" s="42"/>
       <c r="C146" s="42"/>
@@ -3159,7 +3159,7 @@
       <c r="L146" s="43"/>
       <c r="M146" s="43"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1">
       <c r="A147" s="41"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42"/>
@@ -3174,7 +3174,7 @@
       <c r="L147" s="43"/>
       <c r="M147" s="43"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1">
       <c r="A148" s="41"/>
       <c r="B148" s="42"/>
       <c r="C148" s="42"/>
@@ -3189,7 +3189,7 @@
       <c r="L148" s="43"/>
       <c r="M148" s="43"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1">
       <c r="A149" s="41"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42"/>
@@ -3204,7 +3204,7 @@
       <c r="L149" s="43"/>
       <c r="M149" s="43"/>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1">
       <c r="A150" s="41"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42"/>
@@ -3219,7 +3219,7 @@
       <c r="L150" s="43"/>
       <c r="M150" s="43"/>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1">
       <c r="A151" s="41"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42"/>
@@ -3234,7 +3234,7 @@
       <c r="L151" s="43"/>
       <c r="M151" s="43"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1">
       <c r="A152" s="41"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42"/>
@@ -3249,7 +3249,7 @@
       <c r="L152" s="43"/>
       <c r="M152" s="43"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1">
       <c r="A153" s="41"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42"/>
@@ -3264,7 +3264,7 @@
       <c r="L153" s="43"/>
       <c r="M153" s="43"/>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1">
       <c r="A154" s="41"/>
       <c r="B154" s="42"/>
       <c r="C154" s="42"/>
@@ -3279,7 +3279,7 @@
       <c r="L154" s="43"/>
       <c r="M154" s="43"/>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1">
       <c r="A155" s="41"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42"/>
@@ -3294,7 +3294,7 @@
       <c r="L155" s="43"/>
       <c r="M155" s="43"/>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1">
       <c r="A156" s="41"/>
       <c r="B156" s="42"/>
       <c r="C156" s="42"/>
@@ -3309,7 +3309,7 @@
       <c r="L156" s="43"/>
       <c r="M156" s="43"/>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1">
       <c r="A157" s="41"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42"/>
@@ -3324,7 +3324,7 @@
       <c r="L157" s="43"/>
       <c r="M157" s="43"/>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1">
       <c r="A158" s="41"/>
       <c r="B158" s="42"/>
       <c r="C158" s="42"/>
@@ -3339,7 +3339,7 @@
       <c r="L158" s="43"/>
       <c r="M158" s="43"/>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1">
       <c r="A159" s="41"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42"/>
@@ -3354,7 +3354,7 @@
       <c r="L159" s="43"/>
       <c r="M159" s="43"/>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1">
       <c r="A160" s="41"/>
       <c r="B160" s="42"/>
       <c r="C160" s="42"/>
@@ -3369,7 +3369,7 @@
       <c r="L160" s="43"/>
       <c r="M160" s="43"/>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1">
       <c r="A161" s="41"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42"/>
@@ -3384,7 +3384,7 @@
       <c r="L161" s="43"/>
       <c r="M161" s="43"/>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1">
       <c r="A162" s="41"/>
       <c r="B162" s="42"/>
       <c r="C162" s="42"/>
@@ -3399,7 +3399,7 @@
       <c r="L162" s="43"/>
       <c r="M162" s="43"/>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1">
       <c r="A163" s="41"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42"/>
@@ -3414,7 +3414,7 @@
       <c r="L163" s="43"/>
       <c r="M163" s="43"/>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1">
       <c r="A164" s="41"/>
       <c r="B164" s="42"/>
       <c r="C164" s="42"/>
@@ -3429,7 +3429,7 @@
       <c r="L164" s="43"/>
       <c r="M164" s="43"/>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1">
       <c r="A165" s="41"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42"/>
@@ -3444,7 +3444,7 @@
       <c r="L165" s="43"/>
       <c r="M165" s="43"/>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1">
       <c r="A166" s="41"/>
       <c r="B166" s="42"/>
       <c r="C166" s="42"/>
@@ -3459,7 +3459,7 @@
       <c r="L166" s="43"/>
       <c r="M166" s="43"/>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1">
       <c r="A167" s="41"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42"/>
@@ -3474,7 +3474,7 @@
       <c r="L167" s="43"/>
       <c r="M167" s="43"/>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1">
       <c r="A168" s="41"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42"/>
@@ -3489,7 +3489,7 @@
       <c r="L168" s="43"/>
       <c r="M168" s="43"/>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1">
       <c r="A169" s="41"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42"/>
@@ -3504,7 +3504,7 @@
       <c r="L169" s="43"/>
       <c r="M169" s="43"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1">
       <c r="A170" s="41"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -3519,7 +3519,7 @@
       <c r="L170" s="43"/>
       <c r="M170" s="43"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1">
       <c r="A171" s="41"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42"/>
@@ -3534,7 +3534,7 @@
       <c r="L171" s="43"/>
       <c r="M171" s="43"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1">
       <c r="A172" s="41"/>
       <c r="B172" s="42"/>
       <c r="C172" s="42"/>
@@ -3549,7 +3549,7 @@
       <c r="L172" s="43"/>
       <c r="M172" s="43"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1">
       <c r="A173" s="41"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42"/>
@@ -3564,7 +3564,7 @@
       <c r="L173" s="43"/>
       <c r="M173" s="43"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1">
       <c r="A174" s="41"/>
       <c r="B174" s="42"/>
       <c r="C174" s="42"/>
@@ -3579,7 +3579,7 @@
       <c r="L174" s="43"/>
       <c r="M174" s="43"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1">
       <c r="A175" s="41"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42"/>
@@ -3594,7 +3594,7 @@
       <c r="L175" s="43"/>
       <c r="M175" s="43"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1">
       <c r="A176" s="41"/>
       <c r="B176" s="42"/>
       <c r="C176" s="42"/>
@@ -3609,7 +3609,7 @@
       <c r="L176" s="43"/>
       <c r="M176" s="43"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1">
       <c r="A177" s="41"/>
       <c r="B177" s="42"/>
       <c r="C177" s="42"/>
@@ -3624,7 +3624,7 @@
       <c r="L177" s="43"/>
       <c r="M177" s="43"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1">
       <c r="A178" s="41"/>
       <c r="B178" s="42"/>
       <c r="C178" s="42"/>
@@ -3639,7 +3639,7 @@
       <c r="L178" s="43"/>
       <c r="M178" s="43"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1">
       <c r="A179" s="41"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42"/>
@@ -3654,7 +3654,7 @@
       <c r="L179" s="43"/>
       <c r="M179" s="43"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1">
       <c r="A180" s="41"/>
       <c r="B180" s="42"/>
       <c r="C180" s="42"/>
@@ -3669,7 +3669,7 @@
       <c r="L180" s="43"/>
       <c r="M180" s="43"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1">
       <c r="A181" s="41"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42"/>
@@ -3684,7 +3684,7 @@
       <c r="L181" s="43"/>
       <c r="M181" s="43"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1">
       <c r="A182" s="41"/>
       <c r="B182" s="42"/>
       <c r="C182" s="42"/>
@@ -3699,7 +3699,7 @@
       <c r="L182" s="43"/>
       <c r="M182" s="43"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1">
       <c r="A183" s="41"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42"/>
@@ -3714,7 +3714,7 @@
       <c r="L183" s="43"/>
       <c r="M183" s="43"/>
     </row>
-    <row r="184" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13" ht="19.5" customHeight="1">
       <c r="A184" s="41"/>
       <c r="B184" s="42"/>
       <c r="C184" s="42"/>
@@ -3729,7 +3729,7 @@
       <c r="L184" s="43"/>
       <c r="M184" s="43"/>
     </row>
-    <row r="185" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13" ht="19.5" customHeight="1">
       <c r="A185" s="41"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42"/>
@@ -3744,7 +3744,7 @@
       <c r="L185" s="43"/>
       <c r="M185" s="43"/>
     </row>
-    <row r="186" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13" ht="19.5" customHeight="1">
       <c r="A186" s="41"/>
       <c r="B186" s="42"/>
       <c r="C186" s="42"/>
@@ -3759,7 +3759,7 @@
       <c r="L186" s="43"/>
       <c r="M186" s="43"/>
     </row>
-    <row r="187" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13" ht="19.5" customHeight="1">
       <c r="A187" s="41"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42"/>
@@ -3774,7 +3774,7 @@
       <c r="L187" s="43"/>
       <c r="M187" s="43"/>
     </row>
-    <row r="188" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13" ht="19.5" customHeight="1">
       <c r="A188" s="41"/>
       <c r="B188" s="42"/>
       <c r="C188" s="42"/>
@@ -3789,7 +3789,7 @@
       <c r="L188" s="43"/>
       <c r="M188" s="43"/>
     </row>
-    <row r="189" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13" ht="19.5" customHeight="1">
       <c r="A189" s="41"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42"/>
@@ -3804,7 +3804,7 @@
       <c r="L189" s="43"/>
       <c r="M189" s="43"/>
     </row>
-    <row r="190" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13" ht="19.5" customHeight="1">
       <c r="A190" s="41"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42"/>
@@ -3819,7 +3819,7 @@
       <c r="L190" s="43"/>
       <c r="M190" s="43"/>
     </row>
-    <row r="191" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13" ht="19.5" customHeight="1">
       <c r="A191" s="41"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42"/>
@@ -3834,7 +3834,7 @@
       <c r="L191" s="43"/>
       <c r="M191" s="43"/>
     </row>
-    <row r="192" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13" ht="19.5" customHeight="1">
       <c r="A192" s="41"/>
       <c r="B192" s="42"/>
       <c r="C192" s="42"/>
@@ -3849,7 +3849,7 @@
       <c r="L192" s="43"/>
       <c r="M192" s="43"/>
     </row>
-    <row r="193" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:13" ht="19.5" customHeight="1">
       <c r="A193" s="41"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42"/>
@@ -3864,7 +3864,7 @@
       <c r="L193" s="43"/>
       <c r="M193" s="43"/>
     </row>
-    <row r="194" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:13" ht="19.5" customHeight="1">
       <c r="A194" s="41"/>
       <c r="B194" s="42"/>
       <c r="C194" s="42"/>
@@ -3879,7 +3879,7 @@
       <c r="L194" s="43"/>
       <c r="M194" s="43"/>
     </row>
-    <row r="195" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:13" ht="19.5" customHeight="1">
       <c r="A195" s="41"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42"/>
@@ -3894,7 +3894,7 @@
       <c r="L195" s="43"/>
       <c r="M195" s="43"/>
     </row>
-    <row r="196" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:13" ht="19.5" customHeight="1">
       <c r="A196" s="41"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42"/>
@@ -3909,7 +3909,7 @@
       <c r="L196" s="43"/>
       <c r="M196" s="43"/>
     </row>
-    <row r="197" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:13" ht="19.5" customHeight="1">
       <c r="A197" s="41"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42"/>
@@ -3924,7 +3924,7 @@
       <c r="L197" s="43"/>
       <c r="M197" s="43"/>
     </row>
-    <row r="198" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:13" ht="19.5" customHeight="1">
       <c r="A198" s="41"/>
       <c r="B198" s="42"/>
       <c r="C198" s="42"/>
@@ -3939,7 +3939,7 @@
       <c r="L198" s="43"/>
       <c r="M198" s="43"/>
     </row>
-    <row r="199" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:13" ht="19.5" customHeight="1">
       <c r="A199" s="41"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42"/>
@@ -3954,7 +3954,7 @@
       <c r="L199" s="43"/>
       <c r="M199" s="43"/>
     </row>
-    <row r="200" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:13" ht="19.5" customHeight="1">
       <c r="A200" s="41"/>
       <c r="B200" s="42"/>
       <c r="C200" s="42"/>
@@ -3969,7 +3969,7 @@
       <c r="L200" s="43"/>
       <c r="M200" s="43"/>
     </row>
-    <row r="201" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:13" ht="19.5" customHeight="1">
       <c r="A201" s="41"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42"/>
@@ -3984,7 +3984,7 @@
       <c r="L201" s="43"/>
       <c r="M201" s="43"/>
     </row>
-    <row r="202" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:13" ht="19.5" customHeight="1">
       <c r="A202" s="41"/>
       <c r="B202" s="42"/>
       <c r="C202" s="42"/>
@@ -3999,7 +3999,7 @@
       <c r="L202" s="43"/>
       <c r="M202" s="43"/>
     </row>
-    <row r="203" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:13" ht="19.5" customHeight="1">
       <c r="A203" s="41"/>
       <c r="B203" s="42"/>
       <c r="C203" s="42"/>
@@ -4014,7 +4014,7 @@
       <c r="L203" s="43"/>
       <c r="M203" s="43"/>
     </row>
-    <row r="204" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:13" ht="19.5" customHeight="1">
       <c r="A204" s="41"/>
       <c r="B204" s="42"/>
       <c r="C204" s="42"/>
@@ -4029,7 +4029,7 @@
       <c r="L204" s="43"/>
       <c r="M204" s="43"/>
     </row>
-    <row r="205" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:13" ht="19.5" customHeight="1">
       <c r="A205" s="41"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42"/>
@@ -4044,7 +4044,7 @@
       <c r="L205" s="43"/>
       <c r="M205" s="43"/>
     </row>
-    <row r="206" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:13" ht="19.5" customHeight="1">
       <c r="A206" s="41"/>
       <c r="B206" s="42"/>
       <c r="C206" s="42"/>
@@ -4059,7 +4059,7 @@
       <c r="L206" s="43"/>
       <c r="M206" s="43"/>
     </row>
-    <row r="207" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:13" ht="19.5" customHeight="1">
       <c r="A207" s="41"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42"/>
@@ -4074,7 +4074,7 @@
       <c r="L207" s="43"/>
       <c r="M207" s="43"/>
     </row>
-    <row r="208" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:13" ht="19.5" customHeight="1">
       <c r="A208" s="41"/>
       <c r="B208" s="42"/>
       <c r="C208" s="42"/>
@@ -4089,7 +4089,7 @@
       <c r="L208" s="43"/>
       <c r="M208" s="43"/>
     </row>
-    <row r="209" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:13" ht="19.5" customHeight="1">
       <c r="A209" s="41"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42"/>
@@ -4104,7 +4104,7 @@
       <c r="L209" s="43"/>
       <c r="M209" s="43"/>
     </row>
-    <row r="210" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:13" ht="19.5" customHeight="1">
       <c r="A210" s="41"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42"/>
@@ -4119,7 +4119,7 @@
       <c r="L210" s="43"/>
       <c r="M210" s="43"/>
     </row>
-    <row r="211" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:13" ht="19.5" customHeight="1">
       <c r="A211" s="41"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42"/>
@@ -4134,7 +4134,7 @@
       <c r="L211" s="43"/>
       <c r="M211" s="43"/>
     </row>
-    <row r="212" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:13" ht="19.5" customHeight="1">
       <c r="A212" s="41"/>
       <c r="B212" s="42"/>
       <c r="C212" s="42"/>
@@ -4149,7 +4149,7 @@
       <c r="L212" s="43"/>
       <c r="M212" s="43"/>
     </row>
-    <row r="213" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:13" ht="19.5" customHeight="1">
       <c r="A213" s="41"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42"/>
@@ -4164,7 +4164,7 @@
       <c r="L213" s="43"/>
       <c r="M213" s="43"/>
     </row>
-    <row r="214" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:13" ht="19.5" customHeight="1">
       <c r="A214" s="41"/>
       <c r="B214" s="42"/>
       <c r="C214" s="42"/>
@@ -4179,7 +4179,7 @@
       <c r="L214" s="43"/>
       <c r="M214" s="43"/>
     </row>
-    <row r="215" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:13" ht="19.5" customHeight="1">
       <c r="A215" s="41"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42"/>
@@ -4194,7 +4194,7 @@
       <c r="L215" s="43"/>
       <c r="M215" s="43"/>
     </row>
-    <row r="216" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:13" ht="19.5" customHeight="1">
       <c r="A216" s="41"/>
       <c r="B216" s="42"/>
       <c r="C216" s="42"/>
@@ -4209,7 +4209,7 @@
       <c r="L216" s="43"/>
       <c r="M216" s="43"/>
     </row>
-    <row r="217" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:13" ht="19.5" customHeight="1">
       <c r="A217" s="41"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42"/>
@@ -4224,7 +4224,7 @@
       <c r="L217" s="43"/>
       <c r="M217" s="43"/>
     </row>
-    <row r="218" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:13" ht="19.5" customHeight="1">
       <c r="A218" s="41"/>
       <c r="B218" s="42"/>
       <c r="C218" s="42"/>
@@ -4239,7 +4239,7 @@
       <c r="L218" s="43"/>
       <c r="M218" s="43"/>
     </row>
-    <row r="219" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:13" ht="19.5" customHeight="1">
       <c r="A219" s="41"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42"/>
@@ -4254,7 +4254,7 @@
       <c r="L219" s="43"/>
       <c r="M219" s="43"/>
     </row>
-    <row r="220" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:13" ht="19.5" customHeight="1">
       <c r="A220" s="41"/>
       <c r="B220" s="42"/>
       <c r="C220" s="42"/>
@@ -4269,7 +4269,7 @@
       <c r="L220" s="43"/>
       <c r="M220" s="43"/>
     </row>
-    <row r="221" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:13" ht="19.5" customHeight="1">
       <c r="A221" s="41"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42"/>
@@ -4284,7 +4284,7 @@
       <c r="L221" s="43"/>
       <c r="M221" s="43"/>
     </row>
-    <row r="222" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:13" ht="19.5" customHeight="1">
       <c r="A222" s="41"/>
       <c r="B222" s="42"/>
       <c r="C222" s="42"/>
@@ -4299,7 +4299,7 @@
       <c r="L222" s="43"/>
       <c r="M222" s="43"/>
     </row>
-    <row r="223" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:13" ht="19.5" customHeight="1">
       <c r="A223" s="41"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42"/>
@@ -4314,7 +4314,7 @@
       <c r="L223" s="43"/>
       <c r="M223" s="43"/>
     </row>
-    <row r="224" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:13" ht="19.5" customHeight="1">
       <c r="A224" s="41"/>
       <c r="B224" s="42"/>
       <c r="C224" s="42"/>
@@ -4329,7 +4329,7 @@
       <c r="L224" s="43"/>
       <c r="M224" s="43"/>
     </row>
-    <row r="225" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:13" ht="19.5" customHeight="1">
       <c r="A225" s="41"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42"/>
@@ -4344,7 +4344,7 @@
       <c r="L225" s="43"/>
       <c r="M225" s="43"/>
     </row>
-    <row r="226" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:13" ht="19.5" customHeight="1">
       <c r="A226" s="41"/>
       <c r="B226" s="42"/>
       <c r="C226" s="42"/>
@@ -4359,7 +4359,7 @@
       <c r="L226" s="43"/>
       <c r="M226" s="43"/>
     </row>
-    <row r="227" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:13" ht="19.5" customHeight="1">
       <c r="A227" s="41"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42"/>
@@ -4374,7 +4374,7 @@
       <c r="L227" s="43"/>
       <c r="M227" s="43"/>
     </row>
-    <row r="228" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:13" ht="19.5" customHeight="1">
       <c r="A228" s="41"/>
       <c r="B228" s="42"/>
       <c r="C228" s="42"/>
@@ -4389,7 +4389,7 @@
       <c r="L228" s="43"/>
       <c r="M228" s="43"/>
     </row>
-    <row r="229" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:13" ht="19.5" customHeight="1">
       <c r="A229" s="41"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42"/>
@@ -4404,7 +4404,7 @@
       <c r="L229" s="43"/>
       <c r="M229" s="43"/>
     </row>
-    <row r="230" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:13" ht="19.5" customHeight="1">
       <c r="A230" s="41"/>
       <c r="B230" s="42"/>
       <c r="C230" s="42"/>
@@ -4419,7 +4419,7 @@
       <c r="L230" s="43"/>
       <c r="M230" s="43"/>
     </row>
-    <row r="231" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:13" ht="19.5" customHeight="1">
       <c r="A231" s="41"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42"/>
@@ -4434,7 +4434,7 @@
       <c r="L231" s="43"/>
       <c r="M231" s="43"/>
     </row>
-    <row r="232" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:13" ht="19.5" customHeight="1">
       <c r="A232" s="41"/>
       <c r="B232" s="42"/>
       <c r="C232" s="42"/>
@@ -4449,7 +4449,7 @@
       <c r="L232" s="43"/>
       <c r="M232" s="43"/>
     </row>
-    <row r="233" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:13" ht="19.5" customHeight="1">
       <c r="A233" s="41"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42"/>
@@ -4464,7 +4464,7 @@
       <c r="L233" s="43"/>
       <c r="M233" s="43"/>
     </row>
-    <row r="234" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:13" ht="19.5" customHeight="1">
       <c r="A234" s="41"/>
       <c r="B234" s="42"/>
       <c r="C234" s="42"/>
@@ -4479,7 +4479,7 @@
       <c r="L234" s="43"/>
       <c r="M234" s="43"/>
     </row>
-    <row r="235" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:13" ht="19.5" customHeight="1">
       <c r="A235" s="41"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42"/>
@@ -4494,7 +4494,7 @@
       <c r="L235" s="43"/>
       <c r="M235" s="43"/>
     </row>
-    <row r="236" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:13" ht="19.5" customHeight="1">
       <c r="A236" s="41"/>
       <c r="B236" s="42"/>
       <c r="C236" s="42"/>
@@ -4509,7 +4509,7 @@
       <c r="L236" s="43"/>
       <c r="M236" s="43"/>
     </row>
-    <row r="237" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:13" ht="19.5" customHeight="1">
       <c r="A237" s="41"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42"/>
@@ -4524,7 +4524,7 @@
       <c r="L237" s="43"/>
       <c r="M237" s="43"/>
     </row>
-    <row r="238" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:13" ht="19.5" customHeight="1">
       <c r="A238" s="41"/>
       <c r="B238" s="42"/>
       <c r="C238" s="42"/>
@@ -4539,7 +4539,7 @@
       <c r="L238" s="43"/>
       <c r="M238" s="43"/>
     </row>
-    <row r="239" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:13" ht="19.5" customHeight="1">
       <c r="A239" s="41"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42"/>
@@ -4554,7 +4554,7 @@
       <c r="L239" s="43"/>
       <c r="M239" s="43"/>
     </row>
-    <row r="240" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:13" ht="19.5" customHeight="1">
       <c r="A240" s="41"/>
       <c r="B240" s="42"/>
       <c r="C240" s="42"/>
@@ -4569,7 +4569,7 @@
       <c r="L240" s="43"/>
       <c r="M240" s="43"/>
     </row>
-    <row r="241" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:13" ht="19.5" customHeight="1">
       <c r="A241" s="41"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42"/>
@@ -4584,7 +4584,7 @@
       <c r="L241" s="43"/>
       <c r="M241" s="43"/>
     </row>
-    <row r="242" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:13" ht="19.5" customHeight="1">
       <c r="A242" s="41"/>
       <c r="B242" s="42"/>
       <c r="C242" s="42"/>
@@ -4599,7 +4599,7 @@
       <c r="L242" s="43"/>
       <c r="M242" s="43"/>
     </row>
-    <row r="243" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:13" ht="19.5" customHeight="1">
       <c r="A243" s="41"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42"/>
@@ -4614,7 +4614,7 @@
       <c r="L243" s="43"/>
       <c r="M243" s="43"/>
     </row>
-    <row r="244" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:13" ht="19.5" customHeight="1">
       <c r="A244" s="41"/>
       <c r="B244" s="42"/>
       <c r="C244" s="42"/>
@@ -4629,7 +4629,7 @@
       <c r="L244" s="43"/>
       <c r="M244" s="43"/>
     </row>
-    <row r="245" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:13" ht="19.5" customHeight="1">
       <c r="A245" s="41"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42"/>
@@ -4644,7 +4644,7 @@
       <c r="L245" s="43"/>
       <c r="M245" s="43"/>
     </row>
-    <row r="246" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:13" ht="19.5" customHeight="1">
       <c r="A246" s="41"/>
       <c r="B246" s="42"/>
       <c r="C246" s="42"/>
@@ -4659,7 +4659,7 @@
       <c r="L246" s="43"/>
       <c r="M246" s="43"/>
     </row>
-    <row r="247" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:13" ht="19.5" customHeight="1">
       <c r="A247" s="41"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42"/>
@@ -4674,7 +4674,7 @@
       <c r="L247" s="43"/>
       <c r="M247" s="43"/>
     </row>
-    <row r="248" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:13" ht="19.5" customHeight="1">
       <c r="A248" s="41"/>
       <c r="B248" s="42"/>
       <c r="C248" s="42"/>
@@ -4689,7 +4689,7 @@
       <c r="L248" s="43"/>
       <c r="M248" s="43"/>
     </row>
-    <row r="249" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:13" ht="19.5" customHeight="1">
       <c r="A249" s="41"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42"/>
@@ -4704,7 +4704,7 @@
       <c r="L249" s="43"/>
       <c r="M249" s="43"/>
     </row>
-    <row r="250" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:13" ht="19.5" customHeight="1">
       <c r="A250" s="41"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42"/>
@@ -4719,7 +4719,7 @@
       <c r="L250" s="43"/>
       <c r="M250" s="43"/>
     </row>
-    <row r="251" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:13" ht="19.5" customHeight="1">
       <c r="A251" s="41"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42"/>
@@ -4734,7 +4734,7 @@
       <c r="L251" s="43"/>
       <c r="M251" s="43"/>
     </row>
-    <row r="252" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:13" ht="19.5" customHeight="1">
       <c r="A252" s="41"/>
       <c r="B252" s="42"/>
       <c r="C252" s="42"/>
@@ -4749,7 +4749,7 @@
       <c r="L252" s="43"/>
       <c r="M252" s="43"/>
     </row>
-    <row r="253" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:13" ht="19.5" customHeight="1">
       <c r="A253" s="41"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42"/>
@@ -4764,7 +4764,7 @@
       <c r="L253" s="43"/>
       <c r="M253" s="43"/>
     </row>
-    <row r="254" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:13" ht="19.5" customHeight="1">
       <c r="A254" s="41"/>
       <c r="B254" s="42"/>
       <c r="C254" s="42"/>
@@ -4779,7 +4779,7 @@
       <c r="L254" s="43"/>
       <c r="M254" s="43"/>
     </row>
-    <row r="255" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:13" ht="19.5" customHeight="1">
       <c r="A255" s="41"/>
       <c r="B255" s="42"/>
       <c r="C255" s="42"/>
@@ -4794,7 +4794,7 @@
       <c r="L255" s="43"/>
       <c r="M255" s="43"/>
     </row>
-    <row r="256" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:13" ht="19.5" customHeight="1">
       <c r="A256" s="41"/>
       <c r="B256" s="42"/>
       <c r="C256" s="42"/>
@@ -4809,7 +4809,7 @@
       <c r="L256" s="43"/>
       <c r="M256" s="43"/>
     </row>
-    <row r="257" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:13" ht="19.5" customHeight="1">
       <c r="A257" s="41"/>
       <c r="B257" s="42"/>
       <c r="C257" s="42"/>
@@ -4824,7 +4824,7 @@
       <c r="L257" s="43"/>
       <c r="M257" s="43"/>
     </row>
-    <row r="258" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:13" ht="19.5" customHeight="1">
       <c r="A258" s="41"/>
       <c r="B258" s="42"/>
       <c r="C258" s="42"/>
@@ -4839,7 +4839,7 @@
       <c r="L258" s="43"/>
       <c r="M258" s="43"/>
     </row>
-    <row r="259" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:13" ht="19.5" customHeight="1">
       <c r="A259" s="41"/>
       <c r="B259" s="42"/>
       <c r="C259" s="42"/>
@@ -4854,7 +4854,7 @@
       <c r="L259" s="43"/>
       <c r="M259" s="43"/>
     </row>
-    <row r="260" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:13" ht="19.5" customHeight="1">
       <c r="A260" s="41"/>
       <c r="B260" s="42"/>
       <c r="C260" s="42"/>
@@ -4869,7 +4869,7 @@
       <c r="L260" s="43"/>
       <c r="M260" s="43"/>
     </row>
-    <row r="261" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:13" ht="19.5" customHeight="1">
       <c r="A261" s="41"/>
       <c r="B261" s="42"/>
       <c r="C261" s="42"/>
@@ -4884,7 +4884,7 @@
       <c r="L261" s="43"/>
       <c r="M261" s="43"/>
     </row>
-    <row r="262" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:13" ht="19.5" customHeight="1">
       <c r="A262" s="41"/>
       <c r="B262" s="42"/>
       <c r="C262" s="42"/>
@@ -4899,7 +4899,7 @@
       <c r="L262" s="43"/>
       <c r="M262" s="43"/>
     </row>
-    <row r="263" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:13" ht="19.5" customHeight="1">
       <c r="A263" s="41"/>
       <c r="B263" s="42"/>
       <c r="C263" s="42"/>
@@ -4914,7 +4914,7 @@
       <c r="L263" s="43"/>
       <c r="M263" s="43"/>
     </row>
-    <row r="264" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:13" ht="19.5" customHeight="1">
       <c r="A264" s="41"/>
       <c r="B264" s="42"/>
       <c r="C264" s="42"/>
@@ -4929,7 +4929,7 @@
       <c r="L264" s="43"/>
       <c r="M264" s="43"/>
     </row>
-    <row r="265" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:13" ht="19.5" customHeight="1">
       <c r="A265" s="41"/>
       <c r="B265" s="42"/>
       <c r="C265" s="42"/>
@@ -4944,7 +4944,7 @@
       <c r="L265" s="43"/>
       <c r="M265" s="43"/>
     </row>
-    <row r="266" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:13" ht="19.5" customHeight="1">
       <c r="A266" s="41"/>
       <c r="B266" s="42"/>
       <c r="C266" s="42"/>
@@ -4959,7 +4959,7 @@
       <c r="L266" s="43"/>
       <c r="M266" s="43"/>
     </row>
-    <row r="267" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:13" ht="19.5" customHeight="1">
       <c r="A267" s="41"/>
       <c r="B267" s="42"/>
       <c r="C267" s="42"/>
@@ -4974,7 +4974,7 @@
       <c r="L267" s="43"/>
       <c r="M267" s="43"/>
     </row>
-    <row r="268" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:13" ht="19.5" customHeight="1">
       <c r="A268" s="41"/>
       <c r="B268" s="42"/>
       <c r="C268" s="42"/>
@@ -4989,7 +4989,7 @@
       <c r="L268" s="43"/>
       <c r="M268" s="43"/>
     </row>
-    <row r="269" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:13" ht="19.5" customHeight="1">
       <c r="A269" s="41"/>
       <c r="B269" s="42"/>
       <c r="C269" s="42"/>
@@ -5004,7 +5004,7 @@
       <c r="L269" s="43"/>
       <c r="M269" s="43"/>
     </row>
-    <row r="270" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:13" ht="19.5" customHeight="1">
       <c r="A270" s="41"/>
       <c r="B270" s="42"/>
       <c r="C270" s="42"/>
@@ -5019,7 +5019,7 @@
       <c r="L270" s="43"/>
       <c r="M270" s="43"/>
     </row>
-    <row r="271" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:13" ht="19.5" customHeight="1">
       <c r="A271" s="41"/>
       <c r="B271" s="42"/>
       <c r="C271" s="42"/>
@@ -5034,7 +5034,7 @@
       <c r="L271" s="43"/>
       <c r="M271" s="43"/>
     </row>
-    <row r="272" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:13" ht="19.5" customHeight="1">
       <c r="A272" s="41"/>
       <c r="B272" s="42"/>
       <c r="C272" s="42"/>
@@ -5049,7 +5049,7 @@
       <c r="L272" s="43"/>
       <c r="M272" s="43"/>
     </row>
-    <row r="273" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:13" ht="19.5" customHeight="1">
       <c r="A273" s="41"/>
       <c r="B273" s="42"/>
       <c r="C273" s="42"/>
@@ -5064,7 +5064,7 @@
       <c r="L273" s="43"/>
       <c r="M273" s="43"/>
     </row>
-    <row r="274" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:13" ht="19.5" customHeight="1">
       <c r="A274" s="41"/>
       <c r="B274" s="42"/>
       <c r="C274" s="42"/>
@@ -5079,7 +5079,7 @@
       <c r="L274" s="43"/>
       <c r="M274" s="43"/>
     </row>
-    <row r="275" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:13" ht="19.5" customHeight="1">
       <c r="A275" s="41"/>
       <c r="B275" s="42"/>
       <c r="C275" s="42"/>
@@ -5094,7 +5094,7 @@
       <c r="L275" s="43"/>
       <c r="M275" s="43"/>
     </row>
-    <row r="276" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:13" ht="19.5" customHeight="1">
       <c r="A276" s="41"/>
       <c r="B276" s="42"/>
       <c r="C276" s="42"/>
@@ -5109,7 +5109,7 @@
       <c r="L276" s="43"/>
       <c r="M276" s="43"/>
     </row>
-    <row r="277" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:13" ht="19.5" customHeight="1">
       <c r="A277" s="41"/>
       <c r="B277" s="42"/>
       <c r="C277" s="42"/>
@@ -5124,7 +5124,7 @@
       <c r="L277" s="43"/>
       <c r="M277" s="43"/>
     </row>
-    <row r="278" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:13" ht="19.5" customHeight="1">
       <c r="A278" s="41"/>
       <c r="B278" s="42"/>
       <c r="C278" s="42"/>
@@ -5139,7 +5139,7 @@
       <c r="L278" s="43"/>
       <c r="M278" s="43"/>
     </row>
-    <row r="279" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:13" ht="19.5" customHeight="1">
       <c r="A279" s="41"/>
       <c r="B279" s="42"/>
       <c r="C279" s="42"/>
@@ -5154,7 +5154,7 @@
       <c r="L279" s="43"/>
       <c r="M279" s="43"/>
     </row>
-    <row r="280" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:13" ht="19.5" customHeight="1">
       <c r="A280" s="41"/>
       <c r="B280" s="42"/>
       <c r="C280" s="42"/>
@@ -5169,7 +5169,7 @@
       <c r="L280" s="43"/>
       <c r="M280" s="43"/>
     </row>
-    <row r="281" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:13" ht="19.5" customHeight="1">
       <c r="A281" s="41"/>
       <c r="B281" s="42"/>
       <c r="C281" s="42"/>
@@ -5184,7 +5184,7 @@
       <c r="L281" s="43"/>
       <c r="M281" s="43"/>
     </row>
-    <row r="282" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:13" ht="19.5" customHeight="1">
       <c r="A282" s="41"/>
       <c r="B282" s="42"/>
       <c r="C282" s="42"/>
@@ -5199,7 +5199,7 @@
       <c r="L282" s="43"/>
       <c r="M282" s="43"/>
     </row>
-    <row r="283" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:13" ht="19.5" customHeight="1">
       <c r="A283" s="41"/>
       <c r="B283" s="42"/>
       <c r="C283" s="42"/>
@@ -5214,7 +5214,7 @@
       <c r="L283" s="43"/>
       <c r="M283" s="43"/>
     </row>
-    <row r="284" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:13" ht="19.5" customHeight="1">
       <c r="A284" s="41"/>
       <c r="B284" s="42"/>
       <c r="C284" s="42"/>
@@ -5229,7 +5229,7 @@
       <c r="L284" s="43"/>
       <c r="M284" s="43"/>
     </row>
-    <row r="285" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:13" ht="19.5" customHeight="1">
       <c r="A285" s="41"/>
       <c r="B285" s="42"/>
       <c r="C285" s="42"/>
@@ -5244,7 +5244,7 @@
       <c r="L285" s="43"/>
       <c r="M285" s="43"/>
     </row>
-    <row r="286" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:13" ht="19.5" customHeight="1">
       <c r="A286" s="41"/>
       <c r="B286" s="42"/>
       <c r="C286" s="42"/>
@@ -5259,7 +5259,7 @@
       <c r="L286" s="43"/>
       <c r="M286" s="43"/>
     </row>
-    <row r="287" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:13" ht="19.5" customHeight="1">
       <c r="A287" s="41"/>
       <c r="B287" s="42"/>
       <c r="C287" s="42"/>
@@ -5274,7 +5274,7 @@
       <c r="L287" s="43"/>
       <c r="M287" s="43"/>
     </row>
-    <row r="288" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:13" ht="19.5" customHeight="1">
       <c r="A288" s="41"/>
       <c r="B288" s="42"/>
       <c r="C288" s="42"/>
@@ -5289,7 +5289,7 @@
       <c r="L288" s="43"/>
       <c r="M288" s="43"/>
     </row>
-    <row r="289" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:13" ht="19.5" customHeight="1">
       <c r="A289" s="41"/>
       <c r="B289" s="42"/>
       <c r="C289" s="42"/>
@@ -5304,7 +5304,7 @@
       <c r="L289" s="43"/>
       <c r="M289" s="43"/>
     </row>
-    <row r="290" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:13" ht="19.5" customHeight="1">
       <c r="A290" s="41"/>
       <c r="B290" s="42"/>
       <c r="C290" s="42"/>
@@ -5319,7 +5319,7 @@
       <c r="L290" s="43"/>
       <c r="M290" s="43"/>
     </row>
-    <row r="291" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:13" ht="19.5" customHeight="1">
       <c r="A291" s="41"/>
       <c r="B291" s="42"/>
       <c r="C291" s="42"/>
@@ -5334,7 +5334,7 @@
       <c r="L291" s="43"/>
       <c r="M291" s="43"/>
     </row>
-    <row r="292" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:13" ht="19.5" customHeight="1">
       <c r="A292" s="41"/>
       <c r="B292" s="42"/>
       <c r="C292" s="42"/>
@@ -5349,7 +5349,7 @@
       <c r="L292" s="43"/>
       <c r="M292" s="43"/>
     </row>
-    <row r="293" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:13" ht="19.5" customHeight="1">
       <c r="A293" s="41"/>
       <c r="B293" s="42"/>
       <c r="C293" s="42"/>
@@ -5364,7 +5364,7 @@
       <c r="L293" s="43"/>
       <c r="M293" s="43"/>
     </row>
-    <row r="294" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:13" ht="19.5" customHeight="1">
       <c r="A294" s="41"/>
       <c r="B294" s="42"/>
       <c r="C294" s="42"/>
@@ -5379,7 +5379,7 @@
       <c r="L294" s="43"/>
       <c r="M294" s="43"/>
     </row>
-    <row r="295" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:13" ht="19.5" customHeight="1">
       <c r="A295" s="41"/>
       <c r="B295" s="42"/>
       <c r="C295" s="42"/>
@@ -5394,7 +5394,7 @@
       <c r="L295" s="43"/>
       <c r="M295" s="43"/>
     </row>
-    <row r="296" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:13" ht="19.5" customHeight="1">
       <c r="A296" s="41"/>
       <c r="B296" s="42"/>
       <c r="C296" s="42"/>
@@ -5409,7 +5409,7 @@
       <c r="L296" s="43"/>
       <c r="M296" s="43"/>
     </row>
-    <row r="297" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:13" ht="19.5" customHeight="1">
       <c r="A297" s="41"/>
       <c r="B297" s="42"/>
       <c r="C297" s="42"/>
@@ -5424,7 +5424,7 @@
       <c r="L297" s="43"/>
       <c r="M297" s="43"/>
     </row>
-    <row r="298" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:13" ht="19.5" customHeight="1">
       <c r="A298" s="41"/>
       <c r="B298" s="42"/>
       <c r="C298" s="42"/>
@@ -5439,7 +5439,7 @@
       <c r="L298" s="43"/>
       <c r="M298" s="43"/>
     </row>
-    <row r="299" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:13" ht="19.5" customHeight="1">
       <c r="A299" s="41"/>
       <c r="B299" s="42"/>
       <c r="C299" s="42"/>
@@ -5454,7 +5454,7 @@
       <c r="L299" s="43"/>
       <c r="M299" s="43"/>
     </row>
-    <row r="300" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:13" ht="19.5" customHeight="1">
       <c r="A300" s="41"/>
       <c r="B300" s="42"/>
       <c r="C300" s="42"/>
@@ -5469,7 +5469,7 @@
       <c r="L300" s="43"/>
       <c r="M300" s="43"/>
     </row>
-    <row r="301" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:13" ht="19.5" customHeight="1">
       <c r="A301" s="41"/>
       <c r="B301" s="42"/>
       <c r="C301" s="42"/>
@@ -5484,7 +5484,7 @@
       <c r="L301" s="43"/>
       <c r="M301" s="43"/>
     </row>
-    <row r="302" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:13" ht="19.5" customHeight="1">
       <c r="A302" s="41"/>
       <c r="B302" s="42"/>
       <c r="C302" s="42"/>
@@ -5499,7 +5499,7 @@
       <c r="L302" s="43"/>
       <c r="M302" s="43"/>
     </row>
-    <row r="303" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:13" ht="19.5" customHeight="1">
       <c r="A303" s="41"/>
       <c r="B303" s="42"/>
       <c r="C303" s="42"/>
@@ -5514,7 +5514,7 @@
       <c r="L303" s="43"/>
       <c r="M303" s="43"/>
     </row>
-    <row r="304" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:13" ht="19.5" customHeight="1">
       <c r="A304" s="41"/>
       <c r="B304" s="42"/>
       <c r="C304" s="42"/>
@@ -5529,7 +5529,7 @@
       <c r="L304" s="43"/>
       <c r="M304" s="43"/>
     </row>
-    <row r="305" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:13" ht="19.5" customHeight="1">
       <c r="A305" s="41"/>
       <c r="B305" s="42"/>
       <c r="C305" s="42"/>
@@ -5544,7 +5544,7 @@
       <c r="L305" s="43"/>
       <c r="M305" s="43"/>
     </row>
-    <row r="306" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:13" ht="19.5" customHeight="1">
       <c r="A306" s="41"/>
       <c r="B306" s="42"/>
       <c r="C306" s="42"/>
@@ -5559,7 +5559,7 @@
       <c r="L306" s="43"/>
       <c r="M306" s="43"/>
     </row>
-    <row r="307" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:13" ht="19.5" customHeight="1">
       <c r="A307" s="41"/>
       <c r="B307" s="42"/>
       <c r="C307" s="42"/>
@@ -5574,7 +5574,7 @@
       <c r="L307" s="43"/>
       <c r="M307" s="43"/>
     </row>
-    <row r="308" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:13" ht="19.5" customHeight="1">
       <c r="A308" s="41"/>
       <c r="B308" s="42"/>
       <c r="C308" s="42"/>
@@ -5589,7 +5589,7 @@
       <c r="L308" s="43"/>
       <c r="M308" s="43"/>
     </row>
-    <row r="309" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:13" ht="19.5" customHeight="1">
       <c r="A309" s="41"/>
       <c r="B309" s="42"/>
       <c r="C309" s="42"/>
@@ -5604,7 +5604,7 @@
       <c r="L309" s="43"/>
       <c r="M309" s="43"/>
     </row>
-    <row r="310" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:13" ht="19.5" customHeight="1">
       <c r="A310" s="41"/>
       <c r="B310" s="42"/>
       <c r="C310" s="42"/>
@@ -5619,7 +5619,7 @@
       <c r="L310" s="43"/>
       <c r="M310" s="43"/>
     </row>
-    <row r="311" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:13" ht="19.5" customHeight="1">
       <c r="A311" s="41"/>
       <c r="B311" s="42"/>
       <c r="C311" s="42"/>
@@ -5634,7 +5634,7 @@
       <c r="L311" s="43"/>
       <c r="M311" s="43"/>
     </row>
-    <row r="312" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:13" ht="19.5" customHeight="1">
       <c r="A312" s="41"/>
       <c r="B312" s="42"/>
       <c r="C312" s="42"/>
@@ -5649,7 +5649,7 @@
       <c r="L312" s="43"/>
       <c r="M312" s="43"/>
     </row>
-    <row r="313" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:13" ht="19.5" customHeight="1">
       <c r="A313" s="41"/>
       <c r="B313" s="42"/>
       <c r="C313" s="42"/>
@@ -5664,7 +5664,7 @@
       <c r="L313" s="43"/>
       <c r="M313" s="43"/>
     </row>
-    <row r="314" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:13" ht="19.5" customHeight="1">
       <c r="A314" s="41"/>
       <c r="B314" s="42"/>
       <c r="C314" s="42"/>
@@ -5679,7 +5679,7 @@
       <c r="L314" s="43"/>
       <c r="M314" s="43"/>
     </row>
-    <row r="315" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:13" ht="19.5" customHeight="1">
       <c r="A315" s="41"/>
       <c r="B315" s="42"/>
       <c r="C315" s="42"/>
@@ -5694,7 +5694,7 @@
       <c r="L315" s="43"/>
       <c r="M315" s="43"/>
     </row>
-    <row r="316" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:13" ht="19.5" customHeight="1">
       <c r="A316" s="41"/>
       <c r="B316" s="42"/>
       <c r="C316" s="42"/>
@@ -5709,7 +5709,7 @@
       <c r="L316" s="43"/>
       <c r="M316" s="43"/>
     </row>
-    <row r="317" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:13" ht="19.5" customHeight="1">
       <c r="A317" s="41"/>
       <c r="B317" s="42"/>
       <c r="C317" s="42"/>
@@ -5724,7 +5724,7 @@
       <c r="L317" s="43"/>
       <c r="M317" s="43"/>
     </row>
-    <row r="318" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:13" ht="19.5" customHeight="1">
       <c r="A318" s="41"/>
       <c r="B318" s="42"/>
       <c r="C318" s="42"/>
@@ -5739,7 +5739,7 @@
       <c r="L318" s="43"/>
       <c r="M318" s="43"/>
     </row>
-    <row r="319" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:13" ht="19.5" customHeight="1">
       <c r="A319" s="41"/>
       <c r="B319" s="42"/>
       <c r="C319" s="42"/>
@@ -5754,7 +5754,7 @@
       <c r="L319" s="43"/>
       <c r="M319" s="43"/>
     </row>
-    <row r="320" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:13" ht="19.5" customHeight="1">
       <c r="A320" s="41"/>
       <c r="B320" s="42"/>
       <c r="C320" s="42"/>
@@ -5769,7 +5769,7 @@
       <c r="L320" s="43"/>
       <c r="M320" s="43"/>
     </row>
-    <row r="321" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:13" ht="19.5" customHeight="1">
       <c r="A321" s="41"/>
       <c r="B321" s="42"/>
       <c r="C321" s="42"/>
@@ -5784,7 +5784,7 @@
       <c r="L321" s="43"/>
       <c r="M321" s="43"/>
     </row>
-    <row r="322" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:13" ht="19.5" customHeight="1">
       <c r="A322" s="41"/>
       <c r="B322" s="42"/>
       <c r="C322" s="42"/>
@@ -5799,7 +5799,7 @@
       <c r="L322" s="43"/>
       <c r="M322" s="43"/>
     </row>
-    <row r="323" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:13" ht="19.5" customHeight="1">
       <c r="A323" s="41"/>
       <c r="B323" s="42"/>
       <c r="C323" s="42"/>
@@ -5814,7 +5814,7 @@
       <c r="L323" s="43"/>
       <c r="M323" s="43"/>
     </row>
-    <row r="324" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:13" ht="19.5" customHeight="1">
       <c r="A324" s="41"/>
       <c r="B324" s="42"/>
       <c r="C324" s="42"/>
@@ -5829,7 +5829,7 @@
       <c r="L324" s="43"/>
       <c r="M324" s="43"/>
     </row>
-    <row r="325" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:13" ht="19.5" customHeight="1">
       <c r="A325" s="41"/>
       <c r="B325" s="42"/>
       <c r="C325" s="42"/>
@@ -5844,7 +5844,7 @@
       <c r="L325" s="43"/>
       <c r="M325" s="43"/>
     </row>
-    <row r="326" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:13" ht="19.5" customHeight="1">
       <c r="A326" s="41"/>
       <c r="B326" s="42"/>
       <c r="C326" s="42"/>
@@ -5859,7 +5859,7 @@
       <c r="L326" s="43"/>
       <c r="M326" s="43"/>
     </row>
-    <row r="327" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:13" ht="19.5" customHeight="1">
       <c r="A327" s="41"/>
       <c r="B327" s="42"/>
       <c r="C327" s="42"/>
@@ -5874,7 +5874,7 @@
       <c r="L327" s="43"/>
       <c r="M327" s="43"/>
     </row>
-    <row r="328" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:13" ht="19.5" customHeight="1">
       <c r="A328" s="41"/>
       <c r="B328" s="42"/>
       <c r="C328" s="42"/>
@@ -5889,7 +5889,7 @@
       <c r="L328" s="43"/>
       <c r="M328" s="43"/>
     </row>
-    <row r="329" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:13" ht="19.5" customHeight="1">
       <c r="A329" s="41"/>
       <c r="B329" s="42"/>
       <c r="C329" s="42"/>
@@ -5904,7 +5904,7 @@
       <c r="L329" s="43"/>
       <c r="M329" s="43"/>
     </row>
-    <row r="330" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:13" ht="19.5" customHeight="1">
       <c r="A330" s="41"/>
       <c r="B330" s="42"/>
       <c r="C330" s="42"/>
@@ -5919,7 +5919,7 @@
       <c r="L330" s="43"/>
       <c r="M330" s="43"/>
     </row>
-    <row r="331" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:13" ht="19.5" customHeight="1">
       <c r="A331" s="41"/>
       <c r="B331" s="42"/>
       <c r="C331" s="42"/>
@@ -5934,7 +5934,7 @@
       <c r="L331" s="43"/>
       <c r="M331" s="43"/>
     </row>
-    <row r="332" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:13" ht="19.5" customHeight="1">
       <c r="A332" s="41"/>
       <c r="B332" s="42"/>
       <c r="C332" s="42"/>
@@ -5949,7 +5949,7 @@
       <c r="L332" s="43"/>
       <c r="M332" s="43"/>
     </row>
-    <row r="333" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:13" ht="19.5" customHeight="1">
       <c r="A333" s="41"/>
       <c r="B333" s="42"/>
       <c r="C333" s="42"/>
@@ -5964,7 +5964,7 @@
       <c r="L333" s="43"/>
       <c r="M333" s="43"/>
     </row>
-    <row r="334" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:13" ht="19.5" customHeight="1">
       <c r="A334" s="41"/>
       <c r="B334" s="42"/>
       <c r="C334" s="42"/>
@@ -5979,7 +5979,7 @@
       <c r="L334" s="43"/>
       <c r="M334" s="43"/>
     </row>
-    <row r="335" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:13" ht="19.5" customHeight="1">
       <c r="A335" s="41"/>
       <c r="B335" s="42"/>
       <c r="C335" s="42"/>
@@ -5994,7 +5994,7 @@
       <c r="L335" s="43"/>
       <c r="M335" s="43"/>
     </row>
-    <row r="336" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:13" ht="19.5" customHeight="1">
       <c r="A336" s="41"/>
       <c r="B336" s="42"/>
       <c r="C336" s="42"/>
@@ -6009,7 +6009,7 @@
       <c r="L336" s="43"/>
       <c r="M336" s="43"/>
     </row>
-    <row r="337" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:13" ht="19.5" customHeight="1">
       <c r="A337" s="41"/>
       <c r="B337" s="42"/>
       <c r="C337" s="42"/>
@@ -6024,7 +6024,7 @@
       <c r="L337" s="43"/>
       <c r="M337" s="43"/>
     </row>
-    <row r="338" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:13" ht="19.5" customHeight="1">
       <c r="A338" s="41"/>
       <c r="B338" s="42"/>
       <c r="C338" s="42"/>
@@ -6039,7 +6039,7 @@
       <c r="L338" s="43"/>
       <c r="M338" s="43"/>
     </row>
-    <row r="339" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:13" ht="19.5" customHeight="1">
       <c r="A339" s="41"/>
       <c r="B339" s="42"/>
       <c r="C339" s="42"/>
@@ -6054,7 +6054,7 @@
       <c r="L339" s="43"/>
       <c r="M339" s="43"/>
     </row>
-    <row r="340" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:13" ht="19.5" customHeight="1">
       <c r="A340" s="41"/>
       <c r="B340" s="42"/>
       <c r="C340" s="42"/>
@@ -6069,7 +6069,7 @@
       <c r="L340" s="43"/>
       <c r="M340" s="43"/>
     </row>
-    <row r="341" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:13" ht="19.5" customHeight="1">
       <c r="A341" s="41"/>
       <c r="B341" s="42"/>
       <c r="C341" s="42"/>
@@ -6084,7 +6084,7 @@
       <c r="L341" s="43"/>
       <c r="M341" s="43"/>
     </row>
-    <row r="342" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:13" ht="19.5" customHeight="1">
       <c r="A342" s="41"/>
       <c r="B342" s="42"/>
       <c r="C342" s="42"/>
@@ -6099,7 +6099,7 @@
       <c r="L342" s="43"/>
       <c r="M342" s="43"/>
     </row>
-    <row r="343" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:13" ht="19.5" customHeight="1">
       <c r="A343" s="41"/>
       <c r="B343" s="42"/>
       <c r="C343" s="42"/>
@@ -6114,7 +6114,7 @@
       <c r="L343" s="43"/>
       <c r="M343" s="43"/>
     </row>
-    <row r="344" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:13" ht="19.5" customHeight="1">
       <c r="A344" s="41"/>
       <c r="B344" s="42"/>
       <c r="C344" s="42"/>
@@ -6129,7 +6129,7 @@
       <c r="L344" s="43"/>
       <c r="M344" s="43"/>
     </row>
-    <row r="345" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:13" ht="19.5" customHeight="1">
       <c r="A345" s="41"/>
       <c r="B345" s="42"/>
       <c r="C345" s="42"/>
@@ -6144,7 +6144,7 @@
       <c r="L345" s="43"/>
       <c r="M345" s="43"/>
     </row>
-    <row r="346" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:13" ht="19.5" customHeight="1">
       <c r="A346" s="41"/>
       <c r="B346" s="42"/>
       <c r="C346" s="42"/>
@@ -6159,7 +6159,7 @@
       <c r="L346" s="43"/>
       <c r="M346" s="43"/>
     </row>
-    <row r="347" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:13" ht="19.5" customHeight="1">
       <c r="A347" s="41"/>
       <c r="B347" s="42"/>
       <c r="C347" s="42"/>
@@ -6174,7 +6174,7 @@
       <c r="L347" s="43"/>
       <c r="M347" s="43"/>
     </row>
-    <row r="348" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:13" ht="19.5" customHeight="1">
       <c r="A348" s="41"/>
       <c r="B348" s="42"/>
       <c r="C348" s="42"/>
@@ -6189,7 +6189,7 @@
       <c r="L348" s="43"/>
       <c r="M348" s="43"/>
     </row>
-    <row r="349" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:13" ht="19.5" customHeight="1">
       <c r="A349" s="41"/>
       <c r="B349" s="42"/>
       <c r="C349" s="42"/>
@@ -6204,7 +6204,7 @@
       <c r="L349" s="43"/>
       <c r="M349" s="43"/>
     </row>
-    <row r="350" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:13" ht="19.5" customHeight="1">
       <c r="A350" s="41"/>
       <c r="B350" s="42"/>
       <c r="C350" s="42"/>
@@ -6219,7 +6219,7 @@
       <c r="L350" s="43"/>
       <c r="M350" s="43"/>
     </row>
-    <row r="351" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:13" ht="19.5" customHeight="1">
       <c r="A351" s="41"/>
       <c r="B351" s="42"/>
       <c r="C351" s="42"/>
@@ -6234,7 +6234,7 @@
       <c r="L351" s="43"/>
       <c r="M351" s="43"/>
     </row>
-    <row r="352" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:13" ht="19.5" customHeight="1">
       <c r="A352" s="41"/>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
@@ -6249,7 +6249,7 @@
       <c r="L352" s="43"/>
       <c r="M352" s="43"/>
     </row>
-    <row r="353" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:13" ht="19.5" customHeight="1">
       <c r="A353" s="41"/>
       <c r="B353" s="42"/>
       <c r="C353" s="42"/>
@@ -6264,7 +6264,7 @@
       <c r="L353" s="43"/>
       <c r="M353" s="43"/>
     </row>
-    <row r="354" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:13" ht="19.5" customHeight="1">
       <c r="A354" s="41"/>
       <c r="B354" s="42"/>
       <c r="C354" s="42"/>
@@ -6279,7 +6279,7 @@
       <c r="L354" s="43"/>
       <c r="M354" s="43"/>
     </row>
-    <row r="355" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:13" ht="19.5" customHeight="1">
       <c r="A355" s="41"/>
       <c r="B355" s="42"/>
       <c r="C355" s="42"/>
@@ -6294,7 +6294,7 @@
       <c r="L355" s="43"/>
       <c r="M355" s="43"/>
     </row>
-    <row r="356" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:13" ht="19.5" customHeight="1">
       <c r="A356" s="41"/>
       <c r="B356" s="42"/>
       <c r="C356" s="42"/>
@@ -6309,7 +6309,7 @@
       <c r="L356" s="43"/>
       <c r="M356" s="43"/>
     </row>
-    <row r="357" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:13" ht="19.5" customHeight="1">
       <c r="A357" s="41"/>
       <c r="B357" s="42"/>
       <c r="C357" s="42"/>
@@ -6324,7 +6324,7 @@
       <c r="L357" s="43"/>
       <c r="M357" s="43"/>
     </row>
-    <row r="358" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:13" ht="19.5" customHeight="1">
       <c r="A358" s="41"/>
       <c r="B358" s="42"/>
       <c r="C358" s="42"/>
@@ -6339,7 +6339,7 @@
       <c r="L358" s="43"/>
       <c r="M358" s="43"/>
     </row>
-    <row r="359" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:13" ht="19.5" customHeight="1">
       <c r="A359" s="41"/>
       <c r="B359" s="42"/>
       <c r="C359" s="42"/>
@@ -6354,7 +6354,7 @@
       <c r="L359" s="43"/>
       <c r="M359" s="43"/>
     </row>
-    <row r="360" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:13" ht="19.5" customHeight="1">
       <c r="A360" s="41"/>
       <c r="B360" s="42"/>
       <c r="C360" s="42"/>
@@ -6369,7 +6369,7 @@
       <c r="L360" s="43"/>
       <c r="M360" s="43"/>
     </row>
-    <row r="361" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:13" ht="19.5" customHeight="1">
       <c r="A361" s="41"/>
       <c r="B361" s="42"/>
       <c r="C361" s="42"/>
@@ -6384,7 +6384,7 @@
       <c r="L361" s="43"/>
       <c r="M361" s="43"/>
     </row>
-    <row r="362" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:13" ht="19.5" customHeight="1">
       <c r="A362" s="41"/>
       <c r="B362" s="42"/>
       <c r="C362" s="42"/>
@@ -6399,7 +6399,7 @@
       <c r="L362" s="43"/>
       <c r="M362" s="43"/>
     </row>
-    <row r="363" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:13" ht="19.5" customHeight="1">
       <c r="A363" s="41"/>
       <c r="B363" s="42"/>
       <c r="C363" s="42"/>
@@ -6414,7 +6414,7 @@
       <c r="L363" s="43"/>
       <c r="M363" s="43"/>
     </row>
-    <row r="364" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:13" ht="19.5" customHeight="1">
       <c r="A364" s="41"/>
       <c r="B364" s="42"/>
       <c r="C364" s="42"/>
@@ -6429,7 +6429,7 @@
       <c r="L364" s="43"/>
       <c r="M364" s="43"/>
     </row>
-    <row r="365" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:13" ht="19.5" customHeight="1">
       <c r="A365" s="41"/>
       <c r="B365" s="42"/>
       <c r="C365" s="42"/>
@@ -6444,7 +6444,7 @@
       <c r="L365" s="43"/>
       <c r="M365" s="43"/>
     </row>
-    <row r="366" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:13" ht="19.5" customHeight="1">
       <c r="A366" s="41"/>
       <c r="B366" s="42"/>
       <c r="C366" s="42"/>
@@ -6459,7 +6459,7 @@
       <c r="L366" s="43"/>
       <c r="M366" s="43"/>
     </row>
-    <row r="367" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:13" ht="19.5" customHeight="1">
       <c r="A367" s="41"/>
       <c r="B367" s="42"/>
       <c r="C367" s="42"/>
@@ -6474,7 +6474,7 @@
       <c r="L367" s="43"/>
       <c r="M367" s="43"/>
     </row>
-    <row r="368" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:13" ht="19.5" customHeight="1">
       <c r="A368" s="41"/>
       <c r="B368" s="42"/>
       <c r="C368" s="42"/>
@@ -6489,7 +6489,7 @@
       <c r="L368" s="43"/>
       <c r="M368" s="43"/>
     </row>
-    <row r="369" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:13" ht="19.5" customHeight="1">
       <c r="A369" s="41"/>
       <c r="B369" s="42"/>
       <c r="C369" s="42"/>
@@ -6504,7 +6504,7 @@
       <c r="L369" s="43"/>
       <c r="M369" s="43"/>
     </row>
-    <row r="370" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:13" ht="19.5" customHeight="1">
       <c r="A370" s="41"/>
       <c r="B370" s="42"/>
       <c r="C370" s="42"/>
@@ -6519,7 +6519,7 @@
       <c r="L370" s="43"/>
       <c r="M370" s="43"/>
     </row>
-    <row r="371" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:13" ht="19.5" customHeight="1">
       <c r="A371" s="41"/>
       <c r="B371" s="42"/>
       <c r="C371" s="42"/>
@@ -6534,7 +6534,7 @@
       <c r="L371" s="43"/>
       <c r="M371" s="43"/>
     </row>
-    <row r="372" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:13" ht="19.5" customHeight="1">
       <c r="A372" s="41"/>
       <c r="B372" s="42"/>
       <c r="C372" s="42"/>
@@ -6549,7 +6549,7 @@
       <c r="L372" s="43"/>
       <c r="M372" s="43"/>
     </row>
-    <row r="373" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:13" ht="19.5" customHeight="1">
       <c r="A373" s="41"/>
       <c r="B373" s="42"/>
       <c r="C373" s="42"/>
@@ -6564,7 +6564,7 @@
       <c r="L373" s="43"/>
       <c r="M373" s="43"/>
     </row>
-    <row r="374" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:13" ht="19.5" customHeight="1">
       <c r="A374" s="41"/>
       <c r="B374" s="42"/>
       <c r="C374" s="42"/>
@@ -6579,7 +6579,7 @@
       <c r="L374" s="43"/>
       <c r="M374" s="43"/>
     </row>
-    <row r="375" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:13" ht="19.5" customHeight="1">
       <c r="A375" s="41"/>
       <c r="B375" s="42"/>
       <c r="C375" s="42"/>
@@ -6594,7 +6594,7 @@
       <c r="L375" s="43"/>
       <c r="M375" s="43"/>
     </row>
-    <row r="376" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:13" ht="19.5" customHeight="1">
       <c r="A376" s="41"/>
       <c r="B376" s="42"/>
       <c r="C376" s="42"/>
@@ -6609,7 +6609,7 @@
       <c r="L376" s="43"/>
       <c r="M376" s="43"/>
     </row>
-    <row r="377" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:13" ht="19.5" customHeight="1">
       <c r="A377" s="41"/>
       <c r="B377" s="42"/>
       <c r="C377" s="42"/>
@@ -6624,7 +6624,7 @@
       <c r="L377" s="43"/>
       <c r="M377" s="43"/>
     </row>
-    <row r="378" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:13" ht="19.5" customHeight="1">
       <c r="A378" s="41"/>
       <c r="B378" s="42"/>
       <c r="C378" s="42"/>
@@ -6639,7 +6639,7 @@
       <c r="L378" s="43"/>
       <c r="M378" s="43"/>
     </row>
-    <row r="379" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:13" ht="19.5" customHeight="1">
       <c r="A379" s="41"/>
       <c r="B379" s="42"/>
       <c r="C379" s="42"/>
@@ -6654,7 +6654,7 @@
       <c r="L379" s="43"/>
       <c r="M379" s="43"/>
     </row>
-    <row r="380" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:13" ht="19.5" customHeight="1">
       <c r="A380" s="41"/>
       <c r="B380" s="42"/>
       <c r="C380" s="42"/>
@@ -6669,7 +6669,7 @@
       <c r="L380" s="43"/>
       <c r="M380" s="43"/>
     </row>
-    <row r="381" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:13" ht="19.5" customHeight="1">
       <c r="A381" s="41"/>
       <c r="B381" s="42"/>
       <c r="C381" s="42"/>
@@ -6684,7 +6684,7 @@
       <c r="L381" s="43"/>
       <c r="M381" s="43"/>
     </row>
-    <row r="382" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:13" ht="19.5" customHeight="1">
       <c r="A382" s="41"/>
       <c r="B382" s="42"/>
       <c r="C382" s="42"/>
@@ -6699,7 +6699,7 @@
       <c r="L382" s="43"/>
       <c r="M382" s="43"/>
     </row>
-    <row r="383" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:13" ht="19.5" customHeight="1">
       <c r="A383" s="41"/>
       <c r="B383" s="42"/>
       <c r="C383" s="42"/>
@@ -6714,7 +6714,7 @@
       <c r="L383" s="43"/>
       <c r="M383" s="43"/>
     </row>
-    <row r="384" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:13" ht="19.5" customHeight="1">
       <c r="A384" s="41"/>
       <c r="B384" s="42"/>
       <c r="C384" s="42"/>
@@ -6729,7 +6729,7 @@
       <c r="L384" s="43"/>
       <c r="M384" s="43"/>
     </row>
-    <row r="385" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:13" ht="19.5" customHeight="1">
       <c r="A385" s="41"/>
       <c r="B385" s="42"/>
       <c r="C385" s="42"/>
@@ -6744,7 +6744,7 @@
       <c r="L385" s="43"/>
       <c r="M385" s="43"/>
     </row>
-    <row r="386" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:13" ht="19.5" customHeight="1">
       <c r="A386" s="41"/>
       <c r="B386" s="42"/>
       <c r="C386" s="42"/>
@@ -6759,7 +6759,7 @@
       <c r="L386" s="43"/>
       <c r="M386" s="43"/>
     </row>
-    <row r="387" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:13" ht="19.5" customHeight="1">
       <c r="A387" s="41"/>
       <c r="B387" s="42"/>
       <c r="C387" s="42"/>
@@ -6774,7 +6774,7 @@
       <c r="L387" s="43"/>
       <c r="M387" s="43"/>
     </row>
-    <row r="388" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:13" ht="19.5" customHeight="1">
       <c r="A388" s="41"/>
       <c r="B388" s="42"/>
       <c r="C388" s="42"/>
@@ -6789,7 +6789,7 @@
       <c r="L388" s="43"/>
       <c r="M388" s="43"/>
     </row>
-    <row r="389" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:13" ht="19.5" customHeight="1">
       <c r="A389" s="41"/>
       <c r="B389" s="42"/>
       <c r="C389" s="42"/>
@@ -6804,7 +6804,7 @@
       <c r="L389" s="43"/>
       <c r="M389" s="43"/>
     </row>
-    <row r="390" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:13" ht="19.5" customHeight="1">
       <c r="A390" s="41"/>
       <c r="B390" s="42"/>
       <c r="C390" s="42"/>
@@ -6819,7 +6819,7 @@
       <c r="L390" s="43"/>
       <c r="M390" s="43"/>
     </row>
-    <row r="391" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:13" ht="19.5" customHeight="1">
       <c r="A391" s="41"/>
       <c r="B391" s="42"/>
       <c r="C391" s="42"/>
@@ -6834,7 +6834,7 @@
       <c r="L391" s="43"/>
       <c r="M391" s="43"/>
     </row>
-    <row r="392" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:13" ht="19.5" customHeight="1">
       <c r="A392" s="41"/>
       <c r="B392" s="42"/>
       <c r="C392" s="42"/>
@@ -6849,7 +6849,7 @@
       <c r="L392" s="43"/>
       <c r="M392" s="43"/>
     </row>
-    <row r="393" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:13" ht="19.5" customHeight="1">
       <c r="A393" s="41"/>
       <c r="B393" s="42"/>
       <c r="C393" s="42"/>
@@ -6864,7 +6864,7 @@
       <c r="L393" s="43"/>
       <c r="M393" s="43"/>
     </row>
-    <row r="394" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:13" ht="19.5" customHeight="1">
       <c r="A394" s="41"/>
       <c r="B394" s="42"/>
       <c r="C394" s="42"/>
@@ -6879,7 +6879,7 @@
       <c r="L394" s="43"/>
       <c r="M394" s="43"/>
     </row>
-    <row r="395" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:13" ht="19.5" customHeight="1">
       <c r="A395" s="41"/>
       <c r="B395" s="42"/>
       <c r="C395" s="42"/>
@@ -6894,7 +6894,7 @@
       <c r="L395" s="43"/>
       <c r="M395" s="43"/>
     </row>
-    <row r="396" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:13" ht="19.5" customHeight="1">
       <c r="A396" s="41"/>
       <c r="B396" s="42"/>
       <c r="C396" s="42"/>
@@ -6909,7 +6909,7 @@
       <c r="L396" s="43"/>
       <c r="M396" s="43"/>
     </row>
-    <row r="397" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:13" ht="19.5" customHeight="1">
       <c r="A397" s="41"/>
       <c r="B397" s="42"/>
       <c r="C397" s="42"/>
@@ -6924,7 +6924,7 @@
       <c r="L397" s="43"/>
       <c r="M397" s="43"/>
     </row>
-    <row r="398" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:13" ht="19.5" customHeight="1">
       <c r="A398" s="41"/>
       <c r="B398" s="42"/>
       <c r="C398" s="42"/>
@@ -6939,7 +6939,7 @@
       <c r="L398" s="43"/>
       <c r="M398" s="43"/>
     </row>
-    <row r="399" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:13" ht="19.5" customHeight="1">
       <c r="A399" s="41"/>
       <c r="B399" s="42"/>
       <c r="C399" s="42"/>
@@ -6954,7 +6954,7 @@
       <c r="L399" s="43"/>
       <c r="M399" s="43"/>
     </row>
-    <row r="400" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:13" ht="19.5" customHeight="1">
       <c r="A400" s="41"/>
       <c r="B400" s="42"/>
       <c r="C400" s="42"/>
@@ -6969,7 +6969,7 @@
       <c r="L400" s="43"/>
       <c r="M400" s="43"/>
     </row>
-    <row r="401" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:13" ht="19.5" customHeight="1">
       <c r="A401" s="41"/>
       <c r="B401" s="42"/>
       <c r="C401" s="42"/>
@@ -6984,7 +6984,7 @@
       <c r="L401" s="43"/>
       <c r="M401" s="43"/>
     </row>
-    <row r="402" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:13" ht="19.5" customHeight="1">
       <c r="A402" s="41"/>
       <c r="B402" s="42"/>
       <c r="C402" s="42"/>
@@ -6999,7 +6999,7 @@
       <c r="L402" s="43"/>
       <c r="M402" s="43"/>
     </row>
-    <row r="403" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:13" ht="19.5" customHeight="1">
       <c r="A403" s="41"/>
       <c r="B403" s="42"/>
       <c r="C403" s="42"/>
@@ -7014,7 +7014,7 @@
       <c r="L403" s="43"/>
       <c r="M403" s="43"/>
     </row>
-    <row r="404" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:13" ht="19.5" customHeight="1">
       <c r="A404" s="41"/>
       <c r="B404" s="42"/>
       <c r="C404" s="42"/>
@@ -7029,7 +7029,7 @@
       <c r="L404" s="43"/>
       <c r="M404" s="43"/>
     </row>
-    <row r="405" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:13" ht="19.5" customHeight="1">
       <c r="A405" s="41"/>
       <c r="B405" s="42"/>
       <c r="C405" s="42"/>
@@ -7044,7 +7044,7 @@
       <c r="L405" s="43"/>
       <c r="M405" s="43"/>
     </row>
-    <row r="406" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:13" ht="19.5" customHeight="1">
       <c r="A406" s="41"/>
       <c r="B406" s="42"/>
       <c r="C406" s="42"/>
@@ -7059,7 +7059,7 @@
       <c r="L406" s="43"/>
       <c r="M406" s="43"/>
     </row>
-    <row r="407" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:13" ht="19.5" customHeight="1">
       <c r="A407" s="41"/>
       <c r="B407" s="42"/>
       <c r="C407" s="42"/>
@@ -7074,7 +7074,7 @@
       <c r="L407" s="43"/>
       <c r="M407" s="43"/>
     </row>
-    <row r="408" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:13" ht="19.5" customHeight="1">
       <c r="A408" s="41"/>
       <c r="B408" s="42"/>
       <c r="C408" s="42"/>
@@ -7089,7 +7089,7 @@
       <c r="L408" s="43"/>
       <c r="M408" s="43"/>
     </row>
-    <row r="409" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:13" ht="19.5" customHeight="1">
       <c r="A409" s="41"/>
       <c r="B409" s="42"/>
       <c r="C409" s="42"/>
@@ -7104,7 +7104,7 @@
       <c r="L409" s="43"/>
       <c r="M409" s="43"/>
     </row>
-    <row r="410" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:13" ht="19.5" customHeight="1">
       <c r="A410" s="41"/>
       <c r="B410" s="42"/>
       <c r="C410" s="42"/>
@@ -7119,7 +7119,7 @@
       <c r="L410" s="43"/>
       <c r="M410" s="43"/>
     </row>
-    <row r="411" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:13" ht="19.5" customHeight="1">
       <c r="A411" s="41"/>
       <c r="B411" s="42"/>
       <c r="C411" s="42"/>
@@ -7134,7 +7134,7 @@
       <c r="L411" s="43"/>
       <c r="M411" s="43"/>
     </row>
-    <row r="412" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:13" ht="19.5" customHeight="1">
       <c r="A412" s="41"/>
       <c r="B412" s="42"/>
       <c r="C412" s="42"/>
@@ -7149,7 +7149,7 @@
       <c r="L412" s="43"/>
       <c r="M412" s="43"/>
     </row>
-    <row r="413" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:13" ht="19.5" customHeight="1">
       <c r="A413" s="41"/>
       <c r="B413" s="42"/>
       <c r="C413" s="42"/>
@@ -7164,7 +7164,7 @@
       <c r="L413" s="43"/>
       <c r="M413" s="43"/>
     </row>
-    <row r="414" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:13" ht="19.5" customHeight="1">
       <c r="A414" s="41"/>
       <c r="B414" s="42"/>
       <c r="C414" s="42"/>
@@ -7179,7 +7179,7 @@
       <c r="L414" s="43"/>
       <c r="M414" s="43"/>
     </row>
-    <row r="415" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:13" ht="19.5" customHeight="1">
       <c r="A415" s="41"/>
       <c r="B415" s="42"/>
       <c r="C415" s="42"/>
@@ -7194,7 +7194,7 @@
       <c r="L415" s="43"/>
       <c r="M415" s="43"/>
     </row>
-    <row r="416" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:13" ht="19.5" customHeight="1">
       <c r="A416" s="41"/>
       <c r="B416" s="42"/>
       <c r="C416" s="42"/>
@@ -7209,7 +7209,7 @@
       <c r="L416" s="43"/>
       <c r="M416" s="43"/>
     </row>
-    <row r="417" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:13" ht="19.5" customHeight="1">
       <c r="A417" s="41"/>
       <c r="B417" s="42"/>
       <c r="C417" s="42"/>
@@ -7224,7 +7224,7 @@
       <c r="L417" s="43"/>
       <c r="M417" s="43"/>
     </row>
-    <row r="418" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:13" ht="19.5" customHeight="1">
       <c r="A418" s="41"/>
       <c r="B418" s="42"/>
       <c r="C418" s="42"/>
@@ -7239,7 +7239,7 @@
       <c r="L418" s="43"/>
       <c r="M418" s="43"/>
     </row>
-    <row r="419" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:13" ht="19.5" customHeight="1">
       <c r="A419" s="41"/>
       <c r="B419" s="42"/>
       <c r="C419" s="42"/>
@@ -7254,7 +7254,7 @@
       <c r="L419" s="43"/>
       <c r="M419" s="43"/>
     </row>
-    <row r="420" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:13" ht="19.5" customHeight="1">
       <c r="A420" s="41"/>
       <c r="B420" s="42"/>
       <c r="C420" s="42"/>
@@ -7269,7 +7269,7 @@
       <c r="L420" s="43"/>
       <c r="M420" s="43"/>
     </row>
-    <row r="421" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:13" ht="19.5" customHeight="1">
       <c r="A421" s="41"/>
       <c r="B421" s="42"/>
       <c r="C421" s="42"/>
@@ -7284,7 +7284,7 @@
       <c r="L421" s="43"/>
       <c r="M421" s="43"/>
     </row>
-    <row r="422" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:13" ht="19.5" customHeight="1">
       <c r="A422" s="41"/>
       <c r="B422" s="42"/>
       <c r="C422" s="42"/>
@@ -7299,7 +7299,7 @@
       <c r="L422" s="43"/>
       <c r="M422" s="43"/>
     </row>
-    <row r="423" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:13" ht="19.5" customHeight="1">
       <c r="A423" s="41"/>
       <c r="B423" s="42"/>
       <c r="C423" s="42"/>
@@ -7314,7 +7314,7 @@
       <c r="L423" s="43"/>
       <c r="M423" s="43"/>
     </row>
-    <row r="424" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:13" ht="19.5" customHeight="1">
       <c r="A424" s="41"/>
       <c r="B424" s="42"/>
       <c r="C424" s="42"/>
@@ -7329,7 +7329,7 @@
       <c r="L424" s="43"/>
       <c r="M424" s="43"/>
     </row>
-    <row r="425" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:13" ht="19.5" customHeight="1">
       <c r="A425" s="41"/>
       <c r="B425" s="42"/>
       <c r="C425" s="42"/>
@@ -7344,7 +7344,7 @@
       <c r="L425" s="43"/>
       <c r="M425" s="43"/>
     </row>
-    <row r="426" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:13" ht="19.5" customHeight="1">
       <c r="A426" s="41"/>
       <c r="B426" s="42"/>
       <c r="C426" s="42"/>
@@ -7359,7 +7359,7 @@
       <c r="L426" s="43"/>
       <c r="M426" s="43"/>
     </row>
-    <row r="427" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:13" ht="19.5" customHeight="1">
       <c r="A427" s="41"/>
       <c r="B427" s="42"/>
       <c r="C427" s="42"/>
@@ -7374,7 +7374,7 @@
       <c r="L427" s="43"/>
       <c r="M427" s="43"/>
     </row>
-    <row r="428" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:13" ht="19.5" customHeight="1">
       <c r="A428" s="41"/>
       <c r="B428" s="42"/>
       <c r="C428" s="42"/>
@@ -7389,7 +7389,7 @@
       <c r="L428" s="43"/>
       <c r="M428" s="43"/>
     </row>
-    <row r="429" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:13" ht="19.5" customHeight="1">
       <c r="A429" s="41"/>
       <c r="B429" s="42"/>
       <c r="C429" s="42"/>
@@ -7404,7 +7404,7 @@
       <c r="L429" s="43"/>
       <c r="M429" s="43"/>
     </row>
-    <row r="430" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:13" ht="19.5" customHeight="1">
       <c r="A430" s="41"/>
       <c r="B430" s="42"/>
       <c r="C430" s="42"/>
@@ -7419,7 +7419,7 @@
       <c r="L430" s="43"/>
       <c r="M430" s="43"/>
     </row>
-    <row r="431" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:13" ht="19.5" customHeight="1">
       <c r="A431" s="41"/>
       <c r="B431" s="42"/>
       <c r="C431" s="42"/>
@@ -7434,7 +7434,7 @@
       <c r="L431" s="43"/>
       <c r="M431" s="43"/>
     </row>
-    <row r="432" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:13" ht="19.5" customHeight="1">
       <c r="A432" s="41"/>
       <c r="B432" s="42"/>
       <c r="C432" s="42"/>
@@ -7449,7 +7449,7 @@
       <c r="L432" s="43"/>
       <c r="M432" s="43"/>
     </row>
-    <row r="433" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:13" ht="19.5" customHeight="1">
       <c r="A433" s="41"/>
       <c r="B433" s="42"/>
       <c r="C433" s="42"/>
@@ -7464,7 +7464,7 @@
       <c r="L433" s="43"/>
       <c r="M433" s="43"/>
     </row>
-    <row r="434" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:13" ht="19.5" customHeight="1">
       <c r="A434" s="41"/>
       <c r="B434" s="42"/>
       <c r="C434" s="42"/>
@@ -7479,7 +7479,7 @@
       <c r="L434" s="43"/>
       <c r="M434" s="43"/>
     </row>
-    <row r="435" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:13" ht="19.5" customHeight="1">
       <c r="A435" s="41"/>
       <c r="B435" s="42"/>
       <c r="C435" s="42"/>
@@ -7494,7 +7494,7 @@
       <c r="L435" s="43"/>
       <c r="M435" s="43"/>
     </row>
-    <row r="436" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:13" ht="19.5" customHeight="1">
       <c r="A436" s="41"/>
       <c r="B436" s="42"/>
       <c r="C436" s="42"/>
@@ -7509,7 +7509,7 @@
       <c r="L436" s="43"/>
       <c r="M436" s="43"/>
     </row>
-    <row r="437" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:13" ht="19.5" customHeight="1">
       <c r="A437" s="41"/>
       <c r="B437" s="42"/>
       <c r="C437" s="42"/>
@@ -7524,7 +7524,7 @@
       <c r="L437" s="43"/>
       <c r="M437" s="43"/>
     </row>
-    <row r="438" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:13" ht="19.5" customHeight="1">
       <c r="A438" s="41"/>
       <c r="B438" s="42"/>
       <c r="C438" s="42"/>
@@ -7539,7 +7539,7 @@
       <c r="L438" s="43"/>
       <c r="M438" s="43"/>
     </row>
-    <row r="439" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:13" ht="19.5" customHeight="1">
       <c r="A439" s="41"/>
       <c r="B439" s="42"/>
       <c r="C439" s="42"/>
@@ -7554,7 +7554,7 @@
       <c r="L439" s="43"/>
       <c r="M439" s="43"/>
     </row>
-    <row r="440" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:13" ht="19.5" customHeight="1">
       <c r="A440" s="41"/>
       <c r="B440" s="42"/>
       <c r="C440" s="42"/>
@@ -7569,7 +7569,7 @@
       <c r="L440" s="43"/>
       <c r="M440" s="43"/>
     </row>
-    <row r="441" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:13" ht="19.5" customHeight="1">
       <c r="A441" s="41"/>
       <c r="B441" s="42"/>
       <c r="C441" s="42"/>
@@ -7584,7 +7584,7 @@
       <c r="L441" s="43"/>
       <c r="M441" s="43"/>
     </row>
-    <row r="442" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:13" ht="19.5" customHeight="1">
       <c r="A442" s="41"/>
       <c r="B442" s="42"/>
       <c r="C442" s="42"/>
@@ -7599,7 +7599,7 @@
       <c r="L442" s="43"/>
       <c r="M442" s="43"/>
     </row>
-    <row r="443" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:13" ht="19.5" customHeight="1">
       <c r="A443" s="41"/>
       <c r="B443" s="42"/>
       <c r="C443" s="42"/>
@@ -7614,7 +7614,7 @@
       <c r="L443" s="43"/>
       <c r="M443" s="43"/>
     </row>
-    <row r="444" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:13" ht="19.5" customHeight="1">
       <c r="A444" s="41"/>
       <c r="B444" s="42"/>
       <c r="C444" s="42"/>
@@ -7629,7 +7629,7 @@
       <c r="L444" s="43"/>
       <c r="M444" s="43"/>
     </row>
-    <row r="445" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:13" ht="19.5" customHeight="1">
       <c r="A445" s="41"/>
       <c r="B445" s="42"/>
       <c r="C445" s="42"/>
@@ -7644,7 +7644,7 @@
       <c r="L445" s="43"/>
       <c r="M445" s="43"/>
     </row>
-    <row r="446" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:13" ht="19.5" customHeight="1">
       <c r="A446" s="41"/>
       <c r="B446" s="42"/>
       <c r="C446" s="42"/>
@@ -7659,7 +7659,7 @@
       <c r="L446" s="43"/>
       <c r="M446" s="43"/>
     </row>
-    <row r="447" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:13" ht="19.5" customHeight="1">
       <c r="A447" s="41"/>
       <c r="B447" s="42"/>
       <c r="C447" s="42"/>
@@ -7674,7 +7674,7 @@
       <c r="L447" s="43"/>
       <c r="M447" s="43"/>
     </row>
-    <row r="448" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:13" ht="19.5" customHeight="1">
       <c r="A448" s="41"/>
       <c r="B448" s="42"/>
       <c r="C448" s="42"/>
@@ -7689,7 +7689,7 @@
       <c r="L448" s="43"/>
       <c r="M448" s="43"/>
     </row>
-    <row r="449" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:13" ht="19.5" customHeight="1">
       <c r="A449" s="41"/>
       <c r="B449" s="42"/>
       <c r="C449" s="42"/>
@@ -7704,7 +7704,7 @@
       <c r="L449" s="43"/>
       <c r="M449" s="43"/>
     </row>
-    <row r="450" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:13" ht="19.5" customHeight="1">
       <c r="A450" s="41"/>
       <c r="B450" s="42"/>
       <c r="C450" s="42"/>
@@ -7719,7 +7719,7 @@
       <c r="L450" s="43"/>
       <c r="M450" s="43"/>
     </row>
-    <row r="451" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:13" ht="19.5" customHeight="1">
       <c r="A451" s="41"/>
       <c r="B451" s="42"/>
       <c r="C451" s="42"/>
@@ -7734,7 +7734,7 @@
       <c r="L451" s="43"/>
       <c r="M451" s="43"/>
     </row>
-    <row r="452" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:13" ht="19.5" customHeight="1">
       <c r="A452" s="41"/>
       <c r="B452" s="42"/>
       <c r="C452" s="42"/>
@@ -7749,7 +7749,7 @@
       <c r="L452" s="43"/>
       <c r="M452" s="43"/>
     </row>
-    <row r="453" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:13" ht="19.5" customHeight="1">
       <c r="A453" s="41"/>
       <c r="B453" s="42"/>
       <c r="C453" s="42"/>
@@ -7764,7 +7764,7 @@
       <c r="L453" s="43"/>
       <c r="M453" s="43"/>
     </row>
-    <row r="454" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:13" ht="19.5" customHeight="1">
       <c r="A454" s="41"/>
       <c r="B454" s="42"/>
       <c r="C454" s="42"/>
@@ -7779,7 +7779,7 @@
       <c r="L454" s="43"/>
       <c r="M454" s="43"/>
     </row>
-    <row r="455" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:13" ht="19.5" customHeight="1">
       <c r="A455" s="41"/>
       <c r="B455" s="42"/>
       <c r="C455" s="42"/>
@@ -7794,7 +7794,7 @@
       <c r="L455" s="43"/>
       <c r="M455" s="43"/>
     </row>
-    <row r="456" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:13" ht="19.5" customHeight="1">
       <c r="A456" s="41"/>
       <c r="B456" s="42"/>
       <c r="C456" s="42"/>
@@ -7809,7 +7809,7 @@
       <c r="L456" s="43"/>
       <c r="M456" s="43"/>
     </row>
-    <row r="457" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:13" ht="19.5" customHeight="1">
       <c r="A457" s="41"/>
       <c r="B457" s="42"/>
       <c r="C457" s="42"/>
@@ -7824,7 +7824,7 @@
       <c r="L457" s="43"/>
       <c r="M457" s="43"/>
     </row>
-    <row r="458" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:13" ht="19.5" customHeight="1">
       <c r="A458" s="41"/>
       <c r="B458" s="42"/>
       <c r="C458" s="42"/>
@@ -7839,7 +7839,7 @@
       <c r="L458" s="43"/>
       <c r="M458" s="43"/>
     </row>
-    <row r="459" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:13" ht="19.5" customHeight="1">
       <c r="A459" s="41"/>
       <c r="B459" s="42"/>
       <c r="C459" s="42"/>
@@ -7854,7 +7854,7 @@
       <c r="L459" s="43"/>
       <c r="M459" s="43"/>
     </row>
-    <row r="460" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:13" ht="19.5" customHeight="1">
       <c r="A460" s="41"/>
       <c r="B460" s="42"/>
       <c r="C460" s="42"/>
@@ -7869,7 +7869,7 @@
       <c r="L460" s="43"/>
       <c r="M460" s="43"/>
     </row>
-    <row r="461" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:13" ht="19.5" customHeight="1">
       <c r="A461" s="41"/>
       <c r="B461" s="42"/>
       <c r="C461" s="42"/>
@@ -7884,7 +7884,7 @@
       <c r="L461" s="43"/>
       <c r="M461" s="43"/>
     </row>
-    <row r="462" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:13" ht="19.5" customHeight="1">
       <c r="A462" s="41"/>
       <c r="B462" s="42"/>
       <c r="C462" s="42"/>
@@ -7899,7 +7899,7 @@
       <c r="L462" s="43"/>
       <c r="M462" s="43"/>
     </row>
-    <row r="463" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:13" ht="19.5" customHeight="1">
       <c r="A463" s="41"/>
       <c r="B463" s="42"/>
       <c r="C463" s="42"/>
@@ -7914,7 +7914,7 @@
       <c r="L463" s="43"/>
       <c r="M463" s="43"/>
     </row>
-    <row r="464" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:13" ht="19.5" customHeight="1">
       <c r="A464" s="41"/>
       <c r="B464" s="42"/>
       <c r="C464" s="42"/>
@@ -7929,7 +7929,7 @@
       <c r="L464" s="43"/>
       <c r="M464" s="43"/>
     </row>
-    <row r="465" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:13" ht="19.5" customHeight="1">
       <c r="A465" s="41"/>
       <c r="B465" s="42"/>
       <c r="C465" s="42"/>
@@ -7944,7 +7944,7 @@
       <c r="L465" s="43"/>
       <c r="M465" s="43"/>
     </row>
-    <row r="466" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:13" ht="19.5" customHeight="1">
       <c r="A466" s="41"/>
       <c r="B466" s="42"/>
       <c r="C466" s="42"/>
@@ -7959,7 +7959,7 @@
       <c r="L466" s="43"/>
       <c r="M466" s="43"/>
     </row>
-    <row r="467" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:13" ht="19.5" customHeight="1">
       <c r="A467" s="41"/>
       <c r="B467" s="42"/>
       <c r="C467" s="42"/>
@@ -7974,7 +7974,7 @@
       <c r="L467" s="43"/>
       <c r="M467" s="43"/>
     </row>
-    <row r="468" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:13" ht="19.5" customHeight="1">
       <c r="A468" s="41"/>
       <c r="B468" s="42"/>
       <c r="C468" s="42"/>
@@ -7989,7 +7989,7 @@
       <c r="L468" s="43"/>
       <c r="M468" s="43"/>
     </row>
-    <row r="469" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:13" ht="19.5" customHeight="1">
       <c r="A469" s="41"/>
       <c r="B469" s="42"/>
       <c r="C469" s="42"/>
@@ -8004,7 +8004,7 @@
       <c r="L469" s="43"/>
       <c r="M469" s="43"/>
     </row>
-    <row r="470" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:13" ht="19.5" customHeight="1">
       <c r="A470" s="41"/>
       <c r="B470" s="42"/>
       <c r="C470" s="42"/>
@@ -8019,7 +8019,7 @@
       <c r="L470" s="43"/>
       <c r="M470" s="43"/>
     </row>
-    <row r="471" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:13" ht="19.5" customHeight="1">
       <c r="A471" s="41"/>
       <c r="B471" s="42"/>
       <c r="C471" s="42"/>
@@ -8034,7 +8034,7 @@
       <c r="L471" s="43"/>
       <c r="M471" s="43"/>
     </row>
-    <row r="472" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:13" ht="19.5" customHeight="1">
       <c r="A472" s="41"/>
       <c r="B472" s="42"/>
       <c r="C472" s="42"/>
@@ -8049,7 +8049,7 @@
       <c r="L472" s="43"/>
       <c r="M472" s="43"/>
     </row>
-    <row r="473" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:13" ht="19.5" customHeight="1">
       <c r="A473" s="41"/>
       <c r="B473" s="42"/>
       <c r="C473" s="42"/>
@@ -8064,7 +8064,7 @@
       <c r="L473" s="43"/>
       <c r="M473" s="43"/>
     </row>
-    <row r="474" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:13" ht="19.5" customHeight="1">
       <c r="A474" s="41"/>
       <c r="B474" s="42"/>
       <c r="C474" s="42"/>
@@ -8079,7 +8079,7 @@
       <c r="L474" s="43"/>
       <c r="M474" s="43"/>
     </row>
-    <row r="475" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:13" ht="19.5" customHeight="1">
       <c r="A475" s="41"/>
       <c r="B475" s="42"/>
       <c r="C475" s="42"/>
@@ -8094,7 +8094,7 @@
       <c r="L475" s="43"/>
       <c r="M475" s="43"/>
     </row>
-    <row r="476" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:13" ht="19.5" customHeight="1">
       <c r="A476" s="41"/>
       <c r="B476" s="42"/>
       <c r="C476" s="42"/>
@@ -8109,7 +8109,7 @@
       <c r="L476" s="43"/>
       <c r="M476" s="43"/>
     </row>
-    <row r="477" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:13" ht="19.5" customHeight="1">
       <c r="A477" s="41"/>
       <c r="B477" s="42"/>
       <c r="C477" s="42"/>
@@ -8124,7 +8124,7 @@
       <c r="L477" s="43"/>
       <c r="M477" s="43"/>
     </row>
-    <row r="478" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:13" ht="19.5" customHeight="1">
       <c r="A478" s="41"/>
       <c r="B478" s="42"/>
       <c r="C478" s="42"/>
@@ -8139,7 +8139,7 @@
       <c r="L478" s="43"/>
       <c r="M478" s="43"/>
     </row>
-    <row r="479" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:13" ht="19.5" customHeight="1">
       <c r="A479" s="41"/>
       <c r="B479" s="42"/>
       <c r="C479" s="42"/>
@@ -8154,7 +8154,7 @@
       <c r="L479" s="43"/>
       <c r="M479" s="43"/>
     </row>
-    <row r="480" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:13" ht="19.5" customHeight="1">
       <c r="A480" s="41"/>
       <c r="B480" s="42"/>
       <c r="C480" s="42"/>
@@ -8169,7 +8169,7 @@
       <c r="L480" s="43"/>
       <c r="M480" s="43"/>
     </row>
-    <row r="481" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:13" ht="19.5" customHeight="1">
       <c r="A481" s="41"/>
       <c r="B481" s="42"/>
       <c r="C481" s="42"/>
@@ -8184,7 +8184,7 @@
       <c r="L481" s="43"/>
       <c r="M481" s="43"/>
     </row>
-    <row r="482" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:13" ht="19.5" customHeight="1">
       <c r="A482" s="41"/>
       <c r="B482" s="42"/>
       <c r="C482" s="42"/>
@@ -8199,7 +8199,7 @@
       <c r="L482" s="43"/>
       <c r="M482" s="43"/>
     </row>
-    <row r="483" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:13" ht="19.5" customHeight="1">
       <c r="A483" s="41"/>
       <c r="B483" s="42"/>
       <c r="C483" s="42"/>
@@ -8214,7 +8214,7 @@
       <c r="L483" s="43"/>
       <c r="M483" s="43"/>
     </row>
-    <row r="484" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:13" ht="19.5" customHeight="1">
       <c r="A484" s="41"/>
       <c r="B484" s="42"/>
       <c r="C484" s="42"/>
@@ -8229,7 +8229,7 @@
       <c r="L484" s="43"/>
       <c r="M484" s="43"/>
     </row>
-    <row r="485" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:13" ht="19.5" customHeight="1">
       <c r="A485" s="41"/>
       <c r="B485" s="42"/>
       <c r="C485" s="42"/>
@@ -8244,7 +8244,7 @@
       <c r="L485" s="43"/>
       <c r="M485" s="43"/>
     </row>
-    <row r="486" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:13" ht="19.5" customHeight="1">
       <c r="A486" s="41"/>
       <c r="B486" s="42"/>
       <c r="C486" s="42"/>
@@ -8259,7 +8259,7 @@
       <c r="L486" s="43"/>
       <c r="M486" s="43"/>
     </row>
-    <row r="487" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:13" ht="19.5" customHeight="1">
       <c r="A487" s="41"/>
       <c r="B487" s="42"/>
       <c r="C487" s="42"/>
@@ -8274,7 +8274,7 @@
       <c r="L487" s="43"/>
       <c r="M487" s="43"/>
     </row>
-    <row r="488" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:13" ht="19.5" customHeight="1">
       <c r="A488" s="41"/>
       <c r="B488" s="42"/>
       <c r="C488" s="42"/>
@@ -8289,7 +8289,7 @@
       <c r="L488" s="43"/>
       <c r="M488" s="43"/>
     </row>
-    <row r="489" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:13" ht="19.5" customHeight="1">
       <c r="A489" s="41"/>
       <c r="B489" s="42"/>
       <c r="C489" s="42"/>
@@ -8304,7 +8304,7 @@
       <c r="L489" s="43"/>
       <c r="M489" s="43"/>
     </row>
-    <row r="490" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:13" ht="19.5" customHeight="1">
       <c r="A490" s="41"/>
       <c r="B490" s="42"/>
       <c r="C490" s="42"/>
@@ -8319,7 +8319,7 @@
       <c r="L490" s="43"/>
       <c r="M490" s="43"/>
     </row>
-    <row r="491" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:13" ht="19.5" customHeight="1">
       <c r="A491" s="41"/>
       <c r="B491" s="42"/>
       <c r="C491" s="42"/>
@@ -8334,7 +8334,7 @@
       <c r="L491" s="43"/>
       <c r="M491" s="43"/>
     </row>
-    <row r="492" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:13" ht="19.5" customHeight="1">
       <c r="A492" s="41"/>
       <c r="B492" s="42"/>
       <c r="C492" s="42"/>
@@ -8349,7 +8349,7 @@
       <c r="L492" s="43"/>
       <c r="M492" s="43"/>
     </row>
-    <row r="493" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:13" ht="19.5" customHeight="1">
       <c r="A493" s="41"/>
       <c r="B493" s="42"/>
       <c r="C493" s="42"/>
@@ -8364,7 +8364,7 @@
       <c r="L493" s="43"/>
       <c r="M493" s="43"/>
     </row>
-    <row r="494" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:13" ht="19.5" customHeight="1">
       <c r="A494" s="41"/>
       <c r="B494" s="42"/>
       <c r="C494" s="42"/>
@@ -8379,7 +8379,7 @@
       <c r="L494" s="43"/>
       <c r="M494" s="43"/>
     </row>
-    <row r="495" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:13" ht="19.5" customHeight="1">
       <c r="A495" s="41"/>
       <c r="B495" s="42"/>
       <c r="C495" s="42"/>
@@ -8394,7 +8394,7 @@
       <c r="L495" s="43"/>
       <c r="M495" s="43"/>
     </row>
-    <row r="496" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:13" ht="19.5" customHeight="1">
       <c r="A496" s="41"/>
       <c r="B496" s="42"/>
       <c r="C496" s="42"/>
@@ -8409,7 +8409,7 @@
       <c r="L496" s="43"/>
       <c r="M496" s="43"/>
     </row>
-    <row r="497" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:13" ht="19.5" customHeight="1">
       <c r="A497" s="41"/>
       <c r="B497" s="42"/>
       <c r="C497" s="42"/>
@@ -8424,7 +8424,7 @@
       <c r="L497" s="43"/>
       <c r="M497" s="43"/>
     </row>
-    <row r="498" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:13" ht="19.5" customHeight="1">
       <c r="A498" s="41"/>
       <c r="B498" s="42"/>
       <c r="C498" s="42"/>
@@ -8439,7 +8439,7 @@
       <c r="L498" s="43"/>
       <c r="M498" s="43"/>
     </row>
-    <row r="499" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:13" ht="19.5" customHeight="1">
       <c r="A499" s="41"/>
       <c r="B499" s="42"/>
       <c r="C499" s="42"/>
@@ -8454,7 +8454,7 @@
       <c r="L499" s="43"/>
       <c r="M499" s="43"/>
     </row>
-    <row r="500" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:13" ht="19.5" customHeight="1">
       <c r="A500" s="41"/>
       <c r="B500" s="42"/>
       <c r="C500" s="42"/>
@@ -8469,7 +8469,7 @@
       <c r="L500" s="43"/>
       <c r="M500" s="43"/>
     </row>
-    <row r="501" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:13" ht="19.5" customHeight="1">
       <c r="A501" s="41"/>
       <c r="B501" s="42"/>
       <c r="C501" s="42"/>
@@ -8484,7 +8484,7 @@
       <c r="L501" s="43"/>
       <c r="M501" s="43"/>
     </row>
-    <row r="502" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:13" ht="19.5" customHeight="1">
       <c r="A502" s="41"/>
       <c r="B502" s="42"/>
       <c r="C502" s="42"/>
@@ -8499,7 +8499,7 @@
       <c r="L502" s="43"/>
       <c r="M502" s="43"/>
     </row>
-    <row r="503" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:13" ht="19.5" customHeight="1">
       <c r="A503" s="41"/>
       <c r="B503" s="42"/>
       <c r="C503" s="42"/>
@@ -8514,7 +8514,7 @@
       <c r="L503" s="43"/>
       <c r="M503" s="43"/>
     </row>
-    <row r="504" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:13" ht="19.5" customHeight="1">
       <c r="A504" s="41"/>
       <c r="B504" s="42"/>
       <c r="C504" s="42"/>
@@ -8529,7 +8529,7 @@
       <c r="L504" s="43"/>
       <c r="M504" s="43"/>
     </row>
-    <row r="505" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:13" ht="19.5" customHeight="1">
       <c r="A505" s="41"/>
       <c r="B505" s="42"/>
       <c r="C505" s="42"/>
@@ -8544,7 +8544,7 @@
       <c r="L505" s="43"/>
       <c r="M505" s="43"/>
     </row>
-    <row r="506" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:13" ht="19.5" customHeight="1">
       <c r="A506" s="41"/>
       <c r="B506" s="42"/>
       <c r="C506" s="42"/>
@@ -8559,7 +8559,7 @@
       <c r="L506" s="43"/>
       <c r="M506" s="43"/>
     </row>
-    <row r="507" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:13" ht="19.5" customHeight="1">
       <c r="A507" s="41"/>
       <c r="B507" s="42"/>
       <c r="C507" s="42"/>
@@ -8574,7 +8574,7 @@
       <c r="L507" s="43"/>
       <c r="M507" s="43"/>
     </row>
-    <row r="508" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:13" ht="19.5" customHeight="1">
       <c r="A508" s="41"/>
       <c r="B508" s="42"/>
       <c r="C508" s="42"/>
@@ -8589,7 +8589,7 @@
       <c r="L508" s="43"/>
       <c r="M508" s="43"/>
     </row>
-    <row r="509" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:13" ht="19.5" customHeight="1">
       <c r="A509" s="41"/>
       <c r="B509" s="42"/>
       <c r="C509" s="42"/>
@@ -8604,7 +8604,7 @@
       <c r="L509" s="43"/>
       <c r="M509" s="43"/>
     </row>
-    <row r="510" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:13" ht="19.5" customHeight="1">
       <c r="A510" s="41"/>
       <c r="B510" s="42"/>
       <c r="C510" s="42"/>
@@ -8619,7 +8619,7 @@
       <c r="L510" s="43"/>
       <c r="M510" s="43"/>
     </row>
-    <row r="511" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:13" ht="19.5" customHeight="1">
       <c r="A511" s="41"/>
       <c r="B511" s="42"/>
       <c r="C511" s="42"/>
@@ -8634,7 +8634,7 @@
       <c r="L511" s="43"/>
       <c r="M511" s="43"/>
     </row>
-    <row r="512" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:13" ht="19.5" customHeight="1">
       <c r="A512" s="41"/>
       <c r="B512" s="42"/>
       <c r="C512" s="42"/>
@@ -8649,7 +8649,7 @@
       <c r="L512" s="43"/>
       <c r="M512" s="43"/>
     </row>
-    <row r="513" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:13" ht="19.5" customHeight="1">
       <c r="A513" s="41"/>
       <c r="B513" s="42"/>
       <c r="C513" s="42"/>
@@ -8664,7 +8664,7 @@
       <c r="L513" s="43"/>
       <c r="M513" s="43"/>
     </row>
-    <row r="514" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:13" ht="19.5" customHeight="1">
       <c r="A514" s="41"/>
       <c r="B514" s="42"/>
       <c r="C514" s="42"/>
@@ -8679,7 +8679,7 @@
       <c r="L514" s="43"/>
       <c r="M514" s="43"/>
     </row>
-    <row r="515" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:13" ht="19.5" customHeight="1">
       <c r="A515" s="41"/>
       <c r="B515" s="42"/>
       <c r="C515" s="42"/>
@@ -8694,7 +8694,7 @@
       <c r="L515" s="43"/>
       <c r="M515" s="43"/>
     </row>
-    <row r="516" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:13" ht="19.5" customHeight="1">
       <c r="A516" s="41"/>
       <c r="B516" s="42"/>
       <c r="C516" s="42"/>
@@ -8709,7 +8709,7 @@
       <c r="L516" s="43"/>
       <c r="M516" s="43"/>
     </row>
-    <row r="517" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:13" ht="19.5" customHeight="1">
       <c r="A517" s="41"/>
       <c r="B517" s="42"/>
       <c r="C517" s="42"/>
@@ -8724,7 +8724,7 @@
       <c r="L517" s="43"/>
       <c r="M517" s="43"/>
     </row>
-    <row r="518" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:13" ht="19.5" customHeight="1">
       <c r="A518" s="41"/>
       <c r="B518" s="42"/>
       <c r="C518" s="42"/>
@@ -8739,7 +8739,7 @@
       <c r="L518" s="43"/>
       <c r="M518" s="43"/>
     </row>
-    <row r="519" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:13" ht="19.5" customHeight="1">
       <c r="A519" s="41"/>
       <c r="B519" s="42"/>
       <c r="C519" s="42"/>
@@ -8754,7 +8754,7 @@
       <c r="L519" s="43"/>
       <c r="M519" s="43"/>
     </row>
-    <row r="520" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:13" ht="19.5" customHeight="1">
       <c r="A520" s="41"/>
       <c r="B520" s="42"/>
       <c r="C520" s="42"/>
@@ -8769,7 +8769,7 @@
       <c r="L520" s="43"/>
       <c r="M520" s="43"/>
     </row>
-    <row r="521" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:13" ht="19.5" customHeight="1">
       <c r="A521" s="41"/>
       <c r="B521" s="42"/>
       <c r="C521" s="42"/>
@@ -8784,7 +8784,7 @@
       <c r="L521" s="43"/>
       <c r="M521" s="43"/>
     </row>
-    <row r="522" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:13" ht="19.5" customHeight="1">
       <c r="A522" s="41"/>
       <c r="B522" s="42"/>
       <c r="C522" s="42"/>
@@ -8799,7 +8799,7 @@
       <c r="L522" s="43"/>
       <c r="M522" s="43"/>
     </row>
-    <row r="523" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:13" ht="19.5" customHeight="1">
       <c r="A523" s="41"/>
       <c r="B523" s="42"/>
       <c r="C523" s="42"/>
@@ -8814,7 +8814,7 @@
       <c r="L523" s="43"/>
       <c r="M523" s="43"/>
     </row>
-    <row r="524" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:13" ht="19.5" customHeight="1">
       <c r="A524" s="41"/>
       <c r="B524" s="42"/>
       <c r="C524" s="42"/>
@@ -8829,7 +8829,7 @@
       <c r="L524" s="43"/>
       <c r="M524" s="43"/>
     </row>
-    <row r="525" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:13" ht="19.5" customHeight="1">
       <c r="A525" s="41"/>
       <c r="B525" s="42"/>
       <c r="C525" s="42"/>
@@ -8844,7 +8844,7 @@
       <c r="L525" s="43"/>
       <c r="M525" s="43"/>
     </row>
-    <row r="526" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:13" ht="19.5" customHeight="1">
       <c r="A526" s="41"/>
       <c r="B526" s="42"/>
       <c r="C526" s="42"/>
@@ -8859,7 +8859,7 @@
       <c r="L526" s="43"/>
       <c r="M526" s="43"/>
     </row>
-    <row r="527" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:13" ht="19.5" customHeight="1">
       <c r="A527" s="41"/>
       <c r="B527" s="42"/>
       <c r="C527" s="42"/>
@@ -8874,7 +8874,7 @@
       <c r="L527" s="43"/>
       <c r="M527" s="43"/>
     </row>
-    <row r="528" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:13" ht="19.5" customHeight="1">
       <c r="A528" s="41"/>
       <c r="B528" s="42"/>
       <c r="C528" s="42"/>
@@ -8889,7 +8889,7 @@
       <c r="L528" s="43"/>
       <c r="M528" s="43"/>
     </row>
-    <row r="529" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:13" ht="19.5" customHeight="1">
       <c r="A529" s="41"/>
       <c r="B529" s="42"/>
       <c r="C529" s="42"/>
@@ -8904,7 +8904,7 @@
       <c r="L529" s="43"/>
       <c r="M529" s="43"/>
     </row>
-    <row r="530" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:13" ht="19.5" customHeight="1">
       <c r="A530" s="41"/>
       <c r="B530" s="42"/>
       <c r="C530" s="42"/>
@@ -8919,7 +8919,7 @@
       <c r="L530" s="43"/>
       <c r="M530" s="43"/>
     </row>
-    <row r="531" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:13" ht="19.5" customHeight="1">
       <c r="A531" s="41"/>
       <c r="B531" s="42"/>
       <c r="C531" s="42"/>
@@ -8934,7 +8934,7 @@
       <c r="L531" s="43"/>
       <c r="M531" s="43"/>
     </row>
-    <row r="532" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:13" ht="19.5" customHeight="1">
       <c r="A532" s="41"/>
       <c r="B532" s="42"/>
       <c r="C532" s="42"/>
@@ -8949,7 +8949,7 @@
       <c r="L532" s="43"/>
       <c r="M532" s="43"/>
     </row>
-    <row r="533" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:13" ht="19.5" customHeight="1">
       <c r="A533" s="41"/>
       <c r="B533" s="42"/>
       <c r="C533" s="42"/>
@@ -8964,7 +8964,7 @@
       <c r="L533" s="43"/>
       <c r="M533" s="43"/>
     </row>
-    <row r="534" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:13" ht="19.5" customHeight="1">
       <c r="A534" s="41"/>
       <c r="B534" s="42"/>
       <c r="C534" s="42"/>
@@ -8979,7 +8979,7 @@
       <c r="L534" s="43"/>
       <c r="M534" s="43"/>
     </row>
-    <row r="535" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:13" ht="19.5" customHeight="1">
       <c r="A535" s="41"/>
       <c r="B535" s="42"/>
       <c r="C535" s="42"/>
@@ -8994,7 +8994,7 @@
       <c r="L535" s="43"/>
       <c r="M535" s="43"/>
     </row>
-    <row r="536" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:13" ht="19.5" customHeight="1">
       <c r="A536" s="41"/>
       <c r="B536" s="42"/>
       <c r="C536" s="42"/>
@@ -9009,7 +9009,7 @@
       <c r="L536" s="43"/>
       <c r="M536" s="43"/>
     </row>
-    <row r="537" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:13" ht="19.5" customHeight="1">
       <c r="A537" s="41"/>
       <c r="B537" s="42"/>
       <c r="C537" s="42"/>
@@ -9024,7 +9024,7 @@
       <c r="L537" s="43"/>
       <c r="M537" s="43"/>
     </row>
-    <row r="538" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:13" ht="19.5" customHeight="1">
       <c r="A538" s="41"/>
       <c r="B538" s="42"/>
       <c r="C538" s="42"/>
@@ -9039,7 +9039,7 @@
       <c r="L538" s="43"/>
       <c r="M538" s="43"/>
     </row>
-    <row r="539" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:13" ht="19.5" customHeight="1">
       <c r="A539" s="41"/>
       <c r="B539" s="42"/>
       <c r="C539" s="42"/>
@@ -9054,7 +9054,7 @@
       <c r="L539" s="43"/>
       <c r="M539" s="43"/>
     </row>
-    <row r="540" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:13" ht="19.5" customHeight="1">
       <c r="A540" s="41"/>
       <c r="B540" s="42"/>
       <c r="C540" s="42"/>
@@ -9069,7 +9069,7 @@
       <c r="L540" s="43"/>
       <c r="M540" s="43"/>
     </row>
-    <row r="541" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:13" ht="19.5" customHeight="1">
       <c r="A541" s="41"/>
       <c r="B541" s="42"/>
       <c r="C541" s="42"/>
@@ -9084,7 +9084,7 @@
       <c r="L541" s="43"/>
       <c r="M541" s="43"/>
     </row>
-    <row r="542" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:13" ht="19.5" customHeight="1">
       <c r="A542" s="41"/>
       <c r="B542" s="42"/>
       <c r="C542" s="42"/>
@@ -9099,7 +9099,7 @@
       <c r="L542" s="43"/>
       <c r="M542" s="43"/>
     </row>
-    <row r="543" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:13" ht="19.5" customHeight="1">
       <c r="A543" s="41"/>
       <c r="B543" s="42"/>
       <c r="C543" s="42"/>
@@ -9114,7 +9114,7 @@
       <c r="L543" s="43"/>
       <c r="M543" s="43"/>
     </row>
-    <row r="544" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:13" ht="19.5" customHeight="1">
       <c r="A544" s="41"/>
       <c r="B544" s="42"/>
       <c r="C544" s="42"/>
@@ -9129,7 +9129,7 @@
       <c r="L544" s="43"/>
       <c r="M544" s="43"/>
     </row>
-    <row r="545" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:13" ht="19.5" customHeight="1">
       <c r="A545" s="41"/>
       <c r="B545" s="42"/>
       <c r="C545" s="42"/>
@@ -9144,7 +9144,7 @@
       <c r="L545" s="43"/>
       <c r="M545" s="43"/>
     </row>
-    <row r="546" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:13" ht="19.5" customHeight="1">
       <c r="A546" s="41"/>
       <c r="B546" s="42"/>
       <c r="C546" s="42"/>
@@ -9159,7 +9159,7 @@
       <c r="L546" s="43"/>
       <c r="M546" s="43"/>
     </row>
-    <row r="547" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:13" ht="19.5" customHeight="1">
       <c r="A547" s="41"/>
       <c r="B547" s="42"/>
       <c r="C547" s="42"/>
@@ -9174,7 +9174,7 @@
       <c r="L547" s="43"/>
       <c r="M547" s="43"/>
     </row>
-    <row r="548" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:13" ht="19.5" customHeight="1">
       <c r="A548" s="41"/>
       <c r="B548" s="42"/>
       <c r="C548" s="42"/>
@@ -9189,7 +9189,7 @@
       <c r="L548" s="43"/>
       <c r="M548" s="43"/>
     </row>
-    <row r="549" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:13" ht="19.5" customHeight="1">
       <c r="A549" s="41"/>
       <c r="B549" s="42"/>
       <c r="C549" s="42"/>
@@ -9204,7 +9204,7 @@
       <c r="L549" s="43"/>
       <c r="M549" s="43"/>
     </row>
-    <row r="550" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:13" ht="19.5" customHeight="1">
       <c r="A550" s="41"/>
       <c r="B550" s="42"/>
       <c r="C550" s="42"/>
@@ -9219,7 +9219,7 @@
       <c r="L550" s="43"/>
       <c r="M550" s="43"/>
     </row>
-    <row r="551" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:13" ht="19.5" customHeight="1">
       <c r="A551" s="41"/>
       <c r="B551" s="42"/>
       <c r="C551" s="42"/>
@@ -9234,7 +9234,7 @@
       <c r="L551" s="43"/>
       <c r="M551" s="43"/>
     </row>
-    <row r="552" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:13" ht="19.5" customHeight="1">
       <c r="A552" s="41"/>
       <c r="B552" s="42"/>
       <c r="C552" s="42"/>
@@ -9249,7 +9249,7 @@
       <c r="L552" s="43"/>
       <c r="M552" s="43"/>
     </row>
-    <row r="553" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:13" ht="19.5" customHeight="1">
       <c r="A553" s="41"/>
       <c r="B553" s="42"/>
       <c r="C553" s="42"/>
@@ -9264,7 +9264,7 @@
       <c r="L553" s="43"/>
       <c r="M553" s="43"/>
     </row>
-    <row r="554" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:13" ht="19.5" customHeight="1">
       <c r="A554" s="41"/>
       <c r="B554" s="42"/>
       <c r="C554" s="42"/>
@@ -9279,7 +9279,7 @@
       <c r="L554" s="43"/>
       <c r="M554" s="43"/>
     </row>
-    <row r="555" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:13" ht="19.5" customHeight="1">
       <c r="A555" s="41"/>
       <c r="B555" s="42"/>
       <c r="C555" s="42"/>
@@ -9294,7 +9294,7 @@
       <c r="L555" s="43"/>
       <c r="M555" s="43"/>
     </row>
-    <row r="556" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:13" ht="19.5" customHeight="1">
       <c r="A556" s="41"/>
       <c r="B556" s="42"/>
       <c r="C556" s="42"/>
@@ -9309,7 +9309,7 @@
       <c r="L556" s="43"/>
       <c r="M556" s="43"/>
     </row>
-    <row r="557" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:13" ht="19.5" customHeight="1">
       <c r="A557" s="41"/>
       <c r="B557" s="42"/>
       <c r="C557" s="42"/>
@@ -9324,7 +9324,7 @@
       <c r="L557" s="43"/>
       <c r="M557" s="43"/>
     </row>
-    <row r="558" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:13" ht="19.5" customHeight="1">
       <c r="A558" s="41"/>
       <c r="B558" s="42"/>
       <c r="C558" s="42"/>
@@ -9339,7 +9339,7 @@
       <c r="L558" s="43"/>
       <c r="M558" s="43"/>
     </row>
-    <row r="559" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:13" ht="19.5" customHeight="1">
       <c r="A559" s="41"/>
       <c r="B559" s="42"/>
       <c r="C559" s="42"/>
@@ -9354,7 +9354,7 @@
       <c r="L559" s="43"/>
       <c r="M559" s="43"/>
     </row>
-    <row r="560" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:13" ht="19.5" customHeight="1">
       <c r="A560" s="41"/>
       <c r="B560" s="42"/>
       <c r="C560" s="42"/>
@@ -9369,7 +9369,7 @@
       <c r="L560" s="43"/>
       <c r="M560" s="43"/>
     </row>
-    <row r="561" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:13" ht="19.5" customHeight="1">
       <c r="A561" s="41"/>
       <c r="B561" s="42"/>
       <c r="C561" s="42"/>
@@ -9384,7 +9384,7 @@
       <c r="L561" s="43"/>
       <c r="M561" s="43"/>
     </row>
-    <row r="562" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:13" ht="19.5" customHeight="1">
       <c r="A562" s="41"/>
       <c r="B562" s="42"/>
       <c r="C562" s="42"/>
@@ -9399,7 +9399,7 @@
       <c r="L562" s="43"/>
       <c r="M562" s="43"/>
     </row>
-    <row r="563" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:13" ht="19.5" customHeight="1">
       <c r="A563" s="41"/>
       <c r="B563" s="42"/>
       <c r="C563" s="42"/>
@@ -9414,7 +9414,7 @@
       <c r="L563" s="43"/>
       <c r="M563" s="43"/>
     </row>
-    <row r="564" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:13" ht="19.5" customHeight="1">
       <c r="A564" s="41"/>
       <c r="B564" s="42"/>
       <c r="C564" s="42"/>
@@ -9429,7 +9429,7 @@
       <c r="L564" s="43"/>
       <c r="M564" s="43"/>
     </row>
-    <row r="565" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:13" ht="19.5" customHeight="1">
       <c r="A565" s="41"/>
       <c r="B565" s="42"/>
       <c r="C565" s="42"/>
@@ -9444,7 +9444,7 @@
       <c r="L565" s="43"/>
       <c r="M565" s="43"/>
     </row>
-    <row r="566" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:13" ht="19.5" customHeight="1">
       <c r="A566" s="41"/>
       <c r="B566" s="42"/>
       <c r="C566" s="42"/>
@@ -9459,7 +9459,7 @@
       <c r="L566" s="43"/>
       <c r="M566" s="43"/>
     </row>
-    <row r="567" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:13" ht="19.5" customHeight="1">
       <c r="A567" s="41"/>
       <c r="B567" s="42"/>
       <c r="C567" s="42"/>
@@ -9474,7 +9474,7 @@
       <c r="L567" s="43"/>
       <c r="M567" s="43"/>
     </row>
-    <row r="568" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:13" ht="19.5" customHeight="1">
       <c r="A568" s="41"/>
       <c r="B568" s="42"/>
       <c r="C568" s="42"/>
@@ -9489,7 +9489,7 @@
       <c r="L568" s="43"/>
       <c r="M568" s="43"/>
     </row>
-    <row r="569" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:13" ht="19.5" customHeight="1">
       <c r="A569" s="41"/>
       <c r="B569" s="42"/>
       <c r="C569" s="42"/>
@@ -9504,7 +9504,7 @@
       <c r="L569" s="43"/>
       <c r="M569" s="43"/>
     </row>
-    <row r="570" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:13" ht="19.5" customHeight="1">
       <c r="A570" s="41"/>
       <c r="B570" s="42"/>
       <c r="C570" s="42"/>
@@ -9519,7 +9519,7 @@
       <c r="L570" s="43"/>
       <c r="M570" s="43"/>
     </row>
-    <row r="571" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:13" ht="19.5" customHeight="1">
       <c r="A571" s="41"/>
       <c r="B571" s="42"/>
       <c r="C571" s="42"/>
@@ -9534,7 +9534,7 @@
       <c r="L571" s="43"/>
       <c r="M571" s="43"/>
     </row>
-    <row r="572" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:13" ht="19.5" customHeight="1">
       <c r="A572" s="41"/>
       <c r="B572" s="42"/>
       <c r="C572" s="42"/>
@@ -9549,7 +9549,7 @@
       <c r="L572" s="43"/>
       <c r="M572" s="43"/>
     </row>
-    <row r="573" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:13" ht="19.5" customHeight="1">
       <c r="A573" s="41"/>
       <c r="B573" s="42"/>
       <c r="C573" s="42"/>
@@ -9564,7 +9564,7 @@
       <c r="L573" s="43"/>
       <c r="M573" s="43"/>
     </row>
-    <row r="574" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:13" ht="19.5" customHeight="1">
       <c r="A574" s="41"/>
       <c r="B574" s="42"/>
       <c r="C574" s="42"/>
@@ -9579,7 +9579,7 @@
       <c r="L574" s="43"/>
       <c r="M574" s="43"/>
     </row>
-    <row r="575" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:13" ht="19.5" customHeight="1">
       <c r="A575" s="41"/>
       <c r="B575" s="42"/>
       <c r="C575" s="42"/>
@@ -9594,7 +9594,7 @@
       <c r="L575" s="43"/>
       <c r="M575" s="43"/>
     </row>
-    <row r="576" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:13" ht="19.5" customHeight="1">
       <c r="A576" s="41"/>
       <c r="B576" s="42"/>
       <c r="C576" s="42"/>
@@ -9609,7 +9609,7 @@
       <c r="L576" s="43"/>
       <c r="M576" s="43"/>
     </row>
-    <row r="577" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:13" ht="19.5" customHeight="1">
       <c r="A577" s="41"/>
       <c r="B577" s="42"/>
       <c r="C577" s="42"/>
@@ -9624,7 +9624,7 @@
       <c r="L577" s="43"/>
       <c r="M577" s="43"/>
     </row>
-    <row r="578" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:13" ht="19.5" customHeight="1">
       <c r="A578" s="41"/>
       <c r="B578" s="42"/>
       <c r="C578" s="42"/>
@@ -9639,7 +9639,7 @@
       <c r="L578" s="43"/>
       <c r="M578" s="43"/>
     </row>
-    <row r="579" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:13" ht="19.5" customHeight="1">
       <c r="A579" s="41"/>
       <c r="B579" s="42"/>
       <c r="C579" s="42"/>
@@ -9654,7 +9654,7 @@
       <c r="L579" s="43"/>
       <c r="M579" s="43"/>
     </row>
-    <row r="580" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:13" ht="19.5" customHeight="1">
       <c r="A580" s="41"/>
       <c r="B580" s="42"/>
       <c r="C580" s="42"/>
@@ -9669,7 +9669,7 @@
       <c r="L580" s="43"/>
       <c r="M580" s="43"/>
     </row>
-    <row r="581" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:13" ht="19.5" customHeight="1">
       <c r="A581" s="41"/>
       <c r="B581" s="42"/>
       <c r="C581" s="42"/>
@@ -9684,7 +9684,7 @@
       <c r="L581" s="43"/>
       <c r="M581" s="43"/>
     </row>
-    <row r="582" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:13" ht="19.5" customHeight="1">
       <c r="A582" s="41"/>
       <c r="B582" s="42"/>
       <c r="C582" s="42"/>
@@ -9699,7 +9699,7 @@
       <c r="L582" s="43"/>
       <c r="M582" s="43"/>
     </row>
-    <row r="583" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:13" ht="19.5" customHeight="1">
       <c r="A583" s="41"/>
       <c r="B583" s="42"/>
       <c r="C583" s="42"/>
@@ -9714,7 +9714,7 @@
       <c r="L583" s="43"/>
       <c r="M583" s="43"/>
     </row>
-    <row r="584" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:13" ht="19.5" customHeight="1">
       <c r="A584" s="41"/>
       <c r="B584" s="42"/>
       <c r="C584" s="42"/>
@@ -9729,7 +9729,7 @@
       <c r="L584" s="43"/>
       <c r="M584" s="43"/>
     </row>
-    <row r="585" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:13" ht="19.5" customHeight="1">
       <c r="A585" s="41"/>
       <c r="B585" s="42"/>
       <c r="C585" s="42"/>
@@ -9744,7 +9744,7 @@
       <c r="L585" s="43"/>
       <c r="M585" s="43"/>
     </row>
-    <row r="586" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:13" ht="19.5" customHeight="1">
       <c r="A586" s="41"/>
       <c r="B586" s="42"/>
       <c r="C586" s="42"/>
@@ -9759,7 +9759,7 @@
       <c r="L586" s="43"/>
       <c r="M586" s="43"/>
     </row>
-    <row r="587" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:13" ht="19.5" customHeight="1">
       <c r="A587" s="41"/>
       <c r="B587" s="42"/>
       <c r="C587" s="42"/>
@@ -9774,7 +9774,7 @@
       <c r="L587" s="43"/>
       <c r="M587" s="43"/>
     </row>
-    <row r="588" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:13" ht="19.5" customHeight="1">
       <c r="A588" s="41"/>
       <c r="B588" s="42"/>
       <c r="C588" s="42"/>
@@ -9789,7 +9789,7 @@
       <c r="L588" s="43"/>
       <c r="M588" s="43"/>
     </row>
-    <row r="589" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:13" ht="19.5" customHeight="1">
       <c r="A589" s="41"/>
       <c r="B589" s="42"/>
       <c r="C589" s="42"/>
@@ -9804,7 +9804,7 @@
       <c r="L589" s="43"/>
       <c r="M589" s="43"/>
     </row>
-    <row r="590" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:13" ht="19.5" customHeight="1">
       <c r="A590" s="41"/>
       <c r="B590" s="42"/>
       <c r="C590" s="42"/>
@@ -9819,7 +9819,7 @@
       <c r="L590" s="43"/>
       <c r="M590" s="43"/>
     </row>
-    <row r="591" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:13" ht="19.5" customHeight="1">
       <c r="A591" s="41"/>
       <c r="B591" s="42"/>
       <c r="C591" s="42"/>
@@ -9834,7 +9834,7 @@
       <c r="L591" s="43"/>
       <c r="M591" s="43"/>
     </row>
-    <row r="592" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:13" ht="19.5" customHeight="1">
       <c r="A592" s="41"/>
       <c r="B592" s="42"/>
       <c r="C592" s="42"/>
@@ -9849,7 +9849,7 @@
       <c r="L592" s="43"/>
       <c r="M592" s="43"/>
     </row>
-    <row r="593" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:13" ht="19.5" customHeight="1">
       <c r="A593" s="41"/>
       <c r="B593" s="42"/>
       <c r="C593" s="42"/>
@@ -9864,7 +9864,7 @@
       <c r="L593" s="43"/>
       <c r="M593" s="43"/>
     </row>
-    <row r="594" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:13" ht="19.5" customHeight="1">
       <c r="A594" s="41"/>
       <c r="B594" s="42"/>
       <c r="C594" s="42"/>
@@ -9879,7 +9879,7 @@
       <c r="L594" s="43"/>
       <c r="M594" s="43"/>
     </row>
-    <row r="595" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:13" ht="19.5" customHeight="1">
       <c r="A595" s="41"/>
       <c r="B595" s="42"/>
       <c r="C595" s="42"/>
@@ -9894,7 +9894,7 @@
       <c r="L595" s="43"/>
       <c r="M595" s="43"/>
     </row>
-    <row r="596" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:13" ht="19.5" customHeight="1">
       <c r="A596" s="41"/>
       <c r="B596" s="42"/>
       <c r="C596" s="42"/>
@@ -9909,7 +9909,7 @@
       <c r="L596" s="43"/>
       <c r="M596" s="43"/>
     </row>
-    <row r="597" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:13" ht="19.5" customHeight="1">
       <c r="A597" s="41"/>
       <c r="B597" s="42"/>
       <c r="C597" s="42"/>
@@ -9924,7 +9924,7 @@
       <c r="L597" s="43"/>
       <c r="M597" s="43"/>
     </row>
-    <row r="598" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:13" ht="19.5" customHeight="1">
       <c r="A598" s="41"/>
       <c r="B598" s="42"/>
       <c r="C598" s="42"/>
@@ -9939,7 +9939,7 @@
       <c r="L598" s="43"/>
       <c r="M598" s="43"/>
     </row>
-    <row r="599" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:13" ht="19.5" customHeight="1">
       <c r="A599" s="41"/>
       <c r="B599" s="42"/>
       <c r="C599" s="42"/>
@@ -9954,7 +9954,7 @@
       <c r="L599" s="43"/>
       <c r="M599" s="43"/>
     </row>
-    <row r="600" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:13" ht="19.5" customHeight="1">
       <c r="A600" s="41"/>
       <c r="B600" s="42"/>
       <c r="C600" s="42"/>
@@ -9969,7 +9969,7 @@
       <c r="L600" s="43"/>
       <c r="M600" s="43"/>
     </row>
-    <row r="601" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:13" ht="19.5" customHeight="1">
       <c r="A601" s="41"/>
       <c r="B601" s="42"/>
       <c r="C601" s="42"/>
@@ -9984,7 +9984,7 @@
       <c r="L601" s="43"/>
       <c r="M601" s="43"/>
     </row>
-    <row r="602" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:13" ht="19.5" customHeight="1">
       <c r="A602" s="41"/>
       <c r="B602" s="42"/>
       <c r="C602" s="42"/>
@@ -9999,7 +9999,7 @@
       <c r="L602" s="43"/>
       <c r="M602" s="43"/>
     </row>
-    <row r="603" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:13" ht="19.5" customHeight="1">
       <c r="A603" s="41"/>
       <c r="B603" s="42"/>
       <c r="C603" s="42"/>
@@ -10014,7 +10014,7 @@
       <c r="L603" s="43"/>
       <c r="M603" s="43"/>
     </row>
-    <row r="604" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:13" ht="19.5" customHeight="1">
       <c r="A604" s="41"/>
       <c r="B604" s="42"/>
       <c r="C604" s="42"/>
@@ -10029,7 +10029,7 @@
       <c r="L604" s="43"/>
       <c r="M604" s="43"/>
     </row>
-    <row r="605" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:13" ht="19.5" customHeight="1">
       <c r="A605" s="41"/>
       <c r="B605" s="42"/>
       <c r="C605" s="42"/>
@@ -10044,7 +10044,7 @@
       <c r="L605" s="43"/>
       <c r="M605" s="43"/>
     </row>
-    <row r="606" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:13" ht="19.5" customHeight="1">
       <c r="A606" s="41"/>
       <c r="B606" s="42"/>
       <c r="C606" s="42"/>
@@ -10059,7 +10059,7 @@
       <c r="L606" s="43"/>
       <c r="M606" s="43"/>
     </row>
-    <row r="607" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:13" ht="19.5" customHeight="1">
       <c r="A607" s="41"/>
       <c r="B607" s="42"/>
       <c r="C607" s="42"/>
@@ -10074,7 +10074,7 @@
       <c r="L607" s="43"/>
       <c r="M607" s="43"/>
     </row>
-    <row r="608" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:13" ht="19.5" customHeight="1">
       <c r="A608" s="41"/>
       <c r="B608" s="42"/>
       <c r="C608" s="42"/>
@@ -10089,7 +10089,7 @@
       <c r="L608" s="43"/>
       <c r="M608" s="43"/>
     </row>
-    <row r="609" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:13" ht="19.5" customHeight="1">
       <c r="A609" s="41"/>
       <c r="B609" s="42"/>
       <c r="C609" s="42"/>
@@ -10104,7 +10104,7 @@
       <c r="L609" s="43"/>
       <c r="M609" s="43"/>
     </row>
-    <row r="610" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:13" ht="19.5" customHeight="1">
       <c r="A610" s="41"/>
       <c r="B610" s="42"/>
       <c r="C610" s="42"/>
@@ -10119,7 +10119,7 @@
       <c r="L610" s="43"/>
       <c r="M610" s="43"/>
     </row>
-    <row r="611" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:13" ht="19.5" customHeight="1">
       <c r="A611" s="41"/>
       <c r="B611" s="42"/>
       <c r="C611" s="42"/>
@@ -10134,7 +10134,7 @@
       <c r="L611" s="43"/>
       <c r="M611" s="43"/>
     </row>
-    <row r="612" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:13" ht="19.5" customHeight="1">
       <c r="A612" s="41"/>
       <c r="B612" s="42"/>
       <c r="C612" s="42"/>
@@ -10149,7 +10149,7 @@
       <c r="L612" s="43"/>
       <c r="M612" s="43"/>
     </row>
-    <row r="613" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:13" ht="19.5" customHeight="1">
       <c r="A613" s="41"/>
       <c r="B613" s="42"/>
       <c r="C613" s="42"/>
@@ -10164,7 +10164,7 @@
       <c r="L613" s="43"/>
       <c r="M613" s="43"/>
     </row>
-    <row r="614" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:13" ht="19.5" customHeight="1">
       <c r="A614" s="41"/>
       <c r="B614" s="42"/>
       <c r="C614" s="42"/>
@@ -10179,7 +10179,7 @@
       <c r="L614" s="43"/>
       <c r="M614" s="43"/>
     </row>
-    <row r="615" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:13" ht="19.5" customHeight="1">
       <c r="A615" s="41"/>
       <c r="B615" s="42"/>
       <c r="C615" s="42"/>
@@ -10194,7 +10194,7 @@
       <c r="L615" s="43"/>
       <c r="M615" s="43"/>
     </row>
-    <row r="616" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:13" ht="19.5" customHeight="1">
       <c r="A616" s="41"/>
       <c r="B616" s="42"/>
       <c r="C616" s="42"/>
@@ -10209,7 +10209,7 @@
       <c r="L616" s="43"/>
       <c r="M616" s="43"/>
     </row>
-    <row r="617" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:13" ht="19.5" customHeight="1">
       <c r="A617" s="41"/>
       <c r="B617" s="42"/>
       <c r="C617" s="42"/>
@@ -10224,7 +10224,7 @@
       <c r="L617" s="43"/>
       <c r="M617" s="43"/>
     </row>
-    <row r="618" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:13" ht="19.5" customHeight="1">
       <c r="A618" s="41"/>
       <c r="B618" s="42"/>
       <c r="C618" s="42"/>
@@ -10239,7 +10239,7 @@
       <c r="L618" s="43"/>
       <c r="M618" s="43"/>
     </row>
-    <row r="619" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:13" ht="19.5" customHeight="1">
       <c r="A619" s="41"/>
       <c r="B619" s="42"/>
       <c r="C619" s="42"/>
@@ -10254,7 +10254,7 @@
       <c r="L619" s="43"/>
       <c r="M619" s="43"/>
     </row>
-    <row r="620" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:13" ht="19.5" customHeight="1">
       <c r="A620" s="41"/>
       <c r="B620" s="42"/>
       <c r="C620" s="42"/>
@@ -10269,7 +10269,7 @@
       <c r="L620" s="43"/>
       <c r="M620" s="43"/>
     </row>
-    <row r="621" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:13" ht="19.5" customHeight="1">
       <c r="A621" s="41"/>
       <c r="B621" s="42"/>
       <c r="C621" s="42"/>
@@ -10284,7 +10284,7 @@
       <c r="L621" s="43"/>
       <c r="M621" s="43"/>
     </row>
-    <row r="622" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:13" ht="19.5" customHeight="1">
       <c r="A622" s="41"/>
       <c r="B622" s="42"/>
       <c r="C622" s="42"/>
@@ -10299,7 +10299,7 @@
       <c r="L622" s="43"/>
       <c r="M622" s="43"/>
     </row>
-    <row r="623" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:13" ht="19.5" customHeight="1">
       <c r="A623" s="41"/>
       <c r="B623" s="42"/>
       <c r="C623" s="42"/>
@@ -10314,7 +10314,7 @@
       <c r="L623" s="43"/>
       <c r="M623" s="43"/>
     </row>
-    <row r="624" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:13" ht="19.5" customHeight="1">
       <c r="A624" s="41"/>
       <c r="B624" s="42"/>
       <c r="C624" s="42"/>
@@ -10329,7 +10329,7 @@
       <c r="L624" s="43"/>
       <c r="M624" s="43"/>
     </row>
-    <row r="625" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:13" ht="19.5" customHeight="1">
       <c r="A625" s="41"/>
       <c r="B625" s="42"/>
       <c r="C625" s="42"/>
@@ -10344,7 +10344,7 @@
       <c r="L625" s="43"/>
       <c r="M625" s="43"/>
     </row>
-    <row r="626" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:13" ht="19.5" customHeight="1">
       <c r="A626" s="41"/>
       <c r="B626" s="42"/>
       <c r="C626" s="42"/>
@@ -10359,7 +10359,7 @@
       <c r="L626" s="43"/>
       <c r="M626" s="43"/>
     </row>
-    <row r="627" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:13" ht="19.5" customHeight="1">
       <c r="A627" s="41"/>
       <c r="B627" s="42"/>
       <c r="C627" s="42"/>
@@ -10374,7 +10374,7 @@
       <c r="L627" s="43"/>
       <c r="M627" s="43"/>
     </row>
-    <row r="628" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:13" ht="19.5" customHeight="1">
       <c r="A628" s="41"/>
       <c r="B628" s="42"/>
       <c r="C628" s="42"/>
@@ -10389,7 +10389,7 @@
       <c r="L628" s="43"/>
       <c r="M628" s="43"/>
     </row>
-    <row r="629" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:13" ht="19.5" customHeight="1">
       <c r="A629" s="41"/>
       <c r="B629" s="42"/>
       <c r="C629" s="42"/>
@@ -10404,7 +10404,7 @@
       <c r="L629" s="43"/>
       <c r="M629" s="43"/>
     </row>
-    <row r="630" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:13" ht="19.5" customHeight="1">
       <c r="A630" s="41"/>
       <c r="B630" s="42"/>
       <c r="C630" s="42"/>
@@ -10419,7 +10419,7 @@
       <c r="L630" s="43"/>
       <c r="M630" s="43"/>
     </row>
-    <row r="631" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:13" ht="19.5" customHeight="1">
       <c r="A631" s="41"/>
       <c r="B631" s="42"/>
       <c r="C631" s="42"/>
@@ -10434,7 +10434,7 @@
       <c r="L631" s="43"/>
       <c r="M631" s="43"/>
     </row>
-    <row r="632" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:13" ht="19.5" customHeight="1">
       <c r="A632" s="41"/>
       <c r="B632" s="42"/>
       <c r="C632" s="42"/>
@@ -10449,7 +10449,7 @@
       <c r="L632" s="43"/>
       <c r="M632" s="43"/>
     </row>
-    <row r="633" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:13" ht="19.5" customHeight="1">
       <c r="A633" s="41"/>
       <c r="B633" s="42"/>
       <c r="C633" s="42"/>
@@ -10464,7 +10464,7 @@
       <c r="L633" s="43"/>
       <c r="M633" s="43"/>
     </row>
-    <row r="634" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:13" ht="19.5" customHeight="1">
       <c r="A634" s="41"/>
       <c r="B634" s="42"/>
       <c r="C634" s="42"/>
@@ -10479,7 +10479,7 @@
       <c r="L634" s="43"/>
       <c r="M634" s="43"/>
     </row>
-    <row r="635" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:13" ht="19.5" customHeight="1">
       <c r="A635" s="41"/>
       <c r="B635" s="42"/>
       <c r="C635" s="42"/>
@@ -10494,7 +10494,7 @@
       <c r="L635" s="43"/>
       <c r="M635" s="43"/>
     </row>
-    <row r="636" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:13" ht="19.5" customHeight="1">
       <c r="A636" s="41"/>
       <c r="B636" s="42"/>
       <c r="C636" s="42"/>
@@ -10509,7 +10509,7 @@
       <c r="L636" s="43"/>
       <c r="M636" s="43"/>
     </row>
-    <row r="637" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:13" ht="19.5" customHeight="1">
       <c r="A637" s="41"/>
       <c r="B637" s="42"/>
       <c r="C637" s="42"/>
@@ -10524,7 +10524,7 @@
       <c r="L637" s="43"/>
       <c r="M637" s="43"/>
     </row>
-    <row r="638" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:13" ht="19.5" customHeight="1">
       <c r="A638" s="41"/>
       <c r="B638" s="42"/>
       <c r="C638" s="42"/>
@@ -10539,7 +10539,7 @@
       <c r="L638" s="43"/>
       <c r="M638" s="43"/>
     </row>
-    <row r="639" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:13" ht="19.5" customHeight="1">
       <c r="A639" s="41"/>
       <c r="B639" s="42"/>
       <c r="C639" s="42"/>
@@ -10554,7 +10554,7 @@
       <c r="L639" s="43"/>
       <c r="M639" s="43"/>
     </row>
-    <row r="640" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:13" ht="19.5" customHeight="1">
       <c r="A640" s="41"/>
       <c r="B640" s="42"/>
       <c r="C640" s="42"/>
@@ -10569,7 +10569,7 @@
       <c r="L640" s="43"/>
       <c r="M640" s="43"/>
     </row>
-    <row r="641" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:13" ht="19.5" customHeight="1">
       <c r="A641" s="41"/>
       <c r="B641" s="42"/>
       <c r="C641" s="42"/>
@@ -10584,7 +10584,7 @@
       <c r="L641" s="43"/>
       <c r="M641" s="43"/>
     </row>
-    <row r="642" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:13" ht="19.5" customHeight="1">
       <c r="A642" s="41"/>
       <c r="B642" s="42"/>
       <c r="C642" s="42"/>
@@ -10599,7 +10599,7 @@
       <c r="L642" s="43"/>
       <c r="M642" s="43"/>
     </row>
-    <row r="643" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:13" ht="19.5" customHeight="1">
       <c r="A643" s="41"/>
       <c r="B643" s="42"/>
       <c r="C643" s="42"/>
@@ -10614,7 +10614,7 @@
       <c r="L643" s="43"/>
       <c r="M643" s="43"/>
     </row>
-    <row r="644" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:13" ht="19.5" customHeight="1">
       <c r="A644" s="41"/>
       <c r="B644" s="42"/>
       <c r="C644" s="42"/>
@@ -10629,7 +10629,7 @@
       <c r="L644" s="43"/>
       <c r="M644" s="43"/>
     </row>
-    <row r="645" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:13" ht="19.5" customHeight="1">
       <c r="A645" s="41"/>
       <c r="B645" s="42"/>
       <c r="C645" s="42"/>
@@ -10644,7 +10644,7 @@
       <c r="L645" s="43"/>
       <c r="M645" s="43"/>
     </row>
-    <row r="646" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:13" ht="19.5" customHeight="1">
       <c r="A646" s="41"/>
       <c r="B646" s="42"/>
       <c r="C646" s="42"/>
@@ -10659,7 +10659,7 @@
       <c r="L646" s="43"/>
       <c r="M646" s="43"/>
     </row>
-    <row r="647" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:13" ht="19.5" customHeight="1">
       <c r="A647" s="41"/>
       <c r="B647" s="42"/>
       <c r="C647" s="42"/>
@@ -10674,7 +10674,7 @@
       <c r="L647" s="43"/>
       <c r="M647" s="43"/>
     </row>
-    <row r="648" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:13" ht="19.5" customHeight="1">
       <c r="A648" s="41"/>
       <c r="B648" s="42"/>
       <c r="C648" s="42"/>
@@ -10689,7 +10689,7 @@
       <c r="L648" s="43"/>
       <c r="M648" s="43"/>
     </row>
-    <row r="649" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:13" ht="19.5" customHeight="1">
       <c r="A649" s="41"/>
       <c r="B649" s="42"/>
       <c r="C649" s="42"/>
@@ -10704,7 +10704,7 @@
       <c r="L649" s="43"/>
       <c r="M649" s="43"/>
     </row>
-    <row r="650" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:13" ht="19.5" customHeight="1">
       <c r="A650" s="41"/>
       <c r="B650" s="42"/>
       <c r="C650" s="42"/>
@@ -10719,7 +10719,7 @@
       <c r="L650" s="43"/>
       <c r="M650" s="43"/>
     </row>
-    <row r="651" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:13" ht="19.5" customHeight="1">
       <c r="A651" s="41"/>
       <c r="B651" s="42"/>
       <c r="C651" s="42"/>
@@ -10734,7 +10734,7 @@
       <c r="L651" s="43"/>
       <c r="M651" s="43"/>
     </row>
-    <row r="652" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:13" ht="19.5" customHeight="1">
       <c r="A652" s="41"/>
       <c r="B652" s="42"/>
       <c r="C652" s="42"/>
@@ -10749,7 +10749,7 @@
       <c r="L652" s="43"/>
       <c r="M652" s="43"/>
     </row>
-    <row r="653" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:13" ht="19.5" customHeight="1">
       <c r="A653" s="41"/>
       <c r="B653" s="42"/>
       <c r="C653" s="42"/>
@@ -10764,7 +10764,7 @@
       <c r="L653" s="43"/>
       <c r="M653" s="43"/>
     </row>
-    <row r="654" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:13" ht="19.5" customHeight="1">
       <c r="A654" s="41"/>
       <c r="B654" s="42"/>
       <c r="C654" s="42"/>
@@ -10779,7 +10779,7 @@
       <c r="L654" s="43"/>
       <c r="M654" s="43"/>
     </row>
-    <row r="655" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:13" ht="19.5" customHeight="1">
       <c r="A655" s="41"/>
       <c r="B655" s="42"/>
       <c r="C655" s="42"/>
@@ -10794,7 +10794,7 @@
       <c r="L655" s="43"/>
       <c r="M655" s="43"/>
     </row>
-    <row r="656" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:13" ht="19.5" customHeight="1">
       <c r="A656" s="41"/>
       <c r="B656" s="42"/>
       <c r="C656" s="42"/>
@@ -10809,7 +10809,7 @@
       <c r="L656" s="43"/>
       <c r="M656" s="43"/>
     </row>
-    <row r="657" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:13" ht="19.5" customHeight="1">
       <c r="A657" s="41"/>
       <c r="B657" s="42"/>
       <c r="C657" s="42"/>
@@ -10824,7 +10824,7 @@
       <c r="L657" s="43"/>
       <c r="M657" s="43"/>
     </row>
-    <row r="658" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:13" ht="19.5" customHeight="1">
       <c r="A658" s="41"/>
       <c r="B658" s="42"/>
       <c r="C658" s="42"/>
@@ -10839,7 +10839,7 @@
       <c r="L658" s="43"/>
       <c r="M658" s="43"/>
     </row>
-    <row r="659" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:13" ht="19.5" customHeight="1">
       <c r="A659" s="41"/>
       <c r="B659" s="42"/>
       <c r="C659" s="42"/>
@@ -10854,7 +10854,7 @@
       <c r="L659" s="43"/>
       <c r="M659" s="43"/>
     </row>
-    <row r="660" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:13" ht="19.5" customHeight="1">
       <c r="A660" s="41"/>
       <c r="B660" s="42"/>
       <c r="C660" s="42"/>
@@ -10869,7 +10869,7 @@
       <c r="L660" s="43"/>
       <c r="M660" s="43"/>
     </row>
-    <row r="661" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:13" ht="19.5" customHeight="1">
       <c r="A661" s="41"/>
       <c r="B661" s="42"/>
       <c r="C661" s="42"/>
@@ -10884,7 +10884,7 @@
       <c r="L661" s="43"/>
       <c r="M661" s="43"/>
     </row>
-    <row r="662" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:13" ht="19.5" customHeight="1">
       <c r="A662" s="41"/>
       <c r="B662" s="42"/>
       <c r="C662" s="42"/>
@@ -10899,7 +10899,7 @@
       <c r="L662" s="43"/>
       <c r="M662" s="43"/>
     </row>
-    <row r="663" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:13" ht="19.5" customHeight="1">
       <c r="A663" s="41"/>
       <c r="B663" s="42"/>
       <c r="C663" s="42"/>
@@ -10914,7 +10914,7 @@
       <c r="L663" s="43"/>
       <c r="M663" s="43"/>
     </row>
-    <row r="664" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:13" ht="19.5" customHeight="1">
       <c r="A664" s="41"/>
       <c r="B664" s="42"/>
       <c r="C664" s="42"/>
@@ -10929,7 +10929,7 @@
       <c r="L664" s="43"/>
       <c r="M664" s="43"/>
     </row>
-    <row r="665" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:13" ht="19.5" customHeight="1">
       <c r="A665" s="41"/>
       <c r="B665" s="42"/>
       <c r="C665" s="42"/>
@@ -10944,7 +10944,7 @@
       <c r="L665" s="43"/>
       <c r="M665" s="43"/>
     </row>
-    <row r="666" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:13" ht="19.5" customHeight="1">
       <c r="A666" s="41"/>
       <c r="B666" s="42"/>
       <c r="C666" s="42"/>
@@ -10959,7 +10959,7 @@
       <c r="L666" s="43"/>
       <c r="M666" s="43"/>
     </row>
-    <row r="667" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:13" ht="19.5" customHeight="1">
       <c r="A667" s="41"/>
       <c r="B667" s="42"/>
       <c r="C667" s="42"/>
@@ -10974,7 +10974,7 @@
       <c r="L667" s="43"/>
       <c r="M667" s="43"/>
     </row>
-    <row r="668" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:13" ht="19.5" customHeight="1">
       <c r="A668" s="41"/>
       <c r="B668" s="42"/>
       <c r="C668" s="42"/>
@@ -10989,7 +10989,7 @@
       <c r="L668" s="43"/>
       <c r="M668" s="43"/>
     </row>
-    <row r="669" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:13" ht="19.5" customHeight="1">
       <c r="A669" s="41"/>
       <c r="B669" s="42"/>
       <c r="C669" s="42"/>
@@ -11004,7 +11004,7 @@
       <c r="L669" s="43"/>
       <c r="M669" s="43"/>
     </row>
-    <row r="670" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:13" ht="19.5" customHeight="1">
       <c r="A670" s="41"/>
       <c r="B670" s="42"/>
       <c r="C670" s="42"/>
@@ -11019,7 +11019,7 @@
       <c r="L670" s="43"/>
       <c r="M670" s="43"/>
     </row>
-    <row r="671" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:13" ht="19.5" customHeight="1">
       <c r="A671" s="41"/>
       <c r="B671" s="42"/>
       <c r="C671" s="42"/>
@@ -11034,7 +11034,7 @@
       <c r="L671" s="43"/>
       <c r="M671" s="43"/>
     </row>
-    <row r="672" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:13" ht="19.5" customHeight="1">
       <c r="A672" s="41"/>
       <c r="B672" s="42"/>
       <c r="C672" s="42"/>
@@ -11049,7 +11049,7 @@
       <c r="L672" s="43"/>
       <c r="M672" s="43"/>
     </row>
-    <row r="673" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:13" ht="19.5" customHeight="1">
       <c r="A673" s="41"/>
       <c r="B673" s="42"/>
       <c r="C673" s="42"/>
@@ -11064,7 +11064,7 @@
       <c r="L673" s="43"/>
       <c r="M673" s="43"/>
     </row>
-    <row r="674" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:13" ht="19.5" customHeight="1">
       <c r="A674" s="41"/>
       <c r="B674" s="42"/>
       <c r="C674" s="42"/>
@@ -11079,7 +11079,7 @@
       <c r="L674" s="43"/>
       <c r="M674" s="43"/>
     </row>
-    <row r="675" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:13" ht="19.5" customHeight="1">
       <c r="A675" s="41"/>
       <c r="B675" s="42"/>
       <c r="C675" s="42"/>
@@ -11094,7 +11094,7 @@
       <c r="L675" s="43"/>
       <c r="M675" s="43"/>
     </row>
-    <row r="676" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:13" ht="19.5" customHeight="1">
       <c r="A676" s="41"/>
       <c r="B676" s="42"/>
       <c r="C676" s="42"/>
@@ -11109,7 +11109,7 @@
       <c r="L676" s="43"/>
       <c r="M676" s="43"/>
     </row>
-    <row r="677" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:13" ht="19.5" customHeight="1">
       <c r="A677" s="41"/>
       <c r="B677" s="42"/>
       <c r="C677" s="42"/>
@@ -11124,7 +11124,7 @@
       <c r="L677" s="43"/>
       <c r="M677" s="43"/>
     </row>
-    <row r="678" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:13" ht="19.5" customHeight="1">
       <c r="A678" s="41"/>
       <c r="B678" s="42"/>
       <c r="C678" s="42"/>
@@ -11139,7 +11139,7 @@
       <c r="L678" s="43"/>
       <c r="M678" s="43"/>
     </row>
-    <row r="679" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:13" ht="19.5" customHeight="1">
       <c r="A679" s="41"/>
       <c r="B679" s="42"/>
       <c r="C679" s="42"/>
@@ -11154,7 +11154,7 @@
       <c r="L679" s="43"/>
       <c r="M679" s="43"/>
     </row>
-    <row r="680" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:13" ht="19.5" customHeight="1">
       <c r="A680" s="41"/>
       <c r="B680" s="42"/>
       <c r="C680" s="42"/>
@@ -11169,7 +11169,7 @@
       <c r="L680" s="43"/>
       <c r="M680" s="43"/>
     </row>
-    <row r="681" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:13" ht="19.5" customHeight="1">
       <c r="A681" s="41"/>
       <c r="B681" s="42"/>
       <c r="C681" s="42"/>
@@ -11184,7 +11184,7 @@
       <c r="L681" s="43"/>
       <c r="M681" s="43"/>
     </row>
-    <row r="682" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:13" ht="19.5" customHeight="1">
       <c r="A682" s="41"/>
       <c r="B682" s="42"/>
       <c r="C682" s="42"/>
@@ -11199,7 +11199,7 @@
       <c r="L682" s="43"/>
       <c r="M682" s="43"/>
     </row>
-    <row r="683" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:13" ht="19.5" customHeight="1">
       <c r="A683" s="41"/>
       <c r="B683" s="42"/>
       <c r="C683" s="42"/>
@@ -11214,7 +11214,7 @@
       <c r="L683" s="43"/>
       <c r="M683" s="43"/>
     </row>
-    <row r="684" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:13" ht="19.5" customHeight="1">
       <c r="A684" s="41"/>
       <c r="B684" s="42"/>
       <c r="C684" s="42"/>
@@ -11229,7 +11229,7 @@
       <c r="L684" s="43"/>
       <c r="M684" s="43"/>
     </row>
-    <row r="685" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:13" ht="19.5" customHeight="1">
       <c r="A685" s="41"/>
       <c r="B685" s="42"/>
       <c r="C685" s="42"/>
@@ -11244,7 +11244,7 @@
       <c r="L685" s="43"/>
       <c r="M685" s="43"/>
     </row>
-    <row r="686" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:13" ht="19.5" customHeight="1">
       <c r="A686" s="41"/>
       <c r="B686" s="42"/>
       <c r="C686" s="42"/>
@@ -11259,7 +11259,7 @@
       <c r="L686" s="43"/>
       <c r="M686" s="43"/>
     </row>
-    <row r="687" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:13" ht="19.5" customHeight="1">
       <c r="A687" s="41"/>
       <c r="B687" s="42"/>
       <c r="C687" s="42"/>
@@ -11274,7 +11274,7 @@
       <c r="L687" s="43"/>
       <c r="M687" s="43"/>
     </row>
-    <row r="688" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:13" ht="19.5" customHeight="1">
       <c r="A688" s="41"/>
       <c r="B688" s="42"/>
       <c r="C688" s="42"/>
@@ -11289,7 +11289,7 @@
       <c r="L688" s="43"/>
       <c r="M688" s="43"/>
     </row>
-    <row r="689" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:13" ht="19.5" customHeight="1">
       <c r="A689" s="41"/>
       <c r="B689" s="42"/>
       <c r="C689" s="42"/>
@@ -11304,7 +11304,7 @@
       <c r="L689" s="43"/>
       <c r="M689" s="43"/>
     </row>
-    <row r="690" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:13" ht="19.5" customHeight="1">
       <c r="A690" s="41"/>
       <c r="B690" s="42"/>
       <c r="C690" s="42"/>
@@ -11319,7 +11319,7 @@
       <c r="L690" s="43"/>
       <c r="M690" s="43"/>
     </row>
-    <row r="691" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:13" ht="19.5" customHeight="1">
       <c r="A691" s="41"/>
       <c r="B691" s="42"/>
       <c r="C691" s="42"/>
@@ -11334,7 +11334,7 @@
       <c r="L691" s="43"/>
       <c r="M691" s="43"/>
     </row>
-    <row r="692" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:13" ht="19.5" customHeight="1">
       <c r="A692" s="41"/>
       <c r="B692" s="42"/>
       <c r="C692" s="42"/>
@@ -11349,7 +11349,7 @@
       <c r="L692" s="43"/>
       <c r="M692" s="43"/>
     </row>
-    <row r="693" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:13" ht="19.5" customHeight="1">
       <c r="A693" s="41"/>
       <c r="B693" s="42"/>
       <c r="C693" s="42"/>
@@ -11364,7 +11364,7 @@
       <c r="L693" s="43"/>
       <c r="M693" s="43"/>
     </row>
-    <row r="694" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:13" ht="19.5" customHeight="1">
       <c r="A694" s="41"/>
       <c r="B694" s="42"/>
       <c r="C694" s="42"/>
@@ -11379,7 +11379,7 @@
       <c r="L694" s="43"/>
       <c r="M694" s="43"/>
     </row>
-    <row r="695" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:13" ht="19.5" customHeight="1">
       <c r="A695" s="41"/>
       <c r="B695" s="42"/>
       <c r="C695" s="42"/>
@@ -11394,7 +11394,7 @@
       <c r="L695" s="43"/>
       <c r="M695" s="43"/>
     </row>
-    <row r="696" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:13" ht="19.5" customHeight="1">
       <c r="A696" s="41"/>
       <c r="B696" s="42"/>
       <c r="C696" s="42"/>
@@ -11409,7 +11409,7 @@
       <c r="L696" s="43"/>
       <c r="M696" s="43"/>
     </row>
-    <row r="697" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:13" ht="19.5" customHeight="1">
       <c r="A697" s="41"/>
       <c r="B697" s="42"/>
       <c r="C697" s="42"/>
@@ -11424,7 +11424,7 @@
       <c r="L697" s="43"/>
       <c r="M697" s="43"/>
     </row>
-    <row r="698" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:13" ht="19.5" customHeight="1">
       <c r="A698" s="41"/>
       <c r="B698" s="42"/>
       <c r="C698" s="42"/>
@@ -11439,7 +11439,7 @@
       <c r="L698" s="43"/>
       <c r="M698" s="43"/>
     </row>
-    <row r="699" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:13" ht="19.5" customHeight="1">
       <c r="A699" s="41"/>
       <c r="B699" s="42"/>
       <c r="C699" s="42"/>
@@ -11454,7 +11454,7 @@
       <c r="L699" s="43"/>
       <c r="M699" s="43"/>
     </row>
-    <row r="700" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:13" ht="19.5" customHeight="1">
       <c r="A700" s="41"/>
       <c r="B700" s="42"/>
       <c r="C700" s="42"/>
@@ -11469,7 +11469,7 @@
       <c r="L700" s="43"/>
       <c r="M700" s="43"/>
     </row>
-    <row r="701" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:13" ht="19.5" customHeight="1">
       <c r="A701" s="41"/>
       <c r="B701" s="42"/>
       <c r="C701" s="42"/>
@@ -11484,7 +11484,7 @@
       <c r="L701" s="43"/>
       <c r="M701" s="43"/>
     </row>
-    <row r="702" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:13" ht="19.5" customHeight="1">
       <c r="A702" s="41"/>
       <c r="B702" s="42"/>
       <c r="C702" s="42"/>
@@ -11499,7 +11499,7 @@
       <c r="L702" s="43"/>
       <c r="M702" s="43"/>
     </row>
-    <row r="703" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:13" ht="19.5" customHeight="1">
       <c r="A703" s="41"/>
       <c r="B703" s="42"/>
       <c r="C703" s="42"/>
@@ -11514,7 +11514,7 @@
       <c r="L703" s="43"/>
       <c r="M703" s="43"/>
     </row>
-    <row r="704" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:13" ht="19.5" customHeight="1">
       <c r="A704" s="41"/>
       <c r="B704" s="42"/>
       <c r="C704" s="42"/>
@@ -11529,7 +11529,7 @@
       <c r="L704" s="43"/>
       <c r="M704" s="43"/>
     </row>
-    <row r="705" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:13" ht="19.5" customHeight="1">
       <c r="A705" s="41"/>
       <c r="B705" s="42"/>
       <c r="C705" s="42"/>
@@ -11544,7 +11544,7 @@
       <c r="L705" s="43"/>
       <c r="M705" s="43"/>
     </row>
-    <row r="706" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:13" ht="19.5" customHeight="1">
       <c r="A706" s="41"/>
       <c r="B706" s="42"/>
       <c r="C706" s="42"/>
@@ -11559,7 +11559,7 @@
       <c r="L706" s="43"/>
       <c r="M706" s="43"/>
     </row>
-    <row r="707" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:13" ht="19.5" customHeight="1">
       <c r="A707" s="41"/>
       <c r="B707" s="42"/>
       <c r="C707" s="42"/>
@@ -11574,7 +11574,7 @@
       <c r="L707" s="43"/>
       <c r="M707" s="43"/>
     </row>
-    <row r="708" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:13" ht="19.5" customHeight="1">
       <c r="A708" s="41"/>
       <c r="B708" s="42"/>
       <c r="C708" s="42"/>
@@ -11589,7 +11589,7 @@
       <c r="L708" s="43"/>
       <c r="M708" s="43"/>
     </row>
-    <row r="709" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:13" ht="19.5" customHeight="1">
       <c r="A709" s="41"/>
       <c r="B709" s="42"/>
       <c r="C709" s="42"/>
@@ -11604,7 +11604,7 @@
       <c r="L709" s="43"/>
       <c r="M709" s="43"/>
     </row>
-    <row r="710" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:13" ht="19.5" customHeight="1">
       <c r="A710" s="41"/>
       <c r="B710" s="42"/>
       <c r="C710" s="42"/>
@@ -11619,7 +11619,7 @@
       <c r="L710" s="43"/>
       <c r="M710" s="43"/>
     </row>
-    <row r="711" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:13" ht="19.5" customHeight="1">
       <c r="A711" s="41"/>
       <c r="B711" s="42"/>
       <c r="C711" s="42"/>
@@ -11634,7 +11634,7 @@
       <c r="L711" s="43"/>
       <c r="M711" s="43"/>
     </row>
-    <row r="712" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:13" ht="19.5" customHeight="1">
       <c r="A712" s="41"/>
       <c r="B712" s="42"/>
       <c r="C712" s="42"/>
@@ -11649,7 +11649,7 @@
       <c r="L712" s="43"/>
       <c r="M712" s="43"/>
     </row>
-    <row r="713" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:13" ht="19.5" customHeight="1">
       <c r="A713" s="41"/>
       <c r="B713" s="42"/>
       <c r="C713" s="42"/>
@@ -11664,7 +11664,7 @@
       <c r="L713" s="43"/>
       <c r="M713" s="43"/>
     </row>
-    <row r="714" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:13" ht="19.5" customHeight="1">
       <c r="A714" s="41"/>
       <c r="B714" s="42"/>
       <c r="C714" s="42"/>
@@ -11679,7 +11679,7 @@
       <c r="L714" s="43"/>
       <c r="M714" s="43"/>
     </row>
-    <row r="715" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:13" ht="19.5" customHeight="1">
       <c r="A715" s="41"/>
       <c r="B715" s="42"/>
       <c r="C715" s="42"/>
@@ -11694,7 +11694,7 @@
       <c r="L715" s="43"/>
       <c r="M715" s="43"/>
     </row>
-    <row r="716" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:13" ht="19.5" customHeight="1">
       <c r="A716" s="41"/>
       <c r="B716" s="42"/>
       <c r="C716" s="42"/>
@@ -11709,7 +11709,7 @@
       <c r="L716" s="43"/>
       <c r="M716" s="43"/>
     </row>
-    <row r="717" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:13" ht="19.5" customHeight="1">
       <c r="A717" s="41"/>
       <c r="B717" s="42"/>
       <c r="C717" s="42"/>
@@ -11724,7 +11724,7 @@
       <c r="L717" s="43"/>
       <c r="M717" s="43"/>
     </row>
-    <row r="718" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:13" ht="19.5" customHeight="1">
       <c r="A718" s="41"/>
       <c r="B718" s="42"/>
       <c r="C718" s="42"/>
@@ -11739,7 +11739,7 @@
       <c r="L718" s="43"/>
       <c r="M718" s="43"/>
     </row>
-    <row r="719" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:13" ht="19.5" customHeight="1">
       <c r="A719" s="41"/>
       <c r="B719" s="42"/>
       <c r="C719" s="42"/>
@@ -11754,7 +11754,7 @@
       <c r="L719" s="43"/>
       <c r="M719" s="43"/>
     </row>
-    <row r="720" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:13" ht="19.5" customHeight="1">
       <c r="A720" s="41"/>
       <c r="B720" s="42"/>
       <c r="C720" s="42"/>
@@ -11769,7 +11769,7 @@
       <c r="L720" s="43"/>
       <c r="M720" s="43"/>
     </row>
-    <row r="721" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:13" ht="19.5" customHeight="1">
       <c r="A721" s="41"/>
       <c r="B721" s="42"/>
       <c r="C721" s="42"/>
@@ -11784,7 +11784,7 @@
       <c r="L721" s="43"/>
       <c r="M721" s="43"/>
     </row>
-    <row r="722" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:13" ht="19.5" customHeight="1">
       <c r="A722" s="41"/>
       <c r="B722" s="42"/>
       <c r="C722" s="42"/>
@@ -11799,7 +11799,7 @@
       <c r="L722" s="43"/>
       <c r="M722" s="43"/>
     </row>
-    <row r="723" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:13" ht="19.5" customHeight="1">
       <c r="A723" s="41"/>
       <c r="B723" s="42"/>
       <c r="C723" s="42"/>
@@ -11814,7 +11814,7 @@
       <c r="L723" s="43"/>
       <c r="M723" s="43"/>
     </row>
-    <row r="724" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:13" ht="19.5" customHeight="1">
       <c r="A724" s="41"/>
       <c r="B724" s="42"/>
       <c r="C724" s="42"/>
@@ -11829,7 +11829,7 @@
       <c r="L724" s="43"/>
       <c r="M724" s="43"/>
     </row>
-    <row r="725" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:13" ht="19.5" customHeight="1">
       <c r="A725" s="41"/>
       <c r="B725" s="42"/>
       <c r="C725" s="42"/>
@@ -11844,7 +11844,7 @@
       <c r="L725" s="43"/>
       <c r="M725" s="43"/>
     </row>
-    <row r="726" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:13" ht="19.5" customHeight="1">
       <c r="A726" s="41"/>
       <c r="B726" s="42"/>
       <c r="C726" s="42"/>
@@ -11859,7 +11859,7 @@
       <c r="L726" s="43"/>
       <c r="M726" s="43"/>
     </row>
-    <row r="727" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:13" ht="19.5" customHeight="1">
       <c r="A727" s="41"/>
       <c r="B727" s="42"/>
       <c r="C727" s="42"/>
@@ -11874,7 +11874,7 @@
       <c r="L727" s="43"/>
       <c r="M727" s="43"/>
     </row>
-    <row r="728" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:13" ht="19.5" customHeight="1">
       <c r="A728" s="41"/>
       <c r="B728" s="42"/>
       <c r="C728" s="42"/>
@@ -11889,7 +11889,7 @@
       <c r="L728" s="43"/>
       <c r="M728" s="43"/>
     </row>
-    <row r="729" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:13" ht="19.5" customHeight="1">
       <c r="A729" s="41"/>
       <c r="B729" s="42"/>
       <c r="C729" s="42"/>
@@ -11904,7 +11904,7 @@
       <c r="L729" s="43"/>
       <c r="M729" s="43"/>
     </row>
-    <row r="730" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:13" ht="19.5" customHeight="1">
       <c r="A730" s="41"/>
       <c r="B730" s="42"/>
       <c r="C730" s="42"/>
@@ -11919,7 +11919,7 @@
       <c r="L730" s="43"/>
       <c r="M730" s="43"/>
     </row>
-    <row r="731" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:13" ht="19.5" customHeight="1">
       <c r="A731" s="41"/>
       <c r="B731" s="42"/>
       <c r="C731" s="42"/>
@@ -11934,7 +11934,7 @@
       <c r="L731" s="43"/>
       <c r="M731" s="43"/>
     </row>
-    <row r="732" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:13" ht="19.5" customHeight="1">
       <c r="A732" s="41"/>
       <c r="B732" s="42"/>
       <c r="C732" s="42"/>
@@ -11949,7 +11949,7 @@
       <c r="L732" s="43"/>
       <c r="M732" s="43"/>
     </row>
-    <row r="733" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:13" ht="19.5" customHeight="1">
       <c r="A733" s="41"/>
       <c r="B733" s="42"/>
       <c r="C733" s="42"/>
@@ -11964,7 +11964,7 @@
       <c r="L733" s="43"/>
       <c r="M733" s="43"/>
     </row>
-    <row r="734" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:13" ht="19.5" customHeight="1">
       <c r="A734" s="41"/>
       <c r="B734" s="42"/>
       <c r="C734" s="42"/>
@@ -11979,7 +11979,7 @@
       <c r="L734" s="43"/>
       <c r="M734" s="43"/>
     </row>
-    <row r="735" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:13" ht="19.5" customHeight="1">
       <c r="A735" s="41"/>
       <c r="B735" s="42"/>
       <c r="C735" s="42"/>
@@ -11994,7 +11994,7 @@
       <c r="L735" s="43"/>
       <c r="M735" s="43"/>
     </row>
-    <row r="736" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:13" ht="19.5" customHeight="1">
       <c r="A736" s="41"/>
       <c r="B736" s="42"/>
       <c r="C736" s="42"/>
@@ -12009,7 +12009,7 @@
       <c r="L736" s="43"/>
       <c r="M736" s="43"/>
     </row>
-    <row r="737" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:13" ht="19.5" customHeight="1">
       <c r="A737" s="41"/>
       <c r="B737" s="42"/>
       <c r="C737" s="42"/>
@@ -12024,7 +12024,7 @@
       <c r="L737" s="43"/>
       <c r="M737" s="43"/>
     </row>
-    <row r="738" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:13" ht="19.5" customHeight="1">
       <c r="A738" s="41"/>
       <c r="B738" s="42"/>
       <c r="C738" s="42"/>
@@ -12039,7 +12039,7 @@
       <c r="L738" s="43"/>
       <c r="M738" s="43"/>
     </row>
-    <row r="739" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:13" ht="19.5" customHeight="1">
       <c r="A739" s="41"/>
       <c r="B739" s="42"/>
       <c r="C739" s="42"/>
@@ -12054,7 +12054,7 @@
       <c r="L739" s="43"/>
       <c r="M739" s="43"/>
     </row>
-    <row r="740" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:13" ht="19.5" customHeight="1">
       <c r="A740" s="41"/>
       <c r="B740" s="42"/>
       <c r="C740" s="42"/>
@@ -12069,7 +12069,7 @@
       <c r="L740" s="43"/>
       <c r="M740" s="43"/>
     </row>
-    <row r="741" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:13" ht="19.5" customHeight="1">
       <c r="A741" s="41"/>
       <c r="B741" s="42"/>
       <c r="C741" s="42"/>
@@ -12084,7 +12084,7 @@
       <c r="L741" s="43"/>
       <c r="M741" s="43"/>
     </row>
-    <row r="742" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:13" ht="19.5" customHeight="1">
       <c r="A742" s="41"/>
       <c r="B742" s="42"/>
       <c r="C742" s="42"/>
@@ -12099,7 +12099,7 @@
       <c r="L742" s="43"/>
       <c r="M742" s="43"/>
     </row>
-    <row r="743" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:13" ht="19.5" customHeight="1">
       <c r="A743" s="41"/>
       <c r="B743" s="42"/>
       <c r="C743" s="42"/>
@@ -12114,7 +12114,7 @@
       <c r="L743" s="43"/>
       <c r="M743" s="43"/>
     </row>
-    <row r="744" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:13" ht="19.5" customHeight="1">
       <c r="A744" s="41"/>
       <c r="B744" s="42"/>
       <c r="C744" s="42"/>
@@ -12129,7 +12129,7 @@
       <c r="L744" s="43"/>
       <c r="M744" s="43"/>
     </row>
-    <row r="745" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:13" ht="19.5" customHeight="1">
       <c r="A745" s="41"/>
       <c r="B745" s="42"/>
       <c r="C745" s="42"/>
@@ -12144,7 +12144,7 @@
       <c r="L745" s="43"/>
       <c r="M745" s="43"/>
     </row>
-    <row r="746" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:13" ht="19.5" customHeight="1">
       <c r="A746" s="41"/>
       <c r="B746" s="42"/>
       <c r="C746" s="42"/>
@@ -12159,7 +12159,7 @@
       <c r="L746" s="43"/>
       <c r="M746" s="43"/>
     </row>
-    <row r="747" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:13" ht="19.5" customHeight="1">
       <c r="A747" s="41"/>
       <c r="B747" s="42"/>
       <c r="C747" s="42"/>
@@ -12174,7 +12174,7 @@
       <c r="L747" s="43"/>
       <c r="M747" s="43"/>
     </row>
-    <row r="748" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:13" ht="19.5" customHeight="1">
       <c r="A748" s="41"/>
       <c r="B748" s="42"/>
       <c r="C748" s="42"/>
@@ -12189,7 +12189,7 @@
       <c r="L748" s="43"/>
       <c r="M748" s="43"/>
     </row>
-    <row r="749" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:13" ht="19.5" customHeight="1">
       <c r="A749" s="41"/>
       <c r="B749" s="42"/>
       <c r="C749" s="42"/>
@@ -12204,7 +12204,7 @@
       <c r="L749" s="43"/>
       <c r="M749" s="43"/>
     </row>
-    <row r="750" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:13" ht="19.5" customHeight="1">
       <c r="A750" s="41"/>
       <c r="B750" s="42"/>
       <c r="C750" s="42"/>
@@ -12219,7 +12219,7 @@
       <c r="L750" s="43"/>
       <c r="M750" s="43"/>
     </row>
-    <row r="751" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:13" ht="19.5" customHeight="1">
       <c r="A751" s="41"/>
       <c r="B751" s="42"/>
       <c r="C751" s="42"/>
@@ -12234,7 +12234,7 @@
       <c r="L751" s="43"/>
       <c r="M751" s="43"/>
     </row>
-    <row r="752" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:13" ht="19.5" customHeight="1">
       <c r="A752" s="41"/>
       <c r="B752" s="42"/>
       <c r="C752" s="42"/>
@@ -12249,7 +12249,7 @@
       <c r="L752" s="43"/>
       <c r="M752" s="43"/>
     </row>
-    <row r="753" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:13" ht="19.5" customHeight="1">
       <c r="A753" s="41"/>
       <c r="B753" s="42"/>
       <c r="C753" s="42"/>
@@ -12264,7 +12264,7 @@
       <c r="L753" s="43"/>
       <c r="M753" s="43"/>
     </row>
-    <row r="754" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:13" ht="19.5" customHeight="1">
       <c r="A754" s="41"/>
       <c r="B754" s="42"/>
       <c r="C754" s="42"/>
@@ -12279,7 +12279,7 @@
       <c r="L754" s="43"/>
       <c r="M754" s="43"/>
     </row>
-    <row r="755" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:13" ht="19.5" customHeight="1">
       <c r="A755" s="41"/>
       <c r="B755" s="42"/>
       <c r="C755" s="42"/>
@@ -12294,7 +12294,7 @@
       <c r="L755" s="43"/>
       <c r="M755" s="43"/>
     </row>
-    <row r="756" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:13" ht="19.5" customHeight="1">
       <c r="A756" s="41"/>
       <c r="B756" s="42"/>
       <c r="C756" s="42"/>
@@ -12309,7 +12309,7 @@
       <c r="L756" s="43"/>
       <c r="M756" s="43"/>
     </row>
-    <row r="757" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:13" ht="19.5" customHeight="1">
       <c r="A757" s="41"/>
       <c r="B757" s="42"/>
       <c r="C757" s="42"/>
@@ -12324,7 +12324,7 @@
       <c r="L757" s="43"/>
       <c r="M757" s="43"/>
     </row>
-    <row r="758" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:13" ht="19.5" customHeight="1">
       <c r="A758" s="41"/>
       <c r="B758" s="42"/>
       <c r="C758" s="42"/>
@@ -12339,7 +12339,7 @@
       <c r="L758" s="43"/>
       <c r="M758" s="43"/>
     </row>
-    <row r="759" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:13" ht="19.5" customHeight="1">
       <c r="A759" s="41"/>
       <c r="B759" s="42"/>
       <c r="C759" s="42"/>
@@ -12354,7 +12354,7 @@
       <c r="L759" s="43"/>
       <c r="M759" s="43"/>
     </row>
-    <row r="760" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:13" ht="19.5" customHeight="1">
       <c r="A760" s="41"/>
       <c r="B760" s="42"/>
       <c r="C760" s="42"/>
@@ -12369,7 +12369,7 @@
       <c r="L760" s="43"/>
       <c r="M760" s="43"/>
     </row>
-    <row r="761" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:13" ht="19.5" customHeight="1">
       <c r="A761" s="41"/>
       <c r="B761" s="42"/>
       <c r="C761" s="42"/>
@@ -12384,7 +12384,7 @@
       <c r="L761" s="43"/>
       <c r="M761" s="43"/>
     </row>
-    <row r="762" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:13" ht="19.5" customHeight="1">
       <c r="A762" s="41"/>
       <c r="B762" s="42"/>
       <c r="C762" s="42"/>
@@ -12399,7 +12399,7 @@
       <c r="L762" s="43"/>
       <c r="M762" s="43"/>
     </row>
-    <row r="763" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:13" ht="19.5" customHeight="1">
       <c r="A763" s="41"/>
       <c r="B763" s="42"/>
       <c r="C763" s="42"/>
@@ -12414,7 +12414,7 @@
       <c r="L763" s="43"/>
       <c r="M763" s="43"/>
     </row>
-    <row r="764" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:13" ht="19.5" customHeight="1">
       <c r="A764" s="41"/>
       <c r="B764" s="42"/>
       <c r="C764" s="42"/>
@@ -12429,7 +12429,7 @@
       <c r="L764" s="43"/>
       <c r="M764" s="43"/>
     </row>
-    <row r="765" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:13" ht="19.5" customHeight="1">
       <c r="A765" s="41"/>
       <c r="B765" s="42"/>
       <c r="C765" s="42"/>
@@ -12444,7 +12444,7 @@
       <c r="L765" s="43"/>
       <c r="M765" s="43"/>
     </row>
-    <row r="766" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:13" ht="19.5" customHeight="1">
       <c r="A766" s="41"/>
       <c r="B766" s="42"/>
       <c r="C766" s="42"/>
@@ -12459,7 +12459,7 @@
       <c r="L766" s="43"/>
       <c r="M766" s="43"/>
     </row>
-    <row r="767" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:13" ht="19.5" customHeight="1">
       <c r="A767" s="41"/>
       <c r="B767" s="42"/>
       <c r="C767" s="42"/>
@@ -12474,7 +12474,7 @@
       <c r="L767" s="43"/>
       <c r="M767" s="43"/>
     </row>
-    <row r="768" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:13" ht="19.5" customHeight="1">
       <c r="A768" s="41"/>
       <c r="B768" s="42"/>
       <c r="C768" s="42"/>
@@ -12489,7 +12489,7 @@
       <c r="L768" s="43"/>
       <c r="M768" s="43"/>
     </row>
-    <row r="769" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:13" ht="19.5" customHeight="1">
       <c r="A769" s="41"/>
       <c r="B769" s="42"/>
       <c r="C769" s="42"/>
@@ -12504,7 +12504,7 @@
       <c r="L769" s="43"/>
       <c r="M769" s="43"/>
     </row>
-    <row r="770" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:13" ht="19.5" customHeight="1">
       <c r="A770" s="41"/>
       <c r="B770" s="42"/>
       <c r="C770" s="42"/>
@@ -12519,7 +12519,7 @@
       <c r="L770" s="43"/>
       <c r="M770" s="43"/>
     </row>
-    <row r="771" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:13" ht="19.5" customHeight="1">
       <c r="A771" s="41"/>
       <c r="B771" s="42"/>
       <c r="C771" s="42"/>
@@ -12534,7 +12534,7 @@
       <c r="L771" s="43"/>
       <c r="M771" s="43"/>
     </row>
-    <row r="772" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:13" ht="19.5" customHeight="1">
       <c r="A772" s="41"/>
       <c r="B772" s="42"/>
       <c r="C772" s="42"/>
@@ -12549,7 +12549,7 @@
       <c r="L772" s="43"/>
       <c r="M772" s="43"/>
     </row>
-    <row r="773" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:13" ht="19.5" customHeight="1">
       <c r="A773" s="41"/>
       <c r="B773" s="42"/>
       <c r="C773" s="42"/>
@@ -12564,7 +12564,7 @@
       <c r="L773" s="43"/>
       <c r="M773" s="43"/>
     </row>
-    <row r="774" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:13" ht="19.5" customHeight="1">
       <c r="A774" s="41"/>
       <c r="B774" s="42"/>
       <c r="C774" s="42"/>
@@ -12579,7 +12579,7 @@
       <c r="L774" s="43"/>
       <c r="M774" s="43"/>
     </row>
-    <row r="775" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:13" ht="19.5" customHeight="1">
       <c r="A775" s="41"/>
       <c r="B775" s="42"/>
       <c r="C775" s="42"/>
@@ -12594,7 +12594,7 @@
       <c r="L775" s="43"/>
       <c r="M775" s="43"/>
     </row>
-    <row r="776" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:13" ht="19.5" customHeight="1">
       <c r="A776" s="41"/>
       <c r="B776" s="42"/>
       <c r="C776" s="42"/>
@@ -12609,7 +12609,7 @@
       <c r="L776" s="43"/>
       <c r="M776" s="43"/>
     </row>
-    <row r="777" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:13" ht="19.5" customHeight="1">
       <c r="A777" s="41"/>
       <c r="B777" s="42"/>
       <c r="C777" s="42"/>
@@ -12624,7 +12624,7 @@
       <c r="L777" s="43"/>
       <c r="M777" s="43"/>
     </row>
-    <row r="778" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:13" ht="19.5" customHeight="1">
       <c r="A778" s="41"/>
       <c r="B778" s="42"/>
       <c r="C778" s="42"/>
@@ -12639,7 +12639,7 @@
       <c r="L778" s="43"/>
       <c r="M778" s="43"/>
     </row>
-    <row r="779" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:13" ht="19.5" customHeight="1">
       <c r="A779" s="41"/>
       <c r="B779" s="42"/>
       <c r="C779" s="42"/>
@@ -12654,7 +12654,7 @@
       <c r="L779" s="43"/>
       <c r="M779" s="43"/>
     </row>
-    <row r="780" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:13" ht="19.5" customHeight="1">
       <c r="A780" s="41"/>
       <c r="B780" s="42"/>
       <c r="C780" s="42"/>
@@ -12669,7 +12669,7 @@
       <c r="L780" s="43"/>
       <c r="M780" s="43"/>
     </row>
-    <row r="781" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:13" ht="19.5" customHeight="1">
       <c r="A781" s="41"/>
       <c r="B781" s="42"/>
       <c r="C781" s="42"/>
@@ -12684,7 +12684,7 @@
       <c r="L781" s="43"/>
       <c r="M781" s="43"/>
     </row>
-    <row r="782" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:13" ht="19.5" customHeight="1">
       <c r="A782" s="41"/>
       <c r="B782" s="42"/>
       <c r="C782" s="42"/>
@@ -12699,7 +12699,7 @@
       <c r="L782" s="43"/>
       <c r="M782" s="43"/>
     </row>
-    <row r="783" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:13" ht="19.5" customHeight="1">
       <c r="A783" s="41"/>
       <c r="B783" s="42"/>
       <c r="C783" s="42"/>
@@ -12714,7 +12714,7 @@
       <c r="L783" s="43"/>
       <c r="M783" s="43"/>
     </row>
-    <row r="784" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:13" ht="19.5" customHeight="1">
       <c r="A784" s="41"/>
       <c r="B784" s="42"/>
       <c r="C784" s="42"/>
@@ -12729,7 +12729,7 @@
       <c r="L784" s="43"/>
       <c r="M784" s="43"/>
     </row>
-    <row r="785" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:13" ht="19.5" customHeight="1">
       <c r="A785" s="41"/>
       <c r="B785" s="42"/>
       <c r="C785" s="42"/>
@@ -12744,7 +12744,7 @@
       <c r="L785" s="43"/>
       <c r="M785" s="43"/>
     </row>
-    <row r="786" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:13" ht="19.5" customHeight="1">
       <c r="A786" s="41"/>
       <c r="B786" s="42"/>
       <c r="C786" s="42"/>
@@ -12759,7 +12759,7 @@
       <c r="L786" s="43"/>
       <c r="M786" s="43"/>
     </row>
-    <row r="787" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:13" ht="19.5" customHeight="1">
       <c r="A787" s="41"/>
       <c r="B787" s="42"/>
       <c r="C787" s="42"/>
@@ -12774,7 +12774,7 @@
       <c r="L787" s="43"/>
       <c r="M787" s="43"/>
     </row>
-    <row r="788" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:13" ht="19.5" customHeight="1">
       <c r="A788" s="41"/>
       <c r="B788" s="42"/>
       <c r="C788" s="42"/>
@@ -12789,7 +12789,7 @@
       <c r="L788" s="43"/>
       <c r="M788" s="43"/>
     </row>
-    <row r="789" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:13" ht="19.5" customHeight="1">
       <c r="A789" s="41"/>
       <c r="B789" s="42"/>
       <c r="C789" s="42"/>
@@ -12804,7 +12804,7 @@
       <c r="L789" s="43"/>
       <c r="M789" s="43"/>
     </row>
-    <row r="790" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:13" ht="19.5" customHeight="1">
       <c r="A790" s="41"/>
       <c r="B790" s="42"/>
       <c r="C790" s="42"/>
@@ -12819,7 +12819,7 @@
       <c r="L790" s="43"/>
       <c r="M790" s="43"/>
     </row>
-    <row r="791" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:13" ht="19.5" customHeight="1">
       <c r="A791" s="41"/>
       <c r="B791" s="42"/>
       <c r="C791" s="42"/>
@@ -12834,7 +12834,7 @@
       <c r="L791" s="43"/>
       <c r="M791" s="43"/>
     </row>
-    <row r="792" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:13" ht="19.5" customHeight="1">
       <c r="A792" s="41"/>
       <c r="B792" s="42"/>
       <c r="C792" s="42"/>
@@ -12849,7 +12849,7 @@
       <c r="L792" s="43"/>
       <c r="M792" s="43"/>
     </row>
-    <row r="793" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:13" ht="19.5" customHeight="1">
       <c r="A793" s="41"/>
       <c r="B793" s="42"/>
       <c r="C793" s="42"/>
@@ -12864,7 +12864,7 @@
       <c r="L793" s="43"/>
       <c r="M793" s="43"/>
     </row>
-    <row r="794" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:13" ht="19.5" customHeight="1">
       <c r="A794" s="41"/>
       <c r="B794" s="42"/>
       <c r="C794" s="42"/>
@@ -12879,7 +12879,7 @@
       <c r="L794" s="43"/>
       <c r="M794" s="43"/>
     </row>
-    <row r="795" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:13" ht="19.5" customHeight="1">
       <c r="A795" s="41"/>
       <c r="B795" s="42"/>
       <c r="C795" s="42"/>
@@ -12894,7 +12894,7 @@
       <c r="L795" s="43"/>
       <c r="M795" s="43"/>
     </row>
-    <row r="796" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:13" ht="19.5" customHeight="1">
       <c r="A796" s="41"/>
       <c r="B796" s="42"/>
       <c r="C796" s="42"/>
@@ -12909,7 +12909,7 @@
       <c r="L796" s="43"/>
       <c r="M796" s="43"/>
     </row>
-    <row r="797" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:13" ht="19.5" customHeight="1">
       <c r="A797" s="41"/>
       <c r="B797" s="42"/>
       <c r="C797" s="42"/>
@@ -12924,7 +12924,7 @@
       <c r="L797" s="43"/>
       <c r="M797" s="43"/>
     </row>
-    <row r="798" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:13" ht="19.5" customHeight="1">
       <c r="A798" s="41"/>
       <c r="B798" s="42"/>
       <c r="C798" s="42"/>
@@ -12939,7 +12939,7 @@
       <c r="L798" s="43"/>
       <c r="M798" s="43"/>
     </row>
-    <row r="799" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:13" ht="19.5" customHeight="1">
       <c r="A799" s="41"/>
       <c r="B799" s="42"/>
       <c r="C799" s="42"/>
@@ -12954,7 +12954,7 @@
       <c r="L799" s="43"/>
       <c r="M799" s="43"/>
     </row>
-    <row r="800" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:13" ht="19.5" customHeight="1">
       <c r="A800" s="41"/>
       <c r="B800" s="42"/>
       <c r="C800" s="42"/>
@@ -12969,7 +12969,7 @@
       <c r="L800" s="43"/>
       <c r="M800" s="43"/>
     </row>
-    <row r="801" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:13" ht="19.5" customHeight="1">
       <c r="A801" s="41"/>
       <c r="B801" s="42"/>
       <c r="C801" s="42"/>
@@ -12984,7 +12984,7 @@
       <c r="L801" s="43"/>
       <c r="M801" s="43"/>
     </row>
-    <row r="802" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:13" ht="19.5" customHeight="1">
       <c r="A802" s="41"/>
       <c r="B802" s="42"/>
       <c r="C802" s="42"/>
@@ -12999,7 +12999,7 @@
       <c r="L802" s="43"/>
       <c r="M802" s="43"/>
     </row>
-    <row r="803" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:13" ht="19.5" customHeight="1">
       <c r="A803" s="41"/>
       <c r="B803" s="42"/>
       <c r="C803" s="42"/>
@@ -13014,7 +13014,7 @@
       <c r="L803" s="43"/>
       <c r="M803" s="43"/>
     </row>
-    <row r="804" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:13" ht="19.5" customHeight="1">
       <c r="A804" s="41"/>
       <c r="B804" s="42"/>
       <c r="C804" s="42"/>
@@ -13029,7 +13029,7 @@
       <c r="L804" s="43"/>
       <c r="M804" s="43"/>
     </row>
-    <row r="805" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:13" ht="19.5" customHeight="1">
       <c r="A805" s="41"/>
       <c r="B805" s="42"/>
       <c r="C805" s="42"/>
@@ -13044,7 +13044,7 @@
       <c r="L805" s="43"/>
       <c r="M805" s="43"/>
     </row>
-    <row r="806" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:13" ht="19.5" customHeight="1">
       <c r="A806" s="41"/>
       <c r="B806" s="42"/>
       <c r="C806" s="42"/>
@@ -13059,7 +13059,7 @@
       <c r="L806" s="43"/>
       <c r="M806" s="43"/>
     </row>
-    <row r="807" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:13" ht="19.5" customHeight="1">
       <c r="A807" s="41"/>
       <c r="B807" s="42"/>
       <c r="C807" s="42"/>
@@ -13074,7 +13074,7 @@
       <c r="L807" s="43"/>
       <c r="M807" s="43"/>
     </row>
-    <row r="808" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:13" ht="19.5" customHeight="1">
       <c r="A808" s="41"/>
       <c r="B808" s="42"/>
       <c r="C808" s="42"/>
@@ -13089,7 +13089,7 @@
       <c r="L808" s="43"/>
       <c r="M808" s="43"/>
     </row>
-    <row r="809" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:13" ht="19.5" customHeight="1">
       <c r="A809" s="41"/>
       <c r="B809" s="42"/>
       <c r="C809" s="42"/>
@@ -13104,7 +13104,7 @@
       <c r="L809" s="43"/>
       <c r="M809" s="43"/>
     </row>
-    <row r="810" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:13" ht="19.5" customHeight="1">
       <c r="A810" s="41"/>
       <c r="B810" s="42"/>
       <c r="C810" s="42"/>
@@ -13119,7 +13119,7 @@
       <c r="L810" s="43"/>
       <c r="M810" s="43"/>
     </row>
-    <row r="811" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:13" ht="19.5" customHeight="1">
       <c r="A811" s="41"/>
       <c r="B811" s="42"/>
       <c r="C811" s="42"/>
@@ -13134,7 +13134,7 @@
       <c r="L811" s="43"/>
       <c r="M811" s="43"/>
     </row>
-    <row r="812" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:13" ht="19.5" customHeight="1">
       <c r="A812" s="41"/>
       <c r="B812" s="42"/>
       <c r="C812" s="42"/>
@@ -13149,7 +13149,7 @@
       <c r="L812" s="43"/>
       <c r="M812" s="43"/>
     </row>
-    <row r="813" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:13" ht="19.5" customHeight="1">
       <c r="A813" s="41"/>
       <c r="B813" s="42"/>
       <c r="C813" s="42"/>
@@ -13164,7 +13164,7 @@
       <c r="L813" s="43"/>
       <c r="M813" s="43"/>
     </row>
-    <row r="814" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:13" ht="19.5" customHeight="1">
       <c r="A814" s="41"/>
       <c r="B814" s="42"/>
       <c r="C814" s="42"/>
@@ -13179,7 +13179,7 @@
       <c r="L814" s="43"/>
       <c r="M814" s="43"/>
     </row>
-    <row r="815" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:13" ht="19.5" customHeight="1">
       <c r="A815" s="41"/>
       <c r="B815" s="42"/>
       <c r="C815" s="42"/>
@@ -13194,7 +13194,7 @@
       <c r="L815" s="43"/>
       <c r="M815" s="43"/>
     </row>
-    <row r="816" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:13" ht="19.5" customHeight="1">
       <c r="A816" s="41"/>
       <c r="B816" s="42"/>
       <c r="C816" s="42"/>
@@ -13209,7 +13209,7 @@
       <c r="L816" s="43"/>
       <c r="M816" s="43"/>
     </row>
-    <row r="817" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:13" ht="19.5" customHeight="1">
       <c r="A817" s="41"/>
       <c r="B817" s="42"/>
       <c r="C817" s="42"/>
@@ -13224,7 +13224,7 @@
       <c r="L817" s="43"/>
       <c r="M817" s="43"/>
     </row>
-    <row r="818" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:13" ht="19.5" customHeight="1">
       <c r="A818" s="41"/>
       <c r="B818" s="42"/>
       <c r="C818" s="42"/>
@@ -13239,7 +13239,7 @@
       <c r="L818" s="43"/>
       <c r="M818" s="43"/>
     </row>
-    <row r="819" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:13" ht="19.5" customHeight="1">
       <c r="A819" s="41"/>
       <c r="B819" s="42"/>
       <c r="C819" s="42"/>
@@ -13254,7 +13254,7 @@
       <c r="L819" s="43"/>
       <c r="M819" s="43"/>
     </row>
-    <row r="820" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:13" ht="19.5" customHeight="1">
       <c r="A820" s="41"/>
       <c r="B820" s="42"/>
       <c r="C820" s="42"/>
@@ -13269,7 +13269,7 @@
       <c r="L820" s="43"/>
       <c r="M820" s="43"/>
     </row>
-    <row r="821" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:13" ht="19.5" customHeight="1">
       <c r="A821" s="41"/>
       <c r="B821" s="42"/>
       <c r="C821" s="42"/>
@@ -13284,7 +13284,7 @@
       <c r="L821" s="43"/>
       <c r="M821" s="43"/>
     </row>
-    <row r="822" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:13" ht="19.5" customHeight="1">
       <c r="A822" s="41"/>
       <c r="B822" s="42"/>
       <c r="C822" s="42"/>
@@ -13299,7 +13299,7 @@
       <c r="L822" s="43"/>
       <c r="M822" s="43"/>
     </row>
-    <row r="823" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:13" ht="19.5" customHeight="1">
       <c r="A823" s="41"/>
       <c r="B823" s="42"/>
       <c r="C823" s="42"/>
@@ -13314,7 +13314,7 @@
       <c r="L823" s="43"/>
       <c r="M823" s="43"/>
     </row>
-    <row r="824" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:13" ht="19.5" customHeight="1">
       <c r="A824" s="41"/>
       <c r="B824" s="42"/>
       <c r="C824" s="42"/>
@@ -13329,7 +13329,7 @@
       <c r="L824" s="43"/>
       <c r="M824" s="43"/>
     </row>
-    <row r="825" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:13" ht="19.5" customHeight="1">
       <c r="A825" s="41"/>
       <c r="B825" s="42"/>
       <c r="C825" s="42"/>
@@ -13344,7 +13344,7 @@
       <c r="L825" s="43"/>
       <c r="M825" s="43"/>
     </row>
-    <row r="826" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:13" ht="19.5" customHeight="1">
       <c r="A826" s="41"/>
       <c r="B826" s="42"/>
       <c r="C826" s="42"/>
@@ -13359,7 +13359,7 @@
       <c r="L826" s="43"/>
       <c r="M826" s="43"/>
     </row>
-    <row r="827" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:13" ht="19.5" customHeight="1">
       <c r="A827" s="41"/>
       <c r="B827" s="42"/>
       <c r="C827" s="42"/>
@@ -13374,7 +13374,7 @@
       <c r="L827" s="43"/>
       <c r="M827" s="43"/>
     </row>
-    <row r="828" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:13" ht="19.5" customHeight="1">
       <c r="A828" s="41"/>
       <c r="B828" s="42"/>
       <c r="C828" s="42"/>
@@ -13389,7 +13389,7 @@
       <c r="L828" s="43"/>
       <c r="M828" s="43"/>
     </row>
-    <row r="829" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:13" ht="19.5" customHeight="1">
       <c r="A829" s="41"/>
       <c r="B829" s="42"/>
       <c r="C829" s="42"/>
@@ -13404,7 +13404,7 @@
       <c r="L829" s="43"/>
       <c r="M829" s="43"/>
     </row>
-    <row r="830" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:13" ht="19.5" customHeight="1">
       <c r="A830" s="41"/>
       <c r="B830" s="42"/>
       <c r="C830" s="42"/>
@@ -13419,7 +13419,7 @@
       <c r="L830" s="43"/>
       <c r="M830" s="43"/>
     </row>
-    <row r="831" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:13" ht="19.5" customHeight="1">
       <c r="A831" s="41"/>
       <c r="B831" s="42"/>
       <c r="C831" s="42"/>
@@ -13434,7 +13434,7 @@
       <c r="L831" s="43"/>
       <c r="M831" s="43"/>
     </row>
-    <row r="832" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:13" ht="19.5" customHeight="1">
       <c r="A832" s="41"/>
       <c r="B832" s="42"/>
       <c r="C832" s="42"/>
@@ -13449,7 +13449,7 @@
       <c r="L832" s="43"/>
       <c r="M832" s="43"/>
     </row>
-    <row r="833" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:13" ht="19.5" customHeight="1">
       <c r="A833" s="41"/>
       <c r="B833" s="42"/>
       <c r="C833" s="42"/>
@@ -13464,7 +13464,7 @@
       <c r="L833" s="43"/>
       <c r="M833" s="43"/>
     </row>
-    <row r="834" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:13" ht="19.5" customHeight="1">
       <c r="A834" s="41"/>
       <c r="B834" s="42"/>
       <c r="C834" s="42"/>
@@ -13479,7 +13479,7 @@
       <c r="L834" s="43"/>
       <c r="M834" s="43"/>
     </row>
-    <row r="835" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:13" ht="19.5" customHeight="1">
       <c r="A835" s="41"/>
       <c r="B835" s="42"/>
       <c r="C835" s="42"/>
@@ -13494,7 +13494,7 @@
       <c r="L835" s="43"/>
       <c r="M835" s="43"/>
     </row>
-    <row r="836" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:13" ht="19.5" customHeight="1">
       <c r="A836" s="41"/>
       <c r="B836" s="42"/>
       <c r="C836" s="42"/>
@@ -13509,7 +13509,7 @@
       <c r="L836" s="43"/>
       <c r="M836" s="43"/>
     </row>
-    <row r="837" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:13" ht="19.5" customHeight="1">
       <c r="A837" s="41"/>
       <c r="B837" s="42"/>
       <c r="C837" s="42"/>
@@ -13524,7 +13524,7 @@
       <c r="L837" s="43"/>
       <c r="M837" s="43"/>
     </row>
-    <row r="838" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:13" ht="19.5" customHeight="1">
       <c r="A838" s="41"/>
       <c r="B838" s="42"/>
       <c r="C838" s="42"/>
@@ -13539,7 +13539,7 @@
       <c r="L838" s="43"/>
       <c r="M838" s="43"/>
     </row>
-    <row r="839" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:13" ht="19.5" customHeight="1">
       <c r="A839" s="41"/>
       <c r="B839" s="42"/>
       <c r="C839" s="42"/>
@@ -13554,7 +13554,7 @@
       <c r="L839" s="43"/>
       <c r="M839" s="43"/>
     </row>
-    <row r="840" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:13" ht="19.5" customHeight="1">
       <c r="A840" s="41"/>
       <c r="B840" s="42"/>
       <c r="C840" s="42"/>
@@ -13569,7 +13569,7 @@
       <c r="L840" s="43"/>
       <c r="M840" s="43"/>
     </row>
-    <row r="841" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:13" ht="19.5" customHeight="1">
       <c r="A841" s="41"/>
       <c r="B841" s="42"/>
       <c r="C841" s="42"/>
@@ -13584,7 +13584,7 @@
       <c r="L841" s="43"/>
       <c r="M841" s="43"/>
     </row>
-    <row r="842" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:13" ht="19.5" customHeight="1">
       <c r="A842" s="41"/>
       <c r="B842" s="42"/>
       <c r="C842" s="42"/>
@@ -13599,7 +13599,7 @@
       <c r="L842" s="43"/>
       <c r="M842" s="43"/>
     </row>
-    <row r="843" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:13" ht="19.5" customHeight="1">
       <c r="A843" s="41"/>
       <c r="B843" s="42"/>
       <c r="C843" s="42"/>
@@ -13614,7 +13614,7 @@
       <c r="L843" s="43"/>
       <c r="M843" s="43"/>
     </row>
-    <row r="844" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:13" ht="19.5" customHeight="1">
       <c r="A844" s="41"/>
       <c r="B844" s="42"/>
       <c r="C844" s="42"/>
@@ -13629,7 +13629,7 @@
       <c r="L844" s="43"/>
       <c r="M844" s="43"/>
     </row>
-    <row r="845" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:13" ht="19.5" customHeight="1">
       <c r="A845" s="41"/>
       <c r="B845" s="42"/>
       <c r="C845" s="42"/>
@@ -13644,7 +13644,7 @@
       <c r="L845" s="43"/>
       <c r="M845" s="43"/>
     </row>
-    <row r="846" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:13" ht="19.5" customHeight="1">
       <c r="A846" s="41"/>
       <c r="B846" s="42"/>
       <c r="C846" s="42"/>
@@ -13659,7 +13659,7 @@
       <c r="L846" s="43"/>
       <c r="M846" s="43"/>
     </row>
-    <row r="847" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:13" ht="19.5" customHeight="1">
       <c r="A847" s="41"/>
       <c r="B847" s="42"/>
       <c r="C847" s="42"/>
@@ -13674,7 +13674,7 @@
       <c r="L847" s="43"/>
       <c r="M847" s="43"/>
     </row>
-    <row r="848" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:13" ht="19.5" customHeight="1">
       <c r="A848" s="41"/>
       <c r="B848" s="42"/>
       <c r="C848" s="42"/>
@@ -13689,7 +13689,7 @@
       <c r="L848" s="43"/>
       <c r="M848" s="43"/>
     </row>
-    <row r="849" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:13" ht="19.5" customHeight="1">
       <c r="A849" s="41"/>
       <c r="B849" s="42"/>
       <c r="C849" s="42"/>
@@ -13704,7 +13704,7 @@
       <c r="L849" s="43"/>
       <c r="M849" s="43"/>
     </row>
-    <row r="850" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:13" ht="19.5" customHeight="1">
       <c r="A850" s="41"/>
       <c r="B850" s="42"/>
       <c r="C850" s="42"/>
@@ -13719,7 +13719,7 @@
       <c r="L850" s="43"/>
       <c r="M850" s="43"/>
     </row>
-    <row r="851" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:13" ht="19.5" customHeight="1">
       <c r="A851" s="41"/>
       <c r="B851" s="42"/>
       <c r="C851" s="42"/>
@@ -13734,7 +13734,7 @@
       <c r="L851" s="43"/>
       <c r="M851" s="43"/>
     </row>
-    <row r="852" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:13" ht="19.5" customHeight="1">
       <c r="A852" s="41"/>
       <c r="B852" s="42"/>
       <c r="C852" s="42"/>
@@ -13749,7 +13749,7 @@
       <c r="L852" s="43"/>
       <c r="M852" s="43"/>
     </row>
-    <row r="853" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:13" ht="19.5" customHeight="1">
       <c r="A853" s="41"/>
       <c r="B853" s="42"/>
       <c r="C853" s="42"/>
@@ -13764,7 +13764,7 @@
       <c r="L853" s="43"/>
       <c r="M853" s="43"/>
     </row>
-    <row r="854" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:13" ht="19.5" customHeight="1">
       <c r="A854" s="41"/>
       <c r="B854" s="42"/>
       <c r="C854" s="42"/>
@@ -13779,7 +13779,7 @@
       <c r="L854" s="43"/>
       <c r="M854" s="43"/>
     </row>
-    <row r="855" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:13" ht="19.5" customHeight="1">
       <c r="A855" s="41"/>
       <c r="B855" s="42"/>
       <c r="C855" s="42"/>
@@ -13794,7 +13794,7 @@
       <c r="L855" s="43"/>
       <c r="M855" s="43"/>
     </row>
-    <row r="856" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:13" ht="19.5" customHeight="1">
       <c r="A856" s="41"/>
       <c r="B856" s="42"/>
       <c r="C856" s="42"/>
@@ -13809,7 +13809,7 @@
       <c r="L856" s="43"/>
       <c r="M856" s="43"/>
     </row>
-    <row r="857" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:13" ht="19.5" customHeight="1">
       <c r="A857" s="41"/>
       <c r="B857" s="42"/>
       <c r="C857" s="42"/>
@@ -13824,7 +13824,7 @@
       <c r="L857" s="43"/>
       <c r="M857" s="43"/>
     </row>
-    <row r="858" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:13" ht="19.5" customHeight="1">
       <c r="A858" s="41"/>
       <c r="B858" s="42"/>
       <c r="C858" s="42"/>
@@ -13839,7 +13839,7 @@
       <c r="L858" s="43"/>
       <c r="M858" s="43"/>
     </row>
-    <row r="859" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:13" ht="19.5" customHeight="1">
       <c r="A859" s="41"/>
       <c r="B859" s="42"/>
       <c r="C859" s="42"/>
@@ -13854,7 +13854,7 @@
       <c r="L859" s="43"/>
       <c r="M859" s="43"/>
     </row>
-    <row r="860" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:13" ht="19.5" customHeight="1">
       <c r="A860" s="41"/>
       <c r="B860" s="42"/>
       <c r="C860" s="42"/>
@@ -13869,7 +13869,7 @@
       <c r="L860" s="43"/>
       <c r="M860" s="43"/>
     </row>
-    <row r="861" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:13" ht="19.5" customHeight="1">
       <c r="A861" s="41"/>
       <c r="B861" s="42"/>
       <c r="C861" s="42"/>
@@ -13884,7 +13884,7 @@
       <c r="L861" s="43"/>
       <c r="M861" s="43"/>
     </row>
-    <row r="862" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:13" ht="19.5" customHeight="1">
       <c r="A862" s="41"/>
       <c r="B862" s="42"/>
       <c r="C862" s="42"/>
@@ -13899,7 +13899,7 @@
       <c r="L862" s="43"/>
       <c r="M862" s="43"/>
     </row>
-    <row r="863" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:13" ht="19.5" customHeight="1">
       <c r="A863" s="41"/>
       <c r="B863" s="42"/>
       <c r="C863" s="42"/>
@@ -13914,7 +13914,7 @@
       <c r="L863" s="43"/>
       <c r="M863" s="43"/>
     </row>
-    <row r="864" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:13" ht="19.5" customHeight="1">
       <c r="A864" s="41"/>
       <c r="B864" s="42"/>
       <c r="C864" s="42"/>
@@ -13929,7 +13929,7 @@
       <c r="L864" s="43"/>
       <c r="M864" s="43"/>
     </row>
-    <row r="865" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:13" ht="19.5" customHeight="1">
       <c r="A865" s="41"/>
       <c r="B865" s="42"/>
       <c r="C865" s="42"/>
@@ -13944,7 +13944,7 @@
       <c r="L865" s="43"/>
       <c r="M865" s="43"/>
     </row>
-    <row r="866" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:13" ht="19.5" customHeight="1">
       <c r="A866" s="41"/>
       <c r="B866" s="42"/>
       <c r="C866" s="42"/>
@@ -13959,7 +13959,7 @@
       <c r="L866" s="43"/>
       <c r="M866" s="43"/>
     </row>
-    <row r="867" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:13" ht="19.5" customHeight="1">
       <c r="A867" s="41"/>
       <c r="B867" s="42"/>
       <c r="C867" s="42"/>
@@ -13974,7 +13974,7 @@
       <c r="L867" s="43"/>
       <c r="M867" s="43"/>
     </row>
-    <row r="868" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:13" ht="19.5" customHeight="1">
       <c r="A868" s="41"/>
       <c r="B868" s="42"/>
       <c r="C868" s="42"/>
@@ -13989,7 +13989,7 @@
       <c r="L868" s="43"/>
       <c r="M868" s="43"/>
     </row>
-    <row r="869" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:13" ht="19.5" customHeight="1">
       <c r="A869" s="41"/>
       <c r="B869" s="42"/>
       <c r="C869" s="42"/>
@@ -14004,7 +14004,7 @@
       <c r="L869" s="43"/>
       <c r="M869" s="43"/>
     </row>
-    <row r="870" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:13" ht="19.5" customHeight="1">
       <c r="A870" s="41"/>
       <c r="B870" s="42"/>
       <c r="C870" s="42"/>
@@ -14019,7 +14019,7 @@
       <c r="L870" s="43"/>
       <c r="M870" s="43"/>
     </row>
-    <row r="871" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:13" ht="19.5" customHeight="1">
       <c r="A871" s="41"/>
       <c r="B871" s="42"/>
       <c r="C871" s="42"/>
@@ -14034,7 +14034,7 @@
       <c r="L871" s="43"/>
       <c r="M871" s="43"/>
     </row>
-    <row r="872" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:13" ht="19.5" customHeight="1">
       <c r="A872" s="41"/>
       <c r="B872" s="42"/>
       <c r="C872" s="42"/>
@@ -14049,7 +14049,7 @@
       <c r="L872" s="43"/>
       <c r="M872" s="43"/>
     </row>
-    <row r="873" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:13" ht="19.5" customHeight="1">
       <c r="A873" s="41"/>
       <c r="B873" s="42"/>
       <c r="C873" s="42"/>
@@ -14064,7 +14064,7 @@
       <c r="L873" s="43"/>
       <c r="M873" s="43"/>
     </row>
-    <row r="874" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:13" ht="19.5" customHeight="1">
       <c r="A874" s="41"/>
       <c r="B874" s="42"/>
       <c r="C874" s="42"/>
@@ -14079,7 +14079,7 @@
       <c r="L874" s="43"/>
       <c r="M874" s="43"/>
     </row>
-    <row r="875" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:13" ht="19.5" customHeight="1">
       <c r="A875" s="41"/>
       <c r="B875" s="42"/>
       <c r="C875" s="42"/>
@@ -14094,7 +14094,7 @@
       <c r="L875" s="43"/>
       <c r="M875" s="43"/>
     </row>
-    <row r="876" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:13" ht="19.5" customHeight="1">
       <c r="A876" s="41"/>
       <c r="B876" s="42"/>
       <c r="C876" s="42"/>
@@ -14109,7 +14109,7 @@
       <c r="L876" s="43"/>
       <c r="M876" s="43"/>
     </row>
-    <row r="877" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:13" ht="19.5" customHeight="1">
       <c r="A877" s="41"/>
       <c r="B877" s="42"/>
       <c r="C877" s="42"/>
@@ -14124,7 +14124,7 @@
       <c r="L877" s="43"/>
       <c r="M877" s="43"/>
     </row>
-    <row r="878" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:13" ht="19.5" customHeight="1">
       <c r="A878" s="41"/>
       <c r="B878" s="42"/>
       <c r="C878" s="42"/>
@@ -14139,7 +14139,7 @@
       <c r="L878" s="43"/>
       <c r="M878" s="43"/>
     </row>
-    <row r="879" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:13" ht="19.5" customHeight="1">
       <c r="A879" s="41"/>
       <c r="B879" s="42"/>
       <c r="C879" s="42"/>
@@ -14154,7 +14154,7 @@
       <c r="L879" s="43"/>
       <c r="M879" s="43"/>
     </row>
-    <row r="880" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:13" ht="19.5" customHeight="1">
       <c r="A880" s="41"/>
       <c r="B880" s="42"/>
       <c r="C880" s="42"/>
@@ -14169,7 +14169,7 @@
       <c r="L880" s="43"/>
       <c r="M880" s="43"/>
     </row>
-    <row r="881" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:13" ht="19.5" customHeight="1">
       <c r="A881" s="41"/>
       <c r="B881" s="42"/>
       <c r="C881" s="42"/>
@@ -14184,7 +14184,7 @@
       <c r="L881" s="43"/>
       <c r="M881" s="43"/>
     </row>
-    <row r="882" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:13" ht="19.5" customHeight="1">
       <c r="A882" s="41"/>
       <c r="B882" s="42"/>
       <c r="C882" s="42"/>
@@ -14199,7 +14199,7 @@
       <c r="L882" s="43"/>
       <c r="M882" s="43"/>
     </row>
-    <row r="883" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:13" ht="19.5" customHeight="1">
       <c r="A883" s="41"/>
       <c r="B883" s="42"/>
       <c r="C883" s="42"/>
@@ -14214,7 +14214,7 @@
       <c r="L883" s="43"/>
       <c r="M883" s="43"/>
     </row>
-    <row r="884" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:13" ht="19.5" customHeight="1">
       <c r="A884" s="41"/>
       <c r="B884" s="42"/>
       <c r="C884" s="42"/>
@@ -14229,7 +14229,7 @@
       <c r="L884" s="43"/>
       <c r="M884" s="43"/>
     </row>
-    <row r="885" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:13" ht="19.5" customHeight="1">
       <c r="A885" s="41"/>
       <c r="B885" s="42"/>
       <c r="C885" s="42"/>
@@ -14244,7 +14244,7 @@
       <c r="L885" s="43"/>
       <c r="M885" s="43"/>
     </row>
-    <row r="886" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:13" ht="19.5" customHeight="1">
       <c r="A886" s="41"/>
       <c r="B886" s="42"/>
       <c r="C886" s="42"/>
@@ -14259,7 +14259,7 @@
       <c r="L886" s="43"/>
       <c r="M886" s="43"/>
     </row>
-    <row r="887" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:13" ht="19.5" customHeight="1">
       <c r="A887" s="41"/>
       <c r="B887" s="42"/>
       <c r="C887" s="42"/>
@@ -14274,7 +14274,7 @@
       <c r="L887" s="43"/>
       <c r="M887" s="43"/>
     </row>
-    <row r="888" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:13" ht="19.5" customHeight="1">
       <c r="A888" s="41"/>
       <c r="B888" s="42"/>
       <c r="C888" s="42"/>
@@ -14289,7 +14289,7 @@
       <c r="L888" s="43"/>
       <c r="M888" s="43"/>
     </row>
-    <row r="889" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:13" ht="19.5" customHeight="1">
       <c r="A889" s="41"/>
       <c r="B889" s="42"/>
       <c r="C889" s="42"/>
@@ -14304,7 +14304,7 @@
       <c r="L889" s="43"/>
       <c r="M889" s="43"/>
     </row>
-    <row r="890" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:13" ht="19.5" customHeight="1">
       <c r="A890" s="41"/>
       <c r="B890" s="42"/>
       <c r="C890" s="42"/>
@@ -14319,7 +14319,7 @@
       <c r="L890" s="43"/>
       <c r="M890" s="43"/>
     </row>
-    <row r="891" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:13" ht="19.5" customHeight="1">
       <c r="A891" s="41"/>
       <c r="B891" s="42"/>
       <c r="C891" s="42"/>
@@ -14334,7 +14334,7 @@
       <c r="L891" s="43"/>
       <c r="M891" s="43"/>
     </row>
-    <row r="892" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:13" ht="19.5" customHeight="1">
       <c r="A892" s="41"/>
       <c r="B892" s="42"/>
       <c r="C892" s="42"/>
@@ -14349,7 +14349,7 @@
       <c r="L892" s="43"/>
       <c r="M892" s="43"/>
     </row>
-    <row r="893" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:13" ht="19.5" customHeight="1">
       <c r="A893" s="41"/>
       <c r="B893" s="42"/>
       <c r="C893" s="42"/>
@@ -14364,7 +14364,7 @@
       <c r="L893" s="43"/>
       <c r="M893" s="43"/>
     </row>
-    <row r="894" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:13" ht="19.5" customHeight="1">
       <c r="A894" s="41"/>
       <c r="B894" s="42"/>
       <c r="C894" s="42"/>
@@ -14379,7 +14379,7 @@
       <c r="L894" s="43"/>
       <c r="M894" s="43"/>
     </row>
-    <row r="895" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:13" ht="19.5" customHeight="1">
       <c r="A895" s="41"/>
       <c r="B895" s="42"/>
       <c r="C895" s="42"/>
@@ -14394,7 +14394,7 @@
       <c r="L895" s="43"/>
       <c r="M895" s="43"/>
     </row>
-    <row r="896" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:13" ht="19.5" customHeight="1">
       <c r="A896" s="41"/>
       <c r="B896" s="42"/>
       <c r="C896" s="42"/>
@@ -14409,7 +14409,7 @@
       <c r="L896" s="43"/>
       <c r="M896" s="43"/>
     </row>
-    <row r="897" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:13" ht="19.5" customHeight="1">
       <c r="A897" s="41"/>
       <c r="B897" s="42"/>
       <c r="C897" s="42"/>
@@ -14424,7 +14424,7 @@
       <c r="L897" s="43"/>
       <c r="M897" s="43"/>
     </row>
-    <row r="898" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:13" ht="19.5" customHeight="1">
       <c r="A898" s="41"/>
       <c r="B898" s="42"/>
       <c r="C898" s="42"/>
@@ -14439,7 +14439,7 @@
       <c r="L898" s="43"/>
       <c r="M898" s="43"/>
     </row>
-    <row r="899" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:13" ht="19.5" customHeight="1">
       <c r="A899" s="41"/>
       <c r="B899" s="42"/>
       <c r="C899" s="42"/>
@@ -14454,7 +14454,7 @@
       <c r="L899" s="43"/>
       <c r="M899" s="43"/>
     </row>
-    <row r="900" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:13" ht="19.5" customHeight="1">
       <c r="A900" s="41"/>
       <c r="B900" s="42"/>
       <c r="C900" s="42"/>
@@ -14469,7 +14469,7 @@
       <c r="L900" s="43"/>
       <c r="M900" s="43"/>
     </row>
-    <row r="901" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:13" ht="19.5" customHeight="1">
       <c r="A901" s="41"/>
       <c r="B901" s="42"/>
       <c r="C901" s="42"/>
@@ -14484,7 +14484,7 @@
       <c r="L901" s="43"/>
       <c r="M901" s="43"/>
     </row>
-    <row r="902" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:13" ht="19.5" customHeight="1">
       <c r="A902" s="41"/>
       <c r="B902" s="42"/>
       <c r="C902" s="42"/>
@@ -14499,7 +14499,7 @@
       <c r="L902" s="43"/>
       <c r="M902" s="43"/>
     </row>
-    <row r="903" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:13" ht="19.5" customHeight="1">
       <c r="A903" s="41"/>
       <c r="B903" s="42"/>
       <c r="C903" s="42"/>
@@ -14514,7 +14514,7 @@
       <c r="L903" s="43"/>
       <c r="M903" s="43"/>
     </row>
-    <row r="904" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:13" ht="19.5" customHeight="1">
       <c r="A904" s="41"/>
       <c r="B904" s="42"/>
       <c r="C904" s="42"/>
@@ -14529,7 +14529,7 @@
       <c r="L904" s="43"/>
       <c r="M904" s="43"/>
     </row>
-    <row r="905" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:13" ht="19.5" customHeight="1">
       <c r="A905" s="41"/>
       <c r="B905" s="42"/>
       <c r="C905" s="42"/>
@@ -14544,7 +14544,7 @@
       <c r="L905" s="43"/>
       <c r="M905" s="43"/>
     </row>
-    <row r="906" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:13" ht="19.5" customHeight="1">
       <c r="A906" s="41"/>
       <c r="B906" s="42"/>
       <c r="C906" s="42"/>
@@ -14559,7 +14559,7 @@
       <c r="L906" s="43"/>
       <c r="M906" s="43"/>
     </row>
-    <row r="907" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:13" ht="19.5" customHeight="1">
       <c r="A907" s="41"/>
       <c r="B907" s="42"/>
       <c r="C907" s="42"/>
@@ -14574,7 +14574,7 @@
       <c r="L907" s="43"/>
       <c r="M907" s="43"/>
     </row>
-    <row r="908" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:13" ht="19.5" customHeight="1">
       <c r="A908" s="41"/>
       <c r="B908" s="42"/>
       <c r="C908" s="42"/>
@@ -14589,7 +14589,7 @@
       <c r="L908" s="43"/>
       <c r="M908" s="43"/>
     </row>
-    <row r="909" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:13" ht="19.5" customHeight="1">
       <c r="A909" s="41"/>
       <c r="B909" s="42"/>
       <c r="C909" s="42"/>
@@ -14604,7 +14604,7 @@
       <c r="L909" s="43"/>
       <c r="M909" s="43"/>
     </row>
-    <row r="910" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:13" ht="19.5" customHeight="1">
       <c r="A910" s="41"/>
       <c r="B910" s="42"/>
       <c r="C910" s="42"/>
@@ -14619,7 +14619,7 @@
       <c r="L910" s="43"/>
       <c r="M910" s="43"/>
     </row>
-    <row r="911" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:13" ht="19.5" customHeight="1">
       <c r="A911" s="41"/>
       <c r="B911" s="42"/>
       <c r="C911" s="42"/>
@@ -14634,7 +14634,7 @@
       <c r="L911" s="43"/>
       <c r="M911" s="43"/>
     </row>
-    <row r="912" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:13" ht="19.5" customHeight="1">
       <c r="A912" s="41"/>
       <c r="B912" s="42"/>
       <c r="C912" s="42"/>
@@ -14649,7 +14649,7 @@
       <c r="L912" s="43"/>
       <c r="M912" s="43"/>
     </row>
-    <row r="913" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:13" ht="19.5" customHeight="1">
       <c r="A913" s="41"/>
       <c r="B913" s="42"/>
       <c r="C913" s="42"/>
@@ -14664,7 +14664,7 @@
       <c r="L913" s="43"/>
       <c r="M913" s="43"/>
     </row>
-    <row r="914" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:13" ht="19.5" customHeight="1">
       <c r="A914" s="41"/>
       <c r="B914" s="42"/>
       <c r="C914" s="42"/>
@@ -14679,7 +14679,7 @@
       <c r="L914" s="43"/>
       <c r="M914" s="43"/>
     </row>
-    <row r="915" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:13" ht="19.5" customHeight="1">
       <c r="A915" s="41"/>
       <c r="B915" s="42"/>
       <c r="C915" s="42"/>
@@ -14694,7 +14694,7 @@
       <c r="L915" s="43"/>
       <c r="M915" s="43"/>
     </row>
-    <row r="916" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:13" ht="19.5" customHeight="1">
       <c r="A916" s="41"/>
       <c r="B916" s="42"/>
       <c r="C916" s="42"/>
@@ -14709,7 +14709,7 @@
       <c r="L916" s="43"/>
       <c r="M916" s="43"/>
     </row>
-    <row r="917" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:13" ht="19.5" customHeight="1">
       <c r="A917" s="41"/>
       <c r="B917" s="42"/>
       <c r="C917" s="42"/>
@@ -14724,7 +14724,7 @@
       <c r="L917" s="43"/>
       <c r="M917" s="43"/>
     </row>
-    <row r="918" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:13" ht="19.5" customHeight="1">
       <c r="A918" s="41"/>
       <c r="B918" s="42"/>
       <c r="C918" s="42"/>
@@ -14739,7 +14739,7 @@
       <c r="L918" s="43"/>
       <c r="M918" s="43"/>
     </row>
-    <row r="919" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:13" ht="19.5" customHeight="1">
       <c r="A919" s="41"/>
       <c r="B919" s="42"/>
       <c r="C919" s="42"/>
@@ -14754,7 +14754,7 @@
       <c r="L919" s="43"/>
       <c r="M919" s="43"/>
     </row>
-    <row r="920" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:13" ht="19.5" customHeight="1">
       <c r="A920" s="41"/>
       <c r="B920" s="42"/>
       <c r="C920" s="42"/>
@@ -14769,7 +14769,7 @@
       <c r="L920" s="43"/>
       <c r="M920" s="43"/>
     </row>
-    <row r="921" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:13" ht="19.5" customHeight="1">
       <c r="A921" s="41"/>
       <c r="B921" s="42"/>
       <c r="C921" s="42"/>
@@ -14784,7 +14784,7 @@
       <c r="L921" s="43"/>
       <c r="M921" s="43"/>
     </row>
-    <row r="922" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:13" ht="19.5" customHeight="1">
       <c r="A922" s="41"/>
       <c r="B922" s="42"/>
       <c r="C922" s="42"/>
@@ -14799,7 +14799,7 @@
       <c r="L922" s="43"/>
       <c r="M922" s="43"/>
     </row>
-    <row r="923" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:13" ht="19.5" customHeight="1">
       <c r="A923" s="41"/>
       <c r="B923" s="42"/>
       <c r="C923" s="42"/>
@@ -14814,7 +14814,7 @@
       <c r="L923" s="43"/>
       <c r="M923" s="43"/>
     </row>
-    <row r="924" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:13" ht="19.5" customHeight="1">
       <c r="A924" s="41"/>
       <c r="B924" s="42"/>
       <c r="C924" s="42"/>
@@ -14829,7 +14829,7 @@
       <c r="L924" s="43"/>
       <c r="M924" s="43"/>
     </row>
-    <row r="925" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:13" ht="19.5" customHeight="1">
       <c r="A925" s="41"/>
       <c r="B925" s="42"/>
       <c r="C925" s="42"/>
@@ -14844,7 +14844,7 @@
       <c r="L925" s="43"/>
       <c r="M925" s="43"/>
     </row>
-    <row r="926" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:13" ht="19.5" customHeight="1">
       <c r="A926" s="41"/>
       <c r="B926" s="42"/>
       <c r="C926" s="42"/>
@@ -14859,7 +14859,7 @@
       <c r="L926" s="43"/>
       <c r="M926" s="43"/>
     </row>
-    <row r="927" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:13" ht="19.5" customHeight="1">
       <c r="A927" s="41"/>
       <c r="B927" s="42"/>
       <c r="C927" s="42"/>
@@ -14874,7 +14874,7 @@
       <c r="L927" s="43"/>
       <c r="M927" s="43"/>
     </row>
-    <row r="928" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:13" ht="19.5" customHeight="1">
       <c r="A928" s="41"/>
       <c r="B928" s="42"/>
       <c r="C928" s="42"/>
@@ -14889,7 +14889,7 @@
       <c r="L928" s="43"/>
       <c r="M928" s="43"/>
     </row>
-    <row r="929" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:13" ht="19.5" customHeight="1">
       <c r="A929" s="41"/>
       <c r="B929" s="42"/>
       <c r="C929" s="42"/>
@@ -14904,7 +14904,7 @@
       <c r="L929" s="43"/>
       <c r="M929" s="43"/>
     </row>
-    <row r="930" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:13" ht="19.5" customHeight="1">
       <c r="A930" s="41"/>
       <c r="B930" s="42"/>
       <c r="C930" s="42"/>
@@ -14919,7 +14919,7 @@
       <c r="L930" s="43"/>
       <c r="M930" s="43"/>
     </row>
-    <row r="931" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:13" ht="19.5" customHeight="1">
       <c r="A931" s="41"/>
       <c r="B931" s="42"/>
       <c r="C931" s="42"/>
@@ -14934,7 +14934,7 @@
       <c r="L931" s="43"/>
       <c r="M931" s="43"/>
     </row>
-    <row r="932" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:13" ht="19.5" customHeight="1">
       <c r="A932" s="41"/>
       <c r="B932" s="42"/>
       <c r="C932" s="42"/>
@@ -14949,7 +14949,7 @@
       <c r="L932" s="43"/>
       <c r="M932" s="43"/>
     </row>
-    <row r="933" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:13" ht="19.5" customHeight="1">
       <c r="A933" s="41"/>
       <c r="B933" s="42"/>
       <c r="C933" s="42"/>
@@ -14964,7 +14964,7 @@
       <c r="L933" s="43"/>
       <c r="M933" s="43"/>
     </row>
-    <row r="934" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:13" ht="19.5" customHeight="1">
       <c r="A934" s="41"/>
       <c r="B934" s="42"/>
       <c r="C934" s="42"/>
@@ -14979,7 +14979,7 @@
       <c r="L934" s="43"/>
       <c r="M934" s="43"/>
     </row>
-    <row r="935" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:13" ht="19.5" customHeight="1">
       <c r="A935" s="41"/>
       <c r="B935" s="42"/>
       <c r="C935" s="42"/>
@@ -14994,7 +14994,7 @@
       <c r="L935" s="43"/>
       <c r="M935" s="43"/>
     </row>
-    <row r="936" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:13" ht="19.5" customHeight="1">
       <c r="A936" s="41"/>
       <c r="B936" s="42"/>
       <c r="C936" s="42"/>
@@ -15009,7 +15009,7 @@
       <c r="L936" s="43"/>
       <c r="M936" s="43"/>
     </row>
-    <row r="937" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:13" ht="19.5" customHeight="1">
       <c r="A937" s="41"/>
       <c r="B937" s="42"/>
       <c r="C937" s="42"/>
@@ -15024,7 +15024,7 @@
       <c r="L937" s="43"/>
       <c r="M937" s="43"/>
     </row>
-    <row r="938" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:13" ht="19.5" customHeight="1">
       <c r="A938" s="41"/>
       <c r="B938" s="42"/>
       <c r="C938" s="42"/>
@@ -15039,7 +15039,7 @@
       <c r="L938" s="43"/>
       <c r="M938" s="43"/>
     </row>
-    <row r="939" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:13" ht="19.5" customHeight="1">
       <c r="A939" s="41"/>
       <c r="B939" s="42"/>
       <c r="C939" s="42"/>
@@ -15054,7 +15054,7 @@
       <c r="L939" s="43"/>
       <c r="M939" s="43"/>
     </row>
-    <row r="940" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:13" ht="19.5" customHeight="1">
       <c r="A940" s="41"/>
       <c r="B940" s="42"/>
       <c r="C940" s="42"/>
@@ -15069,7 +15069,7 @@
       <c r="L940" s="43"/>
       <c r="M940" s="43"/>
     </row>
-    <row r="941" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:13" ht="19.5" customHeight="1">
       <c r="A941" s="41"/>
       <c r="B941" s="42"/>
       <c r="C941" s="42"/>
@@ -15084,7 +15084,7 @@
       <c r="L941" s="43"/>
       <c r="M941" s="43"/>
     </row>
-    <row r="942" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:13" ht="19.5" customHeight="1">
       <c r="A942" s="41"/>
       <c r="B942" s="42"/>
       <c r="C942" s="42"/>
@@ -15099,7 +15099,7 @@
       <c r="L942" s="43"/>
       <c r="M942" s="43"/>
     </row>
-    <row r="943" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:13" ht="19.5" customHeight="1">
       <c r="A943" s="41"/>
       <c r="B943" s="42"/>
       <c r="C943" s="42"/>
@@ -15114,7 +15114,7 @@
       <c r="L943" s="43"/>
       <c r="M943" s="43"/>
     </row>
-    <row r="944" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:13" ht="19.5" customHeight="1">
       <c r="A944" s="41"/>
       <c r="B944" s="42"/>
       <c r="C944" s="42"/>
@@ -15129,7 +15129,7 @@
       <c r="L944" s="43"/>
       <c r="M944" s="43"/>
     </row>
-    <row r="945" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:13" ht="19.5" customHeight="1">
       <c r="A945" s="41"/>
       <c r="B945" s="42"/>
       <c r="C945" s="42"/>
@@ -15144,7 +15144,7 @@
       <c r="L945" s="43"/>
       <c r="M945" s="43"/>
     </row>
-    <row r="946" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:13" ht="19.5" customHeight="1">
       <c r="A946" s="41"/>
       <c r="B946" s="42"/>
       <c r="C946" s="42"/>
@@ -15159,7 +15159,7 @@
       <c r="L946" s="43"/>
       <c r="M946" s="43"/>
     </row>
-    <row r="947" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:13" ht="19.5" customHeight="1">
       <c r="A947" s="41"/>
       <c r="B947" s="42"/>
       <c r="C947" s="42"/>
@@ -15174,7 +15174,7 @@
       <c r="L947" s="43"/>
       <c r="M947" s="43"/>
     </row>
-    <row r="948" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:13" ht="19.5" customHeight="1">
       <c r="A948" s="41"/>
       <c r="B948" s="42"/>
       <c r="C948" s="42"/>
@@ -15189,7 +15189,7 @@
       <c r="L948" s="43"/>
       <c r="M948" s="43"/>
     </row>
-    <row r="949" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:13" ht="19.5" customHeight="1">
       <c r="A949" s="41"/>
       <c r="B949" s="42"/>
       <c r="C949" s="42"/>
@@ -15204,7 +15204,7 @@
       <c r="L949" s="43"/>
       <c r="M949" s="43"/>
     </row>
-    <row r="950" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:13" ht="19.5" customHeight="1">
       <c r="A950" s="41"/>
       <c r="B950" s="42"/>
       <c r="C950" s="42"/>
@@ -15219,7 +15219,7 @@
       <c r="L950" s="43"/>
       <c r="M950" s="43"/>
     </row>
-    <row r="951" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:13" ht="19.5" customHeight="1">
       <c r="A951" s="41"/>
       <c r="B951" s="42"/>
       <c r="C951" s="42"/>
@@ -15234,7 +15234,7 @@
       <c r="L951" s="43"/>
       <c r="M951" s="43"/>
     </row>
-    <row r="952" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:13" ht="19.5" customHeight="1">
       <c r="A952" s="41"/>
       <c r="B952" s="42"/>
       <c r="C952" s="42"/>
@@ -15249,7 +15249,7 @@
       <c r="L952" s="43"/>
       <c r="M952" s="43"/>
     </row>
-    <row r="953" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:13" ht="19.5" customHeight="1">
       <c r="A953" s="41"/>
       <c r="B953" s="42"/>
       <c r="C953" s="42"/>
@@ -15264,7 +15264,7 @@
       <c r="L953" s="43"/>
       <c r="M953" s="43"/>
     </row>
-    <row r="954" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:13" ht="19.5" customHeight="1">
       <c r="A954" s="41"/>
       <c r="B954" s="42"/>
       <c r="C954" s="42"/>
@@ -15279,7 +15279,7 @@
       <c r="L954" s="43"/>
       <c r="M954" s="43"/>
     </row>
-    <row r="955" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:13" ht="19.5" customHeight="1">
       <c r="A955" s="41"/>
       <c r="B955" s="42"/>
       <c r="C955" s="42"/>
@@ -15294,7 +15294,7 @@
       <c r="L955" s="43"/>
       <c r="M955" s="43"/>
     </row>
-    <row r="956" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:13" ht="19.5" customHeight="1">
       <c r="A956" s="41"/>
       <c r="B956" s="42"/>
       <c r="C956" s="42"/>
@@ -15309,7 +15309,7 @@
       <c r="L956" s="43"/>
       <c r="M956" s="43"/>
     </row>
-    <row r="957" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:13" ht="19.5" customHeight="1">
       <c r="A957" s="41"/>
       <c r="B957" s="42"/>
       <c r="C957" s="42"/>
@@ -15324,7 +15324,7 @@
       <c r="L957" s="43"/>
       <c r="M957" s="43"/>
     </row>
-    <row r="958" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:13" ht="19.5" customHeight="1">
       <c r="A958" s="41"/>
       <c r="B958" s="42"/>
       <c r="C958" s="42"/>
@@ -15339,7 +15339,7 @@
       <c r="L958" s="43"/>
       <c r="M958" s="43"/>
     </row>
-    <row r="959" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:13" ht="19.5" customHeight="1">
       <c r="A959" s="41"/>
       <c r="B959" s="42"/>
       <c r="C959" s="42"/>
@@ -15354,7 +15354,7 @@
       <c r="L959" s="43"/>
       <c r="M959" s="43"/>
     </row>
-    <row r="960" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:13" ht="19.5" customHeight="1">
       <c r="A960" s="41"/>
       <c r="B960" s="42"/>
       <c r="C960" s="42"/>
@@ -15369,7 +15369,7 @@
       <c r="L960" s="43"/>
       <c r="M960" s="43"/>
     </row>
-    <row r="961" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:13" ht="19.5" customHeight="1">
       <c r="A961" s="41"/>
       <c r="B961" s="42"/>
       <c r="C961" s="42"/>
@@ -15384,7 +15384,7 @@
       <c r="L961" s="43"/>
       <c r="M961" s="43"/>
     </row>
-    <row r="962" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:13" ht="19.5" customHeight="1">
       <c r="A962" s="41"/>
       <c r="B962" s="42"/>
       <c r="C962" s="42"/>
@@ -15399,7 +15399,7 @@
       <c r="L962" s="43"/>
       <c r="M962" s="43"/>
     </row>
-    <row r="963" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:13" ht="19.5" customHeight="1">
       <c r="A963" s="41"/>
       <c r="B963" s="42"/>
       <c r="C963" s="42"/>
@@ -15414,7 +15414,7 @@
       <c r="L963" s="43"/>
       <c r="M963" s="43"/>
     </row>
-    <row r="964" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:13" ht="19.5" customHeight="1">
       <c r="A964" s="41"/>
       <c r="B964" s="42"/>
       <c r="C964" s="42"/>
@@ -15429,7 +15429,7 @@
       <c r="L964" s="43"/>
       <c r="M964" s="43"/>
     </row>
-    <row r="965" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:13" ht="19.5" customHeight="1">
       <c r="A965" s="41"/>
       <c r="B965" s="42"/>
       <c r="C965" s="42"/>
@@ -15444,7 +15444,7 @@
       <c r="L965" s="43"/>
       <c r="M965" s="43"/>
     </row>
-    <row r="966" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:13" ht="19.5" customHeight="1">
       <c r="A966" s="41"/>
       <c r="B966" s="42"/>
       <c r="C966" s="42"/>
@@ -15459,7 +15459,7 @@
       <c r="L966" s="43"/>
       <c r="M966" s="43"/>
     </row>
-    <row r="967" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:13" ht="19.5" customHeight="1">
       <c r="A967" s="41"/>
       <c r="B967" s="42"/>
       <c r="C967" s="42"/>
@@ -15474,7 +15474,7 @@
       <c r="L967" s="43"/>
       <c r="M967" s="43"/>
     </row>
-    <row r="968" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:13" ht="19.5" customHeight="1">
       <c r="A968" s="41"/>
       <c r="B968" s="42"/>
       <c r="C968" s="42"/>
@@ -15489,7 +15489,7 @@
       <c r="L968" s="43"/>
       <c r="M968" s="43"/>
     </row>
-    <row r="969" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:13" ht="19.5" customHeight="1">
       <c r="A969" s="41"/>
       <c r="B969" s="42"/>
       <c r="C969" s="42"/>
@@ -15504,7 +15504,7 @@
       <c r="L969" s="43"/>
       <c r="M969" s="43"/>
     </row>
-    <row r="970" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:13" ht="19.5" customHeight="1">
       <c r="A970" s="41"/>
       <c r="B970" s="42"/>
       <c r="C970" s="42"/>
@@ -15519,7 +15519,7 @@
       <c r="L970" s="43"/>
       <c r="M970" s="43"/>
     </row>
-    <row r="971" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:13" ht="19.5" customHeight="1">
       <c r="A971" s="41"/>
       <c r="B971" s="42"/>
       <c r="C971" s="42"/>
@@ -15534,7 +15534,7 @@
       <c r="L971" s="43"/>
       <c r="M971" s="43"/>
     </row>
-    <row r="972" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:13" ht="19.5" customHeight="1">
       <c r="A972" s="41"/>
       <c r="B972" s="42"/>
       <c r="C972" s="42"/>
@@ -15549,7 +15549,7 @@
       <c r="L972" s="43"/>
       <c r="M972" s="43"/>
     </row>
-    <row r="973" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:13" ht="19.5" customHeight="1">
       <c r="A973" s="41"/>
       <c r="B973" s="42"/>
       <c r="C973" s="42"/>
@@ -15564,7 +15564,7 @@
       <c r="L973" s="43"/>
       <c r="M973" s="43"/>
     </row>
-    <row r="974" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:13" ht="19.5" customHeight="1">
       <c r="A974" s="41"/>
       <c r="B974" s="42"/>
       <c r="C974" s="42"/>
@@ -15579,7 +15579,7 @@
       <c r="L974" s="43"/>
       <c r="M974" s="43"/>
     </row>
-    <row r="975" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:13" ht="19.5" customHeight="1">
       <c r="A975" s="41"/>
       <c r="B975" s="42"/>
       <c r="C975" s="42"/>
@@ -15594,7 +15594,7 @@
       <c r="L975" s="43"/>
       <c r="M975" s="43"/>
     </row>
-    <row r="976" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:13" ht="19.5" customHeight="1">
       <c r="A976" s="41"/>
       <c r="B976" s="42"/>
       <c r="C976" s="42"/>
@@ -15609,7 +15609,7 @@
       <c r="L976" s="43"/>
       <c r="M976" s="43"/>
     </row>
-    <row r="977" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:13" ht="19.5" customHeight="1">
       <c r="A977" s="41"/>
       <c r="B977" s="42"/>
       <c r="C977" s="42"/>
@@ -15624,7 +15624,7 @@
       <c r="L977" s="43"/>
       <c r="M977" s="43"/>
     </row>
-    <row r="978" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:13" ht="19.5" customHeight="1">
       <c r="A978" s="41"/>
       <c r="B978" s="42"/>
       <c r="C978" s="42"/>
@@ -15639,7 +15639,7 @@
       <c r="L978" s="43"/>
       <c r="M978" s="43"/>
     </row>
-    <row r="979" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:13" ht="19.5" customHeight="1">
       <c r="A979" s="41"/>
       <c r="B979" s="42"/>
       <c r="C979" s="42"/>
@@ -15654,7 +15654,7 @@
       <c r="L979" s="43"/>
       <c r="M979" s="43"/>
     </row>
-    <row r="980" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:13" ht="19.5" customHeight="1">
       <c r="A980" s="41"/>
       <c r="B980" s="42"/>
       <c r="C980" s="42"/>
@@ -15669,7 +15669,7 @@
       <c r="L980" s="43"/>
       <c r="M980" s="43"/>
     </row>
-    <row r="981" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:13" ht="19.5" customHeight="1">
       <c r="A981" s="41"/>
       <c r="B981" s="42"/>
       <c r="C981" s="42"/>
@@ -15684,7 +15684,7 @@
       <c r="L981" s="43"/>
       <c r="M981" s="43"/>
     </row>
-    <row r="982" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:13" ht="19.5" customHeight="1">
       <c r="A982" s="41"/>
       <c r="B982" s="42"/>
       <c r="C982" s="42"/>
@@ -15699,7 +15699,7 @@
       <c r="L982" s="43"/>
       <c r="M982" s="43"/>
     </row>
-    <row r="983" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:13" ht="19.5" customHeight="1">
       <c r="A983" s="41"/>
       <c r="B983" s="42"/>
       <c r="C983" s="42"/>
@@ -15714,7 +15714,7 @@
       <c r="L983" s="43"/>
       <c r="M983" s="43"/>
     </row>
-    <row r="984" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:13" ht="19.5" customHeight="1">
       <c r="A984" s="41"/>
       <c r="B984" s="42"/>
       <c r="C984" s="42"/>
@@ -15729,7 +15729,7 @@
       <c r="L984" s="43"/>
       <c r="M984" s="43"/>
     </row>
-    <row r="985" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:13" ht="19.5" customHeight="1">
       <c r="A985" s="41"/>
       <c r="B985" s="42"/>
       <c r="C985" s="42"/>
@@ -15744,7 +15744,7 @@
       <c r="L985" s="43"/>
       <c r="M985" s="43"/>
     </row>
-    <row r="986" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:13" ht="19.5" customHeight="1">
       <c r="A986" s="41"/>
       <c r="B986" s="42"/>
       <c r="C986" s="42"/>
@@ -15759,7 +15759,7 @@
       <c r="L986" s="43"/>
       <c r="M986" s="43"/>
     </row>
-    <row r="987" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:13" ht="19.5" customHeight="1">
       <c r="A987" s="41"/>
       <c r="B987" s="42"/>
       <c r="C987" s="42"/>
@@ -15774,7 +15774,7 @@
       <c r="L987" s="43"/>
       <c r="M987" s="43"/>
     </row>
-    <row r="988" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:13" ht="19.5" customHeight="1">
       <c r="A988" s="41"/>
       <c r="B988" s="42"/>
       <c r="C988" s="42"/>
@@ -15789,7 +15789,7 @@
       <c r="L988" s="43"/>
       <c r="M988" s="43"/>
     </row>
-    <row r="989" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:13" ht="19.5" customHeight="1">
       <c r="A989" s="41"/>
       <c r="B989" s="42"/>
       <c r="C989" s="42"/>
@@ -15804,7 +15804,7 @@
       <c r="L989" s="43"/>
       <c r="M989" s="43"/>
     </row>
-    <row r="990" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:13" ht="19.5" customHeight="1">
       <c r="A990" s="41"/>
       <c r="B990" s="42"/>
       <c r="C990" s="42"/>
@@ -15819,7 +15819,7 @@
       <c r="L990" s="43"/>
       <c r="M990" s="43"/>
     </row>
-    <row r="991" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:13" ht="19.5" customHeight="1">
       <c r="A991" s="41"/>
       <c r="B991" s="42"/>
       <c r="C991" s="42"/>
@@ -15834,7 +15834,7 @@
       <c r="L991" s="43"/>
       <c r="M991" s="43"/>
     </row>
-    <row r="992" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:13" ht="19.5" customHeight="1">
       <c r="A992" s="41"/>
       <c r="B992" s="42"/>
       <c r="C992" s="42"/>
@@ -15849,7 +15849,7 @@
       <c r="L992" s="43"/>
       <c r="M992" s="43"/>
     </row>
-    <row r="993" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:13" ht="19.5" customHeight="1">
       <c r="A993" s="41"/>
       <c r="B993" s="42"/>
       <c r="C993" s="42"/>
@@ -15864,7 +15864,7 @@
       <c r="L993" s="43"/>
       <c r="M993" s="43"/>
     </row>
-    <row r="994" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:13" ht="19.5" customHeight="1">
       <c r="A994" s="41"/>
       <c r="B994" s="42"/>
       <c r="C994" s="42"/>
@@ -15879,7 +15879,7 @@
       <c r="L994" s="43"/>
       <c r="M994" s="43"/>
     </row>
-    <row r="995" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:13" ht="19.5" customHeight="1">
       <c r="A995" s="41"/>
       <c r="B995" s="42"/>
       <c r="C995" s="42"/>
@@ -15894,7 +15894,7 @@
       <c r="L995" s="43"/>
       <c r="M995" s="43"/>
     </row>
-    <row r="996" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:13" ht="19.5" customHeight="1">
       <c r="A996" s="41"/>
       <c r="B996" s="42"/>
       <c r="C996" s="42"/>
@@ -15909,7 +15909,7 @@
       <c r="L996" s="43"/>
       <c r="M996" s="43"/>
     </row>
-    <row r="997" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:13" ht="19.5" customHeight="1">
       <c r="A997" s="41"/>
       <c r="B997" s="42"/>
       <c r="C997" s="42"/>
@@ -15924,7 +15924,7 @@
       <c r="L997" s="43"/>
       <c r="M997" s="43"/>
     </row>
-    <row r="998" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:13" ht="19.5" customHeight="1">
       <c r="A998" s="41"/>
       <c r="B998" s="42"/>
       <c r="C998" s="42"/>
@@ -15939,7 +15939,7 @@
       <c r="L998" s="43"/>
       <c r="M998" s="43"/>
     </row>
-    <row r="999" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:13" ht="19.5" customHeight="1">
       <c r="A999" s="41"/>
       <c r="B999" s="42"/>
       <c r="C999" s="42"/>
@@ -15954,7 +15954,7 @@
       <c r="L999" s="43"/>
       <c r="M999" s="43"/>
     </row>
-    <row r="1000" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:13" ht="19.5" customHeight="1">
       <c r="A1000" s="41"/>
       <c r="B1000" s="42"/>
       <c r="C1000" s="42"/>
@@ -16005,34 +16005,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -16051,69 +16051,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>

--- a/test/test_data/test_file_main_subject_country.xlsx
+++ b/test/test_data/test_file_main_subject_country.xlsx
@@ -123,7 +123,7 @@
     <t xml:space="preserve">Attack context</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
+    <t xml:space="preserve">Location0</t>
   </si>
   <si>
     <t xml:space="preserve">Latitude</t>
@@ -684,7 +684,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
